--- a/cuestionario_formr_lisa.xlsx
+++ b/cuestionario_formr_lisa.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="Y39N0FqGME3zKH67GlGBOmtoVws+Gj1LKqs2vCtV+tg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="IKVVm1Sb81nAVYI7jx9q96E3x4Erw5a7DZGXz5V3Ly0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="411">
   <si>
     <t>explanations</t>
   </si>
@@ -1084,7 +1084,7 @@
     <t>titulo6_1</t>
   </si>
   <si>
-    <t>**Las preguntas de este módulo exploran su grado de conocimiento de la Política de Acceso Abierto a la Información Científica y a Datos de Investigación financiados con fondos públicos de la Agencia Nacional de Investigación y Desarrollo (ANID). En este sentido, se busca medir cuanto conoce y práctica los principios y protocolos establecidos por la Política.**</t>
+    <t>&gt; Las preguntas de este módulo exploran su grado de conocimiento acerca de la Política de Acceso Abierto a la Información Científica y a Datos de Investigación financiados con fondos públicos de la Agencia Nacional de Investigación y Desarrollo (ANID). En este sentido, se busca medir cuanto conoce y practica los principios y protocolos establecidos por la Política.</t>
   </si>
   <si>
     <t>Elaboración propia</t>
@@ -1093,64 +1093,76 @@
     <t>anid01</t>
   </si>
   <si>
-    <t>## 6.1. ¿Ha escuchado sobre la Política de Acceso Abierto a la Información Científica y a Datos de Investigación propuesta por la ANID?</t>
+    <t>### 6.1. ¿Ha escuchado sobre la Política de Acceso Abierto a la Información Científica y a Datos de Investigación propuesta por la ANID?</t>
   </si>
   <si>
     <t>anid02</t>
   </si>
   <si>
-    <t>## 6.2. Según su opinión ¿Cuán necesario es la implementación de políticas de acceso abierto obligatorias para investigaciones financiadas por fondos públicos?</t>
+    <t>### 6.2. Según su opinión ¿Cuán necesario es la implementación de políticas de acceso abierto obligatorias para investigaciones financiadas por fondos públicos?</t>
   </si>
   <si>
     <t>anid03</t>
   </si>
   <si>
-    <t>## 6.3. ¿Qué tan familiarizado está con el Repositorio de la ANID?</t>
-  </si>
-  <si>
-    <t>Lo conozco, pero no he publicado nada ahí</t>
-  </si>
-  <si>
-    <t>Lo conozco y he publicado ahí</t>
+    <t>### 6.3. ¿Qué tan familiarizado está con el Repositorio de la ANID?</t>
+  </si>
+  <si>
+    <t>Lo conozco</t>
+  </si>
+  <si>
+    <t>anid03_b</t>
+  </si>
+  <si>
+    <t>anid03 == 2</t>
+  </si>
+  <si>
+    <t>### 6.3B ¿Ha publicado algún trabajo en el Repositorio de la ANID?</t>
   </si>
   <si>
     <t>anid04</t>
   </si>
   <si>
-    <t>## 6.4. ¿Ha diseñado un Plan de Gestión de Datos en el marco de algún proyecto de investigación?</t>
-  </si>
-  <si>
-    <t>No sé lo que es un Plan de Gestión de Datos</t>
+    <t>### 6.4 ¿Conoce el Plan de Gestión de Datos?</t>
+  </si>
+  <si>
+    <t>anid04_b</t>
+  </si>
+  <si>
+    <t>anid04 == 2</t>
+  </si>
+  <si>
+    <t>### 6.4. ¿Ha diseñado un Plan de Gestión de Datos en el marco de algún proyecto de investigación?</t>
   </si>
   <si>
     <t>anid05</t>
   </si>
   <si>
-    <t>## 6.5. ¿Qué tan de acuerdo se encuentra con que la ANID continúe desarrollando e implementado políticas de acceso abierto a la producción científica?</t>
+    <t>### 6.5. ¿Qué tan de acuerdo se encuentra con que la ANID continúe desarrollando e implementado políticas de acceso abierto a la producción científica?</t>
   </si>
   <si>
     <t>anid06</t>
   </si>
   <si>
-    <t xml:space="preserve">## 6.6. Según su opinión ¿Cuán necesario es que la ANID incorpore al diseño de investigación dentro de su Política de Acceso Abierto? </t>
+    <t xml:space="preserve">### 6.6. Según su opinión ¿Cuán necesario es que la ANID incorpore al diseño de investigación dentro de su Política de Acceso Abierto? </t>
   </si>
   <si>
     <t>anid07</t>
   </si>
   <si>
-    <t>## 6.7. Según su opinión ¿Cuán necesario es que la ANID incorpore la reproducibilidad de la investigación dentro de su Política de Acceso Abierto?</t>
+    <t>### 6.7. Según su opinión ¿Cuán necesario es que la ANID incorpore la reproducibilidad de la investigación dentro de su Política de Acceso Abierto?</t>
   </si>
   <si>
     <t>anid08</t>
   </si>
   <si>
-    <t>## 6.8. ¿Qué tan de acuerdo se encuentra con que las políticas de acceso abierto sean de carácter obligatorio para las investigaciones financiadas por fondos públicos?</t>
+    <t>### 6.8. ¿Qué tan de acuerdo se encuentra con que las políticas de acceso abierto sean de carácter obligatorio para las investigaciones financiadas por fondos públicos?</t>
   </si>
   <si>
     <t>anid09</t>
   </si>
   <si>
-    <t>## 6.9. ¿Cómo evalúa la difusión de la Política de Acceso Abierto a la Información Científica y a Datos de Investigación por parte de la ANID?</t>
+    <t>### 6.9. ¿Cómo evalúa la difusión de la Política de Acceso Abierto a la Información Científica y a Datos de Investigación por parte de la ANID?</t>
   </si>
   <si>
     <t>Mala</t>
@@ -1346,7 +1358,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1424,6 +1436,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -6797,7 +6812,7 @@
         <v>346</v>
       </c>
       <c r="F138" s="15"/>
-      <c r="G138" s="16" t="s">
+      <c r="G138" s="17" t="s">
         <v>347</v>
       </c>
       <c r="H138" s="15"/>
@@ -6828,7 +6843,7 @@
         <v>349</v>
       </c>
       <c r="F139" s="15"/>
-      <c r="G139" s="16" t="s">
+      <c r="G139" s="17" t="s">
         <v>350</v>
       </c>
       <c r="H139" s="15" t="s">
@@ -6837,7 +6852,9 @@
       <c r="I139" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J139" s="15"/>
+      <c r="J139" s="18" t="s">
+        <v>136</v>
+      </c>
       <c r="K139" s="15"/>
       <c r="L139" s="15"/>
       <c r="M139" s="15"/>
@@ -6863,7 +6880,7 @@
         <v>351</v>
       </c>
       <c r="F140" s="15"/>
-      <c r="G140" s="16" t="s">
+      <c r="G140" s="17" t="s">
         <v>352</v>
       </c>
       <c r="H140" s="15" t="s">
@@ -6904,18 +6921,16 @@
         <v>353</v>
       </c>
       <c r="F141" s="15"/>
-      <c r="G141" s="16" t="s">
+      <c r="G141" s="17" t="s">
         <v>354</v>
       </c>
       <c r="H141" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="I141" s="15" t="s">
+      <c r="I141" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="J141" s="22" t="s">
-        <v>356</v>
-      </c>
+      <c r="J141" s="22"/>
       <c r="K141" s="15"/>
       <c r="L141" s="15"/>
       <c r="M141" s="15"/>
@@ -6937,21 +6952,23 @@
       <c r="D142" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E142" s="15" t="s">
+      <c r="E142" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="F142" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="F142" s="15"/>
-      <c r="G142" s="16" t="s">
+      <c r="G142" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="H142" s="15" t="s">
+      <c r="H142" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I142" s="15" t="s">
+      <c r="I142" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J142" s="22" t="s">
-        <v>359</v>
+      <c r="J142" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="K142" s="15"/>
       <c r="L142" s="15"/>
@@ -6968,31 +6985,29 @@
       <c r="B143" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C143" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E143" s="15" t="s">
+      <c r="D143" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F143" s="15"/>
+      <c r="G143" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="F143" s="15"/>
-      <c r="G143" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="H143" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="I143" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="J143" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="K143" s="22" t="s">
-        <v>188</v>
-      </c>
+      <c r="H143" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I143" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J143" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K143" s="15"/>
       <c r="L143" s="15"/>
       <c r="M143" s="15"/>
       <c r="N143" s="15"/>
@@ -7013,28 +7028,26 @@
       <c r="D144" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E144" s="15" t="s">
+      <c r="E144" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="F144" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="F144" s="15"/>
-      <c r="G144" s="16" t="s">
+      <c r="G144" s="17" t="s">
         <v>363</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="I144" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J144" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K144" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="L144" s="22" t="s">
-        <v>78</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J144" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K144" s="15"/>
+      <c r="L144" s="15"/>
       <c r="M144" s="15"/>
       <c r="N144" s="15"/>
       <c r="O144" s="15"/>
@@ -7058,24 +7071,22 @@
         <v>364</v>
       </c>
       <c r="F145" s="15"/>
-      <c r="G145" s="16" t="s">
+      <c r="G145" s="17" t="s">
         <v>365</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="I145" s="15" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="J145" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K145" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="L145" s="22" t="s">
-        <v>78</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="K145" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L145" s="15"/>
       <c r="M145" s="15"/>
       <c r="N145" s="15"/>
       <c r="O145" s="15"/>
@@ -7099,22 +7110,24 @@
         <v>366</v>
       </c>
       <c r="F146" s="15"/>
-      <c r="G146" s="16" t="s">
+      <c r="G146" s="17" t="s">
         <v>367</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="I146" s="15" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="J146" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="K146" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="L146" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="K146" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L146" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="M146" s="15"/>
       <c r="N146" s="15"/>
       <c r="O146" s="15"/>
@@ -7138,22 +7151,24 @@
         <v>368</v>
       </c>
       <c r="F147" s="15"/>
-      <c r="G147" s="16" t="s">
+      <c r="G147" s="17" t="s">
         <v>369</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="I147" s="15" t="s">
-        <v>371</v>
+        <v>75</v>
       </c>
       <c r="J147" s="15" t="s">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="K147" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="L147" s="15"/>
+        <v>77</v>
+      </c>
+      <c r="L147" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="M147" s="15"/>
       <c r="N147" s="15"/>
       <c r="O147" s="15"/>
@@ -7162,26 +7177,36 @@
     </row>
     <row r="148">
       <c r="A148" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B148" s="15"/>
+        <v>348</v>
+      </c>
+      <c r="B148" s="24" t="s">
+        <v>245</v>
+      </c>
       <c r="C148" s="15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F148" s="15"/>
-      <c r="G148" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
+      <c r="G148" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="H148" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="I148" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="J148" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="K148" s="22" t="s">
+        <v>188</v>
+      </c>
       <c r="L148" s="15"/>
       <c r="M148" s="15"/>
       <c r="N148" s="15"/>
@@ -7191,26 +7216,36 @@
     </row>
     <row r="149">
       <c r="A149" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B149" s="15"/>
-      <c r="C149" s="5" t="s">
-        <v>21</v>
+        <v>348</v>
+      </c>
+      <c r="B149" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E149" s="5" t="s">
+      <c r="E149" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F149" s="15"/>
+      <c r="G149" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H149" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="I149" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="F149" s="5"/>
-      <c r="G149" s="11" t="s">
+      <c r="J149" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="15"/>
+      <c r="K149" s="15" t="s">
+        <v>377</v>
+      </c>
       <c r="L149" s="15"/>
       <c r="M149" s="15"/>
       <c r="N149" s="15"/>
@@ -7222,21 +7257,19 @@
       <c r="A150" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B150" s="26" t="s">
-        <v>377</v>
-      </c>
+      <c r="B150" s="15"/>
       <c r="C150" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" s="15" t="s">
         <v>378</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E150" s="15" t="s">
-        <v>379</v>
       </c>
       <c r="F150" s="15"/>
       <c r="G150" s="16" t="s">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="H150" s="15"/>
       <c r="I150" s="15"/>
@@ -7253,31 +7286,23 @@
       <c r="A151" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B151" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>27</v>
+      <c r="B151" s="15"/>
+      <c r="C151" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E151" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="F151" s="15"/>
-      <c r="G151" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="H151" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="I151" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="J151" s="15" t="s">
-        <v>385</v>
-      </c>
+      <c r="E151" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F151" s="5"/>
+      <c r="G151" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
       <c r="K151" s="15"/>
       <c r="L151" s="15"/>
       <c r="M151" s="15"/>
@@ -7290,23 +7315,21 @@
       <c r="A152" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="26" t="s">
-        <v>377</v>
+      <c r="B152" s="27" t="s">
+        <v>381</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="F152" s="15" t="s">
-        <v>387</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="F152" s="15"/>
       <c r="G152" s="16" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
@@ -7323,25 +7346,31 @@
       <c r="A153" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B153" s="26" t="s">
-        <v>377</v>
+      <c r="B153" s="27" t="s">
+        <v>381</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>378</v>
+        <v>27</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F153" s="15"/>
       <c r="G153" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="15"/>
+        <v>386</v>
+      </c>
+      <c r="H153" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="I153" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="J153" s="15" t="s">
+        <v>389</v>
+      </c>
       <c r="K153" s="15"/>
       <c r="L153" s="15"/>
       <c r="M153" s="15"/>
@@ -7354,40 +7383,30 @@
       <c r="A154" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B154" s="26" t="s">
-        <v>377</v>
+      <c r="B154" s="27" t="s">
+        <v>381</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>27</v>
+        <v>382</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E154" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="F154" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="F154" s="15"/>
       <c r="G154" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="H154" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="I154" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="J154" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="K154" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="L154" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="M154" s="15" t="s">
-        <v>385</v>
-      </c>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="15"/>
+      <c r="M154" s="15"/>
       <c r="N154" s="15"/>
       <c r="O154" s="15"/>
       <c r="P154" s="15"/>
@@ -7397,23 +7416,21 @@
       <c r="A155" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B155" s="26" t="s">
-        <v>377</v>
+      <c r="B155" s="27" t="s">
+        <v>381</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="F155" s="15" t="s">
-        <v>399</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="F155" s="15"/>
       <c r="G155" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H155" s="15"/>
       <c r="I155" s="15"/>
@@ -7430,28 +7447,40 @@
       <c r="A156" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B156" s="26" t="s">
-        <v>377</v>
+      <c r="B156" s="27" t="s">
+        <v>381</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>378</v>
+        <v>27</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F156" s="15"/>
       <c r="G156" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="15"/>
-      <c r="L156" s="15"/>
-      <c r="M156" s="15"/>
+        <v>396</v>
+      </c>
+      <c r="H156" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="I156" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="J156" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="K156" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="L156" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="M156" s="15" t="s">
+        <v>389</v>
+      </c>
       <c r="N156" s="15"/>
       <c r="O156" s="15"/>
       <c r="P156" s="15"/>
@@ -7461,21 +7490,23 @@
       <c r="A157" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B157" s="26" t="s">
-        <v>377</v>
+      <c r="B157" s="27" t="s">
+        <v>381</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>36</v>
+        <v>382</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F157" s="15"/>
+        <v>402</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>403</v>
+      </c>
       <c r="G157" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H157" s="15"/>
       <c r="I157" s="15"/>
@@ -7489,3353 +7520,3415 @@
       <c r="Q157" s="15"/>
     </row>
     <row r="158">
-      <c r="A158" s="27"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="27"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="27"/>
-      <c r="K158" s="27"/>
-      <c r="L158" s="27"/>
-      <c r="M158" s="27"/>
-      <c r="N158" s="27"/>
-      <c r="O158" s="27"/>
-      <c r="P158" s="27"/>
-      <c r="Q158" s="27"/>
+      <c r="A158" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="F158" s="15"/>
+      <c r="G158" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="15"/>
+      <c r="N158" s="15"/>
+      <c r="O158" s="15"/>
+      <c r="P158" s="15"/>
+      <c r="Q158" s="15"/>
     </row>
     <row r="159">
-      <c r="A159" s="27"/>
-      <c r="B159" s="27"/>
-      <c r="C159" s="27"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="27"/>
-      <c r="K159" s="27"/>
-      <c r="L159" s="27"/>
-      <c r="M159" s="27"/>
-      <c r="N159" s="27"/>
-      <c r="O159" s="27"/>
-      <c r="P159" s="27"/>
-      <c r="Q159" s="27"/>
+      <c r="A159" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F159" s="15"/>
+      <c r="G159" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="15"/>
+      <c r="N159" s="15"/>
+      <c r="O159" s="15"/>
+      <c r="P159" s="15"/>
+      <c r="Q159" s="15"/>
     </row>
     <row r="160">
-      <c r="A160" s="27"/>
-      <c r="B160" s="27"/>
-      <c r="C160" s="27"/>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
-      <c r="J160" s="27"/>
-      <c r="K160" s="27"/>
-      <c r="L160" s="27"/>
-      <c r="M160" s="27"/>
-      <c r="N160" s="27"/>
-      <c r="O160" s="27"/>
-      <c r="P160" s="27"/>
-      <c r="Q160" s="27"/>
+      <c r="A160" s="28"/>
+      <c r="B160" s="28"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="28"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="28"/>
+      <c r="H160" s="28"/>
+      <c r="I160" s="28"/>
+      <c r="J160" s="28"/>
+      <c r="K160" s="28"/>
+      <c r="L160" s="28"/>
+      <c r="M160" s="28"/>
+      <c r="N160" s="28"/>
+      <c r="O160" s="28"/>
+      <c r="P160" s="28"/>
+      <c r="Q160" s="28"/>
     </row>
     <row r="161">
-      <c r="A161" s="27"/>
-      <c r="B161" s="27"/>
-      <c r="C161" s="27"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="27"/>
-      <c r="K161" s="27"/>
-      <c r="L161" s="27"/>
-      <c r="M161" s="27"/>
-      <c r="N161" s="27"/>
-      <c r="O161" s="27"/>
-      <c r="P161" s="27"/>
-      <c r="Q161" s="27"/>
+      <c r="A161" s="28"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="28"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="28"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="28"/>
+      <c r="H161" s="28"/>
+      <c r="I161" s="28"/>
+      <c r="J161" s="28"/>
+      <c r="K161" s="28"/>
+      <c r="L161" s="28"/>
+      <c r="M161" s="28"/>
+      <c r="N161" s="28"/>
+      <c r="O161" s="28"/>
+      <c r="P161" s="28"/>
+      <c r="Q161" s="28"/>
     </row>
     <row r="162">
-      <c r="A162" s="27"/>
-      <c r="B162" s="27"/>
-      <c r="C162" s="27"/>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="27"/>
-      <c r="J162" s="27"/>
-      <c r="K162" s="27"/>
-      <c r="L162" s="27"/>
-      <c r="M162" s="27"/>
-      <c r="N162" s="27"/>
-      <c r="O162" s="27"/>
-      <c r="P162" s="27"/>
-      <c r="Q162" s="27"/>
+      <c r="A162" s="28"/>
+      <c r="B162" s="28"/>
+      <c r="C162" s="28"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="28"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="28"/>
+      <c r="H162" s="28"/>
+      <c r="I162" s="28"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="28"/>
+      <c r="L162" s="28"/>
+      <c r="M162" s="28"/>
+      <c r="N162" s="28"/>
+      <c r="O162" s="28"/>
+      <c r="P162" s="28"/>
+      <c r="Q162" s="28"/>
     </row>
     <row r="163">
-      <c r="A163" s="27"/>
-      <c r="B163" s="27"/>
-      <c r="C163" s="27"/>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="27"/>
-      <c r="K163" s="27"/>
-      <c r="L163" s="27"/>
-      <c r="M163" s="27"/>
-      <c r="N163" s="27"/>
-      <c r="O163" s="27"/>
-      <c r="P163" s="27"/>
-      <c r="Q163" s="27"/>
+      <c r="A163" s="28"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="28"/>
+      <c r="H163" s="28"/>
+      <c r="I163" s="28"/>
+      <c r="J163" s="28"/>
+      <c r="K163" s="28"/>
+      <c r="L163" s="28"/>
+      <c r="M163" s="28"/>
+      <c r="N163" s="28"/>
+      <c r="O163" s="28"/>
+      <c r="P163" s="28"/>
+      <c r="Q163" s="28"/>
     </row>
     <row r="164">
-      <c r="A164" s="27"/>
-      <c r="B164" s="27"/>
-      <c r="C164" s="27"/>
-      <c r="D164" s="27"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="27"/>
-      <c r="G164" s="27"/>
-      <c r="H164" s="27"/>
-      <c r="I164" s="27"/>
-      <c r="J164" s="27"/>
-      <c r="K164" s="27"/>
-      <c r="L164" s="27"/>
-      <c r="M164" s="27"/>
-      <c r="N164" s="27"/>
-      <c r="O164" s="27"/>
-      <c r="P164" s="27"/>
-      <c r="Q164" s="27"/>
+      <c r="A164" s="28"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="28"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="28"/>
+      <c r="H164" s="28"/>
+      <c r="I164" s="28"/>
+      <c r="J164" s="28"/>
+      <c r="K164" s="28"/>
+      <c r="L164" s="28"/>
+      <c r="M164" s="28"/>
+      <c r="N164" s="28"/>
+      <c r="O164" s="28"/>
+      <c r="P164" s="28"/>
+      <c r="Q164" s="28"/>
     </row>
     <row r="165">
-      <c r="A165" s="27"/>
-      <c r="B165" s="27"/>
-      <c r="C165" s="27"/>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="27"/>
-      <c r="G165" s="27"/>
-      <c r="H165" s="27"/>
-      <c r="I165" s="27"/>
-      <c r="J165" s="27"/>
-      <c r="K165" s="27"/>
-      <c r="L165" s="27"/>
-      <c r="M165" s="27"/>
-      <c r="N165" s="27"/>
-      <c r="O165" s="27"/>
-      <c r="P165" s="27"/>
-      <c r="Q165" s="27"/>
+      <c r="A165" s="28"/>
+      <c r="B165" s="28"/>
+      <c r="C165" s="28"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="28"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="28"/>
+      <c r="H165" s="28"/>
+      <c r="I165" s="28"/>
+      <c r="J165" s="28"/>
+      <c r="K165" s="28"/>
+      <c r="L165" s="28"/>
+      <c r="M165" s="28"/>
+      <c r="N165" s="28"/>
+      <c r="O165" s="28"/>
+      <c r="P165" s="28"/>
+      <c r="Q165" s="28"/>
     </row>
     <row r="166">
-      <c r="A166" s="27"/>
-      <c r="B166" s="27"/>
-      <c r="C166" s="27"/>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
-      <c r="H166" s="27"/>
-      <c r="I166" s="27"/>
-      <c r="J166" s="27"/>
-      <c r="K166" s="27"/>
-      <c r="L166" s="27"/>
-      <c r="M166" s="27"/>
-      <c r="N166" s="27"/>
-      <c r="O166" s="27"/>
-      <c r="P166" s="27"/>
-      <c r="Q166" s="27"/>
+      <c r="A166" s="28"/>
+      <c r="B166" s="28"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="28"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="28"/>
+      <c r="H166" s="28"/>
+      <c r="I166" s="28"/>
+      <c r="J166" s="28"/>
+      <c r="K166" s="28"/>
+      <c r="L166" s="28"/>
+      <c r="M166" s="28"/>
+      <c r="N166" s="28"/>
+      <c r="O166" s="28"/>
+      <c r="P166" s="28"/>
+      <c r="Q166" s="28"/>
     </row>
     <row r="167">
-      <c r="A167" s="27"/>
-      <c r="B167" s="27"/>
-      <c r="C167" s="27"/>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="27"/>
-      <c r="G167" s="27"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="27"/>
-      <c r="J167" s="27"/>
-      <c r="K167" s="27"/>
-      <c r="L167" s="27"/>
-      <c r="M167" s="27"/>
-      <c r="N167" s="27"/>
-      <c r="O167" s="27"/>
-      <c r="P167" s="27"/>
-      <c r="Q167" s="27"/>
+      <c r="A167" s="28"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="28"/>
+      <c r="F167" s="28"/>
+      <c r="G167" s="28"/>
+      <c r="H167" s="28"/>
+      <c r="I167" s="28"/>
+      <c r="J167" s="28"/>
+      <c r="K167" s="28"/>
+      <c r="L167" s="28"/>
+      <c r="M167" s="28"/>
+      <c r="N167" s="28"/>
+      <c r="O167" s="28"/>
+      <c r="P167" s="28"/>
+      <c r="Q167" s="28"/>
     </row>
     <row r="168">
-      <c r="A168" s="27"/>
-      <c r="B168" s="27"/>
-      <c r="C168" s="27"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="27"/>
-      <c r="K168" s="27"/>
-      <c r="L168" s="27"/>
-      <c r="M168" s="27"/>
-      <c r="N168" s="27"/>
-      <c r="O168" s="27"/>
-      <c r="P168" s="27"/>
-      <c r="Q168" s="27"/>
+      <c r="A168" s="28"/>
+      <c r="B168" s="28"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="28"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="28"/>
+      <c r="H168" s="28"/>
+      <c r="I168" s="28"/>
+      <c r="J168" s="28"/>
+      <c r="K168" s="28"/>
+      <c r="L168" s="28"/>
+      <c r="M168" s="28"/>
+      <c r="N168" s="28"/>
+      <c r="O168" s="28"/>
+      <c r="P168" s="28"/>
+      <c r="Q168" s="28"/>
     </row>
     <row r="169">
-      <c r="A169" s="27"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="27"/>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="27"/>
-      <c r="K169" s="27"/>
-      <c r="L169" s="27"/>
-      <c r="M169" s="27"/>
-      <c r="N169" s="27"/>
-      <c r="O169" s="27"/>
-      <c r="P169" s="27"/>
-      <c r="Q169" s="27"/>
+      <c r="A169" s="28"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="28"/>
+      <c r="H169" s="28"/>
+      <c r="I169" s="28"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="28"/>
+      <c r="L169" s="28"/>
+      <c r="M169" s="28"/>
+      <c r="N169" s="28"/>
+      <c r="O169" s="28"/>
+      <c r="P169" s="28"/>
+      <c r="Q169" s="28"/>
     </row>
     <row r="170">
-      <c r="A170" s="27"/>
-      <c r="B170" s="27"/>
-      <c r="C170" s="27"/>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="27"/>
-      <c r="G170" s="27"/>
-      <c r="H170" s="27"/>
-      <c r="I170" s="27"/>
-      <c r="J170" s="27"/>
-      <c r="K170" s="27"/>
-      <c r="L170" s="27"/>
-      <c r="M170" s="27"/>
-      <c r="N170" s="27"/>
-      <c r="O170" s="27"/>
-      <c r="P170" s="27"/>
-      <c r="Q170" s="27"/>
+      <c r="A170" s="28"/>
+      <c r="B170" s="28"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="28"/>
+      <c r="F170" s="28"/>
+      <c r="G170" s="28"/>
+      <c r="H170" s="28"/>
+      <c r="I170" s="28"/>
+      <c r="J170" s="28"/>
+      <c r="K170" s="28"/>
+      <c r="L170" s="28"/>
+      <c r="M170" s="28"/>
+      <c r="N170" s="28"/>
+      <c r="O170" s="28"/>
+      <c r="P170" s="28"/>
+      <c r="Q170" s="28"/>
     </row>
     <row r="171">
-      <c r="A171" s="27"/>
-      <c r="B171" s="27"/>
-      <c r="C171" s="27"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27"/>
-      <c r="G171" s="27"/>
-      <c r="H171" s="27"/>
-      <c r="I171" s="27"/>
-      <c r="J171" s="27"/>
-      <c r="K171" s="27"/>
-      <c r="L171" s="27"/>
-      <c r="M171" s="27"/>
-      <c r="N171" s="27"/>
-      <c r="O171" s="27"/>
-      <c r="P171" s="27"/>
-      <c r="Q171" s="27"/>
+      <c r="A171" s="28"/>
+      <c r="B171" s="28"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="28"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="28"/>
+      <c r="H171" s="28"/>
+      <c r="I171" s="28"/>
+      <c r="J171" s="28"/>
+      <c r="K171" s="28"/>
+      <c r="L171" s="28"/>
+      <c r="M171" s="28"/>
+      <c r="N171" s="28"/>
+      <c r="O171" s="28"/>
+      <c r="P171" s="28"/>
+      <c r="Q171" s="28"/>
     </row>
     <row r="172">
-      <c r="A172" s="27"/>
-      <c r="B172" s="27"/>
-      <c r="C172" s="27"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="27"/>
-      <c r="K172" s="27"/>
-      <c r="L172" s="27"/>
-      <c r="M172" s="27"/>
-      <c r="N172" s="27"/>
-      <c r="O172" s="27"/>
-      <c r="P172" s="27"/>
-      <c r="Q172" s="27"/>
+      <c r="A172" s="28"/>
+      <c r="B172" s="28"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="28"/>
+      <c r="H172" s="28"/>
+      <c r="I172" s="28"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="28"/>
+      <c r="L172" s="28"/>
+      <c r="M172" s="28"/>
+      <c r="N172" s="28"/>
+      <c r="O172" s="28"/>
+      <c r="P172" s="28"/>
+      <c r="Q172" s="28"/>
     </row>
     <row r="173">
-      <c r="A173" s="27"/>
-      <c r="B173" s="27"/>
-      <c r="C173" s="27"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="27"/>
-      <c r="K173" s="27"/>
-      <c r="L173" s="27"/>
-      <c r="M173" s="27"/>
-      <c r="N173" s="27"/>
-      <c r="O173" s="27"/>
-      <c r="P173" s="27"/>
-      <c r="Q173" s="27"/>
+      <c r="A173" s="28"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="28"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="28"/>
+      <c r="H173" s="28"/>
+      <c r="I173" s="28"/>
+      <c r="J173" s="28"/>
+      <c r="K173" s="28"/>
+      <c r="L173" s="28"/>
+      <c r="M173" s="28"/>
+      <c r="N173" s="28"/>
+      <c r="O173" s="28"/>
+      <c r="P173" s="28"/>
+      <c r="Q173" s="28"/>
     </row>
     <row r="174">
-      <c r="A174" s="27"/>
-      <c r="B174" s="27"/>
-      <c r="C174" s="27"/>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="27"/>
-      <c r="K174" s="27"/>
-      <c r="L174" s="27"/>
-      <c r="M174" s="27"/>
-      <c r="N174" s="27"/>
-      <c r="O174" s="27"/>
-      <c r="P174" s="27"/>
-      <c r="Q174" s="27"/>
+      <c r="A174" s="28"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="28"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="28"/>
+      <c r="H174" s="28"/>
+      <c r="I174" s="28"/>
+      <c r="J174" s="28"/>
+      <c r="K174" s="28"/>
+      <c r="L174" s="28"/>
+      <c r="M174" s="28"/>
+      <c r="N174" s="28"/>
+      <c r="O174" s="28"/>
+      <c r="P174" s="28"/>
+      <c r="Q174" s="28"/>
     </row>
     <row r="175">
-      <c r="A175" s="27"/>
-      <c r="B175" s="27"/>
-      <c r="C175" s="27"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="27"/>
-      <c r="H175" s="27"/>
-      <c r="I175" s="27"/>
-      <c r="J175" s="27"/>
-      <c r="K175" s="27"/>
-      <c r="L175" s="27"/>
-      <c r="M175" s="27"/>
-      <c r="N175" s="27"/>
-      <c r="O175" s="27"/>
-      <c r="P175" s="27"/>
-      <c r="Q175" s="27"/>
+      <c r="A175" s="28"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="28"/>
+      <c r="H175" s="28"/>
+      <c r="I175" s="28"/>
+      <c r="J175" s="28"/>
+      <c r="K175" s="28"/>
+      <c r="L175" s="28"/>
+      <c r="M175" s="28"/>
+      <c r="N175" s="28"/>
+      <c r="O175" s="28"/>
+      <c r="P175" s="28"/>
+      <c r="Q175" s="28"/>
     </row>
     <row r="176">
-      <c r="A176" s="27"/>
-      <c r="B176" s="27"/>
-      <c r="C176" s="27"/>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="27"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="27"/>
-      <c r="K176" s="27"/>
-      <c r="L176" s="27"/>
-      <c r="M176" s="27"/>
-      <c r="N176" s="27"/>
-      <c r="O176" s="27"/>
-      <c r="P176" s="27"/>
-      <c r="Q176" s="27"/>
+      <c r="A176" s="28"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="28"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="28"/>
+      <c r="H176" s="28"/>
+      <c r="I176" s="28"/>
+      <c r="J176" s="28"/>
+      <c r="K176" s="28"/>
+      <c r="L176" s="28"/>
+      <c r="M176" s="28"/>
+      <c r="N176" s="28"/>
+      <c r="O176" s="28"/>
+      <c r="P176" s="28"/>
+      <c r="Q176" s="28"/>
     </row>
     <row r="177">
-      <c r="A177" s="27"/>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="27"/>
-      <c r="K177" s="27"/>
-      <c r="L177" s="27"/>
-      <c r="M177" s="27"/>
-      <c r="N177" s="27"/>
-      <c r="O177" s="27"/>
-      <c r="P177" s="27"/>
-      <c r="Q177" s="27"/>
+      <c r="A177" s="28"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="28"/>
+      <c r="H177" s="28"/>
+      <c r="I177" s="28"/>
+      <c r="J177" s="28"/>
+      <c r="K177" s="28"/>
+      <c r="L177" s="28"/>
+      <c r="M177" s="28"/>
+      <c r="N177" s="28"/>
+      <c r="O177" s="28"/>
+      <c r="P177" s="28"/>
+      <c r="Q177" s="28"/>
     </row>
     <row r="178">
-      <c r="A178" s="27"/>
-      <c r="B178" s="27"/>
-      <c r="C178" s="27"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="27"/>
-      <c r="J178" s="27"/>
-      <c r="K178" s="27"/>
-      <c r="L178" s="27"/>
-      <c r="M178" s="27"/>
-      <c r="N178" s="27"/>
-      <c r="O178" s="27"/>
-      <c r="P178" s="27"/>
-      <c r="Q178" s="27"/>
+      <c r="A178" s="28"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="28"/>
+      <c r="H178" s="28"/>
+      <c r="I178" s="28"/>
+      <c r="J178" s="28"/>
+      <c r="K178" s="28"/>
+      <c r="L178" s="28"/>
+      <c r="M178" s="28"/>
+      <c r="N178" s="28"/>
+      <c r="O178" s="28"/>
+      <c r="P178" s="28"/>
+      <c r="Q178" s="28"/>
     </row>
     <row r="179">
-      <c r="A179" s="27"/>
-      <c r="B179" s="27"/>
-      <c r="C179" s="27"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="27"/>
-      <c r="K179" s="27"/>
-      <c r="L179" s="27"/>
-      <c r="M179" s="27"/>
-      <c r="N179" s="27"/>
-      <c r="O179" s="27"/>
-      <c r="P179" s="27"/>
-      <c r="Q179" s="27"/>
+      <c r="A179" s="28"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="28"/>
+      <c r="H179" s="28"/>
+      <c r="I179" s="28"/>
+      <c r="J179" s="28"/>
+      <c r="K179" s="28"/>
+      <c r="L179" s="28"/>
+      <c r="M179" s="28"/>
+      <c r="N179" s="28"/>
+      <c r="O179" s="28"/>
+      <c r="P179" s="28"/>
+      <c r="Q179" s="28"/>
     </row>
     <row r="180">
-      <c r="A180" s="27"/>
-      <c r="B180" s="27"/>
-      <c r="C180" s="27"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="27"/>
-      <c r="L180" s="27"/>
-      <c r="M180" s="27"/>
-      <c r="N180" s="27"/>
-      <c r="O180" s="27"/>
-      <c r="P180" s="27"/>
-      <c r="Q180" s="27"/>
+      <c r="A180" s="28"/>
+      <c r="B180" s="28"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="28"/>
+      <c r="F180" s="28"/>
+      <c r="G180" s="28"/>
+      <c r="H180" s="28"/>
+      <c r="I180" s="28"/>
+      <c r="J180" s="28"/>
+      <c r="K180" s="28"/>
+      <c r="L180" s="28"/>
+      <c r="M180" s="28"/>
+      <c r="N180" s="28"/>
+      <c r="O180" s="28"/>
+      <c r="P180" s="28"/>
+      <c r="Q180" s="28"/>
     </row>
     <row r="181">
-      <c r="A181" s="27"/>
-      <c r="B181" s="27"/>
-      <c r="C181" s="27"/>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="27"/>
-      <c r="K181" s="27"/>
-      <c r="L181" s="27"/>
-      <c r="M181" s="27"/>
-      <c r="N181" s="27"/>
-      <c r="O181" s="27"/>
-      <c r="P181" s="27"/>
-      <c r="Q181" s="27"/>
+      <c r="A181" s="28"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="28"/>
+      <c r="H181" s="28"/>
+      <c r="I181" s="28"/>
+      <c r="J181" s="28"/>
+      <c r="K181" s="28"/>
+      <c r="L181" s="28"/>
+      <c r="M181" s="28"/>
+      <c r="N181" s="28"/>
+      <c r="O181" s="28"/>
+      <c r="P181" s="28"/>
+      <c r="Q181" s="28"/>
     </row>
     <row r="182">
-      <c r="A182" s="27"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="27"/>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="27"/>
-      <c r="K182" s="27"/>
-      <c r="L182" s="27"/>
-      <c r="M182" s="27"/>
-      <c r="N182" s="27"/>
-      <c r="O182" s="27"/>
-      <c r="P182" s="27"/>
-      <c r="Q182" s="27"/>
+      <c r="A182" s="28"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="28"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="28"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="28"/>
+      <c r="H182" s="28"/>
+      <c r="I182" s="28"/>
+      <c r="J182" s="28"/>
+      <c r="K182" s="28"/>
+      <c r="L182" s="28"/>
+      <c r="M182" s="28"/>
+      <c r="N182" s="28"/>
+      <c r="O182" s="28"/>
+      <c r="P182" s="28"/>
+      <c r="Q182" s="28"/>
     </row>
     <row r="183">
-      <c r="A183" s="27"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="27"/>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="27"/>
-      <c r="K183" s="27"/>
-      <c r="L183" s="27"/>
-      <c r="M183" s="27"/>
-      <c r="N183" s="27"/>
-      <c r="O183" s="27"/>
-      <c r="P183" s="27"/>
-      <c r="Q183" s="27"/>
+      <c r="A183" s="28"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="28"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="28"/>
+      <c r="H183" s="28"/>
+      <c r="I183" s="28"/>
+      <c r="J183" s="28"/>
+      <c r="K183" s="28"/>
+      <c r="L183" s="28"/>
+      <c r="M183" s="28"/>
+      <c r="N183" s="28"/>
+      <c r="O183" s="28"/>
+      <c r="P183" s="28"/>
+      <c r="Q183" s="28"/>
     </row>
     <row r="184">
-      <c r="A184" s="27"/>
-      <c r="B184" s="27"/>
-      <c r="C184" s="27"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="27"/>
-      <c r="K184" s="27"/>
-      <c r="L184" s="27"/>
-      <c r="M184" s="27"/>
-      <c r="N184" s="27"/>
-      <c r="O184" s="27"/>
-      <c r="P184" s="27"/>
-      <c r="Q184" s="27"/>
+      <c r="A184" s="28"/>
+      <c r="B184" s="28"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="28"/>
+      <c r="H184" s="28"/>
+      <c r="I184" s="28"/>
+      <c r="J184" s="28"/>
+      <c r="K184" s="28"/>
+      <c r="L184" s="28"/>
+      <c r="M184" s="28"/>
+      <c r="N184" s="28"/>
+      <c r="O184" s="28"/>
+      <c r="P184" s="28"/>
+      <c r="Q184" s="28"/>
     </row>
     <row r="185">
-      <c r="A185" s="27"/>
-      <c r="B185" s="27"/>
-      <c r="C185" s="27"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="27"/>
-      <c r="K185" s="27"/>
-      <c r="L185" s="27"/>
-      <c r="M185" s="27"/>
-      <c r="N185" s="27"/>
-      <c r="O185" s="27"/>
-      <c r="P185" s="27"/>
-      <c r="Q185" s="27"/>
+      <c r="A185" s="28"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="28"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="28"/>
+      <c r="H185" s="28"/>
+      <c r="I185" s="28"/>
+      <c r="J185" s="28"/>
+      <c r="K185" s="28"/>
+      <c r="L185" s="28"/>
+      <c r="M185" s="28"/>
+      <c r="N185" s="28"/>
+      <c r="O185" s="28"/>
+      <c r="P185" s="28"/>
+      <c r="Q185" s="28"/>
     </row>
     <row r="186">
-      <c r="A186" s="27"/>
-      <c r="B186" s="27"/>
-      <c r="C186" s="27"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="27"/>
-      <c r="K186" s="27"/>
-      <c r="L186" s="27"/>
-      <c r="M186" s="27"/>
-      <c r="N186" s="27"/>
-      <c r="O186" s="27"/>
-      <c r="P186" s="27"/>
-      <c r="Q186" s="27"/>
+      <c r="A186" s="28"/>
+      <c r="B186" s="28"/>
+      <c r="C186" s="28"/>
+      <c r="D186" s="28"/>
+      <c r="E186" s="28"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="28"/>
+      <c r="H186" s="28"/>
+      <c r="I186" s="28"/>
+      <c r="J186" s="28"/>
+      <c r="K186" s="28"/>
+      <c r="L186" s="28"/>
+      <c r="M186" s="28"/>
+      <c r="N186" s="28"/>
+      <c r="O186" s="28"/>
+      <c r="P186" s="28"/>
+      <c r="Q186" s="28"/>
     </row>
     <row r="187">
-      <c r="A187" s="27"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="27"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="27"/>
-      <c r="K187" s="27"/>
-      <c r="L187" s="27"/>
-      <c r="M187" s="27"/>
-      <c r="N187" s="27"/>
-      <c r="O187" s="27"/>
-      <c r="P187" s="27"/>
-      <c r="Q187" s="27"/>
+      <c r="A187" s="28"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="28"/>
+      <c r="H187" s="28"/>
+      <c r="I187" s="28"/>
+      <c r="J187" s="28"/>
+      <c r="K187" s="28"/>
+      <c r="L187" s="28"/>
+      <c r="M187" s="28"/>
+      <c r="N187" s="28"/>
+      <c r="O187" s="28"/>
+      <c r="P187" s="28"/>
+      <c r="Q187" s="28"/>
     </row>
     <row r="188">
-      <c r="A188" s="27"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="27"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="27"/>
-      <c r="K188" s="27"/>
-      <c r="L188" s="27"/>
-      <c r="M188" s="27"/>
-      <c r="N188" s="27"/>
-      <c r="O188" s="27"/>
-      <c r="P188" s="27"/>
-      <c r="Q188" s="27"/>
+      <c r="A188" s="28"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="28"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="28"/>
+      <c r="H188" s="28"/>
+      <c r="I188" s="28"/>
+      <c r="J188" s="28"/>
+      <c r="K188" s="28"/>
+      <c r="L188" s="28"/>
+      <c r="M188" s="28"/>
+      <c r="N188" s="28"/>
+      <c r="O188" s="28"/>
+      <c r="P188" s="28"/>
+      <c r="Q188" s="28"/>
     </row>
     <row r="189">
-      <c r="A189" s="27"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="27"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="27"/>
-      <c r="G189" s="27"/>
-      <c r="H189" s="27"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="27"/>
-      <c r="K189" s="27"/>
-      <c r="L189" s="27"/>
-      <c r="M189" s="27"/>
-      <c r="N189" s="27"/>
-      <c r="O189" s="27"/>
-      <c r="P189" s="27"/>
-      <c r="Q189" s="27"/>
+      <c r="A189" s="28"/>
+      <c r="B189" s="28"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="28"/>
+      <c r="H189" s="28"/>
+      <c r="I189" s="28"/>
+      <c r="J189" s="28"/>
+      <c r="K189" s="28"/>
+      <c r="L189" s="28"/>
+      <c r="M189" s="28"/>
+      <c r="N189" s="28"/>
+      <c r="O189" s="28"/>
+      <c r="P189" s="28"/>
+      <c r="Q189" s="28"/>
     </row>
     <row r="190">
-      <c r="A190" s="27"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="27"/>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="27"/>
-      <c r="G190" s="27"/>
-      <c r="H190" s="27"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="27"/>
-      <c r="K190" s="27"/>
-      <c r="L190" s="27"/>
-      <c r="M190" s="27"/>
-      <c r="N190" s="27"/>
-      <c r="O190" s="27"/>
-      <c r="P190" s="27"/>
-      <c r="Q190" s="27"/>
+      <c r="A190" s="28"/>
+      <c r="B190" s="28"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
+      <c r="H190" s="28"/>
+      <c r="I190" s="28"/>
+      <c r="J190" s="28"/>
+      <c r="K190" s="28"/>
+      <c r="L190" s="28"/>
+      <c r="M190" s="28"/>
+      <c r="N190" s="28"/>
+      <c r="O190" s="28"/>
+      <c r="P190" s="28"/>
+      <c r="Q190" s="28"/>
     </row>
     <row r="191">
-      <c r="A191" s="27"/>
-      <c r="B191" s="27"/>
-      <c r="C191" s="27"/>
-      <c r="D191" s="27"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="27"/>
-      <c r="G191" s="27"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="27"/>
-      <c r="K191" s="27"/>
-      <c r="L191" s="27"/>
-      <c r="M191" s="27"/>
-      <c r="N191" s="27"/>
-      <c r="O191" s="27"/>
-      <c r="P191" s="27"/>
-      <c r="Q191" s="27"/>
+      <c r="A191" s="28"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="28"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="28"/>
+      <c r="H191" s="28"/>
+      <c r="I191" s="28"/>
+      <c r="J191" s="28"/>
+      <c r="K191" s="28"/>
+      <c r="L191" s="28"/>
+      <c r="M191" s="28"/>
+      <c r="N191" s="28"/>
+      <c r="O191" s="28"/>
+      <c r="P191" s="28"/>
+      <c r="Q191" s="28"/>
     </row>
     <row r="192">
-      <c r="A192" s="27"/>
-      <c r="B192" s="27"/>
-      <c r="C192" s="27"/>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
-      <c r="F192" s="27"/>
-      <c r="G192" s="27"/>
-      <c r="H192" s="27"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="27"/>
-      <c r="K192" s="27"/>
-      <c r="L192" s="27"/>
-      <c r="M192" s="27"/>
-      <c r="N192" s="27"/>
-      <c r="O192" s="27"/>
-      <c r="P192" s="27"/>
-      <c r="Q192" s="27"/>
+      <c r="A192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="28"/>
+      <c r="H192" s="28"/>
+      <c r="I192" s="28"/>
+      <c r="J192" s="28"/>
+      <c r="K192" s="28"/>
+      <c r="L192" s="28"/>
+      <c r="M192" s="28"/>
+      <c r="N192" s="28"/>
+      <c r="O192" s="28"/>
+      <c r="P192" s="28"/>
+      <c r="Q192" s="28"/>
     </row>
     <row r="193">
-      <c r="A193" s="27"/>
-      <c r="B193" s="27"/>
-      <c r="C193" s="27"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="27"/>
-      <c r="G193" s="27"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="27"/>
-      <c r="K193" s="27"/>
-      <c r="L193" s="27"/>
-      <c r="M193" s="27"/>
-      <c r="N193" s="27"/>
-      <c r="O193" s="27"/>
-      <c r="P193" s="27"/>
-      <c r="Q193" s="27"/>
+      <c r="A193" s="28"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="28"/>
+      <c r="H193" s="28"/>
+      <c r="I193" s="28"/>
+      <c r="J193" s="28"/>
+      <c r="K193" s="28"/>
+      <c r="L193" s="28"/>
+      <c r="M193" s="28"/>
+      <c r="N193" s="28"/>
+      <c r="O193" s="28"/>
+      <c r="P193" s="28"/>
+      <c r="Q193" s="28"/>
     </row>
     <row r="194">
-      <c r="A194" s="27"/>
-      <c r="B194" s="27"/>
-      <c r="C194" s="27"/>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="27"/>
-      <c r="G194" s="27"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="27"/>
-      <c r="J194" s="27"/>
-      <c r="K194" s="27"/>
-      <c r="L194" s="27"/>
-      <c r="M194" s="27"/>
-      <c r="N194" s="27"/>
-      <c r="O194" s="27"/>
-      <c r="P194" s="27"/>
-      <c r="Q194" s="27"/>
+      <c r="A194" s="28"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="28"/>
+      <c r="D194" s="28"/>
+      <c r="E194" s="28"/>
+      <c r="F194" s="28"/>
+      <c r="G194" s="28"/>
+      <c r="H194" s="28"/>
+      <c r="I194" s="28"/>
+      <c r="J194" s="28"/>
+      <c r="K194" s="28"/>
+      <c r="L194" s="28"/>
+      <c r="M194" s="28"/>
+      <c r="N194" s="28"/>
+      <c r="O194" s="28"/>
+      <c r="P194" s="28"/>
+      <c r="Q194" s="28"/>
     </row>
     <row r="195">
-      <c r="A195" s="27"/>
-      <c r="B195" s="27"/>
-      <c r="C195" s="27"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="27"/>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-      <c r="J195" s="27"/>
-      <c r="K195" s="27"/>
-      <c r="L195" s="27"/>
-      <c r="M195" s="27"/>
-      <c r="N195" s="27"/>
-      <c r="O195" s="27"/>
-      <c r="P195" s="27"/>
-      <c r="Q195" s="27"/>
+      <c r="A195" s="28"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="28"/>
+      <c r="D195" s="28"/>
+      <c r="E195" s="28"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="28"/>
+      <c r="H195" s="28"/>
+      <c r="I195" s="28"/>
+      <c r="J195" s="28"/>
+      <c r="K195" s="28"/>
+      <c r="L195" s="28"/>
+      <c r="M195" s="28"/>
+      <c r="N195" s="28"/>
+      <c r="O195" s="28"/>
+      <c r="P195" s="28"/>
+      <c r="Q195" s="28"/>
     </row>
     <row r="196">
-      <c r="A196" s="27"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="27"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="27"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="27"/>
-      <c r="J196" s="27"/>
-      <c r="K196" s="27"/>
-      <c r="L196" s="27"/>
-      <c r="M196" s="27"/>
-      <c r="N196" s="27"/>
-      <c r="O196" s="27"/>
-      <c r="P196" s="27"/>
-      <c r="Q196" s="27"/>
+      <c r="A196" s="28"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="28"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="28"/>
+      <c r="H196" s="28"/>
+      <c r="I196" s="28"/>
+      <c r="J196" s="28"/>
+      <c r="K196" s="28"/>
+      <c r="L196" s="28"/>
+      <c r="M196" s="28"/>
+      <c r="N196" s="28"/>
+      <c r="O196" s="28"/>
+      <c r="P196" s="28"/>
+      <c r="Q196" s="28"/>
     </row>
     <row r="197">
-      <c r="A197" s="27"/>
-      <c r="B197" s="27"/>
-      <c r="C197" s="27"/>
-      <c r="D197" s="27"/>
-      <c r="E197" s="27"/>
-      <c r="F197" s="27"/>
-      <c r="G197" s="27"/>
-      <c r="H197" s="27"/>
-      <c r="I197" s="27"/>
-      <c r="J197" s="27"/>
-      <c r="K197" s="27"/>
-      <c r="L197" s="27"/>
-      <c r="M197" s="27"/>
-      <c r="N197" s="27"/>
-      <c r="O197" s="27"/>
-      <c r="P197" s="27"/>
-      <c r="Q197" s="27"/>
+      <c r="A197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="28"/>
+      <c r="G197" s="28"/>
+      <c r="H197" s="28"/>
+      <c r="I197" s="28"/>
+      <c r="J197" s="28"/>
+      <c r="K197" s="28"/>
+      <c r="L197" s="28"/>
+      <c r="M197" s="28"/>
+      <c r="N197" s="28"/>
+      <c r="O197" s="28"/>
+      <c r="P197" s="28"/>
+      <c r="Q197" s="28"/>
     </row>
     <row r="198">
-      <c r="A198" s="27"/>
-      <c r="B198" s="27"/>
-      <c r="C198" s="27"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
-      <c r="F198" s="27"/>
-      <c r="G198" s="27"/>
-      <c r="H198" s="27"/>
-      <c r="I198" s="27"/>
-      <c r="J198" s="27"/>
-      <c r="K198" s="27"/>
-      <c r="L198" s="27"/>
-      <c r="M198" s="27"/>
-      <c r="N198" s="27"/>
-      <c r="O198" s="27"/>
-      <c r="P198" s="27"/>
-      <c r="Q198" s="27"/>
+      <c r="A198" s="28"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="28"/>
+      <c r="E198" s="28"/>
+      <c r="F198" s="28"/>
+      <c r="G198" s="28"/>
+      <c r="H198" s="28"/>
+      <c r="I198" s="28"/>
+      <c r="J198" s="28"/>
+      <c r="K198" s="28"/>
+      <c r="L198" s="28"/>
+      <c r="M198" s="28"/>
+      <c r="N198" s="28"/>
+      <c r="O198" s="28"/>
+      <c r="P198" s="28"/>
+      <c r="Q198" s="28"/>
     </row>
     <row r="199">
-      <c r="A199" s="27"/>
-      <c r="B199" s="27"/>
-      <c r="C199" s="27"/>
-      <c r="D199" s="27"/>
-      <c r="E199" s="27"/>
-      <c r="F199" s="27"/>
-      <c r="G199" s="27"/>
-      <c r="H199" s="27"/>
-      <c r="I199" s="27"/>
-      <c r="J199" s="27"/>
-      <c r="K199" s="27"/>
-      <c r="L199" s="27"/>
-      <c r="M199" s="27"/>
-      <c r="N199" s="27"/>
-      <c r="O199" s="27"/>
-      <c r="P199" s="27"/>
-      <c r="Q199" s="27"/>
+      <c r="A199" s="28"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="28"/>
+      <c r="D199" s="28"/>
+      <c r="E199" s="28"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="28"/>
+      <c r="H199" s="28"/>
+      <c r="I199" s="28"/>
+      <c r="J199" s="28"/>
+      <c r="K199" s="28"/>
+      <c r="L199" s="28"/>
+      <c r="M199" s="28"/>
+      <c r="N199" s="28"/>
+      <c r="O199" s="28"/>
+      <c r="P199" s="28"/>
+      <c r="Q199" s="28"/>
     </row>
     <row r="200">
-      <c r="A200" s="27"/>
-      <c r="B200" s="27"/>
-      <c r="C200" s="27"/>
-      <c r="D200" s="27"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="27"/>
-      <c r="G200" s="27"/>
-      <c r="H200" s="27"/>
-      <c r="I200" s="27"/>
-      <c r="J200" s="27"/>
-      <c r="K200" s="27"/>
-      <c r="L200" s="27"/>
-      <c r="M200" s="27"/>
-      <c r="N200" s="27"/>
-      <c r="O200" s="27"/>
-      <c r="P200" s="27"/>
-      <c r="Q200" s="27"/>
+      <c r="A200" s="28"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="28"/>
+      <c r="E200" s="28"/>
+      <c r="F200" s="28"/>
+      <c r="G200" s="28"/>
+      <c r="H200" s="28"/>
+      <c r="I200" s="28"/>
+      <c r="J200" s="28"/>
+      <c r="K200" s="28"/>
+      <c r="L200" s="28"/>
+      <c r="M200" s="28"/>
+      <c r="N200" s="28"/>
+      <c r="O200" s="28"/>
+      <c r="P200" s="28"/>
+      <c r="Q200" s="28"/>
     </row>
     <row r="201">
-      <c r="A201" s="27"/>
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="27"/>
-      <c r="G201" s="27"/>
-      <c r="H201" s="27"/>
-      <c r="I201" s="27"/>
-      <c r="J201" s="27"/>
-      <c r="K201" s="27"/>
-      <c r="L201" s="27"/>
-      <c r="M201" s="27"/>
-      <c r="N201" s="27"/>
-      <c r="O201" s="27"/>
-      <c r="P201" s="27"/>
-      <c r="Q201" s="27"/>
+      <c r="A201" s="28"/>
+      <c r="B201" s="28"/>
+      <c r="C201" s="28"/>
+      <c r="D201" s="28"/>
+      <c r="E201" s="28"/>
+      <c r="F201" s="28"/>
+      <c r="G201" s="28"/>
+      <c r="H201" s="28"/>
+      <c r="I201" s="28"/>
+      <c r="J201" s="28"/>
+      <c r="K201" s="28"/>
+      <c r="L201" s="28"/>
+      <c r="M201" s="28"/>
+      <c r="N201" s="28"/>
+      <c r="O201" s="28"/>
+      <c r="P201" s="28"/>
+      <c r="Q201" s="28"/>
     </row>
     <row r="202">
-      <c r="A202" s="27"/>
-      <c r="B202" s="27"/>
-      <c r="C202" s="27"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="27"/>
-      <c r="F202" s="27"/>
-      <c r="G202" s="27"/>
-      <c r="H202" s="27"/>
-      <c r="I202" s="27"/>
-      <c r="J202" s="27"/>
-      <c r="K202" s="27"/>
-      <c r="L202" s="27"/>
-      <c r="M202" s="27"/>
-      <c r="N202" s="27"/>
-      <c r="O202" s="27"/>
-      <c r="P202" s="27"/>
-      <c r="Q202" s="27"/>
+      <c r="A202" s="28"/>
+      <c r="B202" s="28"/>
+      <c r="C202" s="28"/>
+      <c r="D202" s="28"/>
+      <c r="E202" s="28"/>
+      <c r="F202" s="28"/>
+      <c r="G202" s="28"/>
+      <c r="H202" s="28"/>
+      <c r="I202" s="28"/>
+      <c r="J202" s="28"/>
+      <c r="K202" s="28"/>
+      <c r="L202" s="28"/>
+      <c r="M202" s="28"/>
+      <c r="N202" s="28"/>
+      <c r="O202" s="28"/>
+      <c r="P202" s="28"/>
+      <c r="Q202" s="28"/>
     </row>
     <row r="203">
-      <c r="A203" s="27"/>
-      <c r="B203" s="27"/>
-      <c r="C203" s="27"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27"/>
-      <c r="F203" s="27"/>
-      <c r="G203" s="27"/>
-      <c r="H203" s="27"/>
-      <c r="I203" s="27"/>
-      <c r="J203" s="27"/>
-      <c r="K203" s="27"/>
-      <c r="L203" s="27"/>
-      <c r="M203" s="27"/>
-      <c r="N203" s="27"/>
-      <c r="O203" s="27"/>
-      <c r="P203" s="27"/>
-      <c r="Q203" s="27"/>
+      <c r="A203" s="28"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="28"/>
+      <c r="E203" s="28"/>
+      <c r="F203" s="28"/>
+      <c r="G203" s="28"/>
+      <c r="H203" s="28"/>
+      <c r="I203" s="28"/>
+      <c r="J203" s="28"/>
+      <c r="K203" s="28"/>
+      <c r="L203" s="28"/>
+      <c r="M203" s="28"/>
+      <c r="N203" s="28"/>
+      <c r="O203" s="28"/>
+      <c r="P203" s="28"/>
+      <c r="Q203" s="28"/>
     </row>
     <row r="204">
-      <c r="G204" s="27"/>
+      <c r="A204" s="28"/>
+      <c r="B204" s="28"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="28"/>
+      <c r="E204" s="28"/>
+      <c r="F204" s="28"/>
+      <c r="G204" s="28"/>
+      <c r="H204" s="28"/>
+      <c r="I204" s="28"/>
+      <c r="J204" s="28"/>
+      <c r="K204" s="28"/>
+      <c r="L204" s="28"/>
+      <c r="M204" s="28"/>
+      <c r="N204" s="28"/>
+      <c r="O204" s="28"/>
+      <c r="P204" s="28"/>
+      <c r="Q204" s="28"/>
     </row>
     <row r="205">
-      <c r="G205" s="27"/>
+      <c r="A205" s="28"/>
+      <c r="B205" s="28"/>
+      <c r="C205" s="28"/>
+      <c r="D205" s="28"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="28"/>
+      <c r="H205" s="28"/>
+      <c r="I205" s="28"/>
+      <c r="J205" s="28"/>
+      <c r="K205" s="28"/>
+      <c r="L205" s="28"/>
+      <c r="M205" s="28"/>
+      <c r="N205" s="28"/>
+      <c r="O205" s="28"/>
+      <c r="P205" s="28"/>
+      <c r="Q205" s="28"/>
     </row>
     <row r="206">
-      <c r="G206" s="27"/>
+      <c r="G206" s="28"/>
     </row>
     <row r="207">
-      <c r="G207" s="27"/>
+      <c r="G207" s="28"/>
     </row>
     <row r="208">
-      <c r="G208" s="27"/>
+      <c r="G208" s="28"/>
     </row>
     <row r="209">
-      <c r="G209" s="27"/>
+      <c r="G209" s="28"/>
     </row>
     <row r="210">
-      <c r="G210" s="27"/>
+      <c r="G210" s="28"/>
     </row>
     <row r="211">
-      <c r="G211" s="27"/>
+      <c r="G211" s="28"/>
     </row>
     <row r="212">
-      <c r="G212" s="27"/>
+      <c r="G212" s="28"/>
     </row>
     <row r="213">
-      <c r="G213" s="27"/>
+      <c r="G213" s="28"/>
     </row>
     <row r="214">
-      <c r="G214" s="27"/>
+      <c r="G214" s="28"/>
     </row>
     <row r="215">
-      <c r="G215" s="27"/>
+      <c r="G215" s="28"/>
     </row>
     <row r="216">
-      <c r="G216" s="27"/>
+      <c r="G216" s="28"/>
     </row>
     <row r="217">
-      <c r="G217" s="27"/>
+      <c r="G217" s="28"/>
     </row>
     <row r="218">
-      <c r="G218" s="27"/>
+      <c r="G218" s="28"/>
     </row>
     <row r="219">
-      <c r="G219" s="27"/>
+      <c r="G219" s="28"/>
     </row>
     <row r="220">
-      <c r="G220" s="27"/>
+      <c r="G220" s="28"/>
     </row>
     <row r="221">
-      <c r="G221" s="27"/>
+      <c r="G221" s="28"/>
     </row>
     <row r="222">
-      <c r="G222" s="27"/>
+      <c r="G222" s="28"/>
     </row>
     <row r="223">
-      <c r="G223" s="27"/>
+      <c r="G223" s="28"/>
     </row>
     <row r="224">
-      <c r="G224" s="27"/>
+      <c r="G224" s="28"/>
     </row>
     <row r="225">
-      <c r="G225" s="27"/>
+      <c r="G225" s="28"/>
     </row>
     <row r="226">
-      <c r="G226" s="27"/>
+      <c r="G226" s="28"/>
     </row>
     <row r="227">
-      <c r="G227" s="27"/>
+      <c r="G227" s="28"/>
     </row>
     <row r="228">
-      <c r="G228" s="27"/>
+      <c r="G228" s="28"/>
     </row>
     <row r="229">
-      <c r="G229" s="27"/>
+      <c r="G229" s="28"/>
     </row>
     <row r="230">
-      <c r="G230" s="27"/>
+      <c r="G230" s="28"/>
     </row>
     <row r="231">
-      <c r="G231" s="27"/>
+      <c r="G231" s="28"/>
     </row>
     <row r="232">
-      <c r="G232" s="27"/>
+      <c r="G232" s="28"/>
     </row>
     <row r="233">
-      <c r="G233" s="27"/>
+      <c r="G233" s="28"/>
     </row>
     <row r="234">
-      <c r="G234" s="27"/>
+      <c r="G234" s="28"/>
     </row>
     <row r="235">
-      <c r="G235" s="27"/>
+      <c r="G235" s="28"/>
     </row>
     <row r="236">
-      <c r="G236" s="27"/>
+      <c r="G236" s="28"/>
     </row>
     <row r="237">
-      <c r="G237" s="27"/>
+      <c r="G237" s="28"/>
     </row>
     <row r="238">
-      <c r="G238" s="27"/>
+      <c r="G238" s="28"/>
     </row>
     <row r="239">
-      <c r="G239" s="27"/>
+      <c r="G239" s="28"/>
     </row>
     <row r="240">
-      <c r="G240" s="27"/>
+      <c r="G240" s="28"/>
     </row>
     <row r="241">
-      <c r="G241" s="27"/>
+      <c r="G241" s="28"/>
     </row>
     <row r="242">
-      <c r="G242" s="27"/>
+      <c r="G242" s="28"/>
     </row>
     <row r="243">
-      <c r="G243" s="27"/>
+      <c r="G243" s="28"/>
     </row>
     <row r="244">
-      <c r="G244" s="27"/>
+      <c r="G244" s="28"/>
     </row>
     <row r="245">
-      <c r="G245" s="27"/>
+      <c r="G245" s="28"/>
     </row>
     <row r="246">
-      <c r="G246" s="27"/>
+      <c r="G246" s="28"/>
     </row>
     <row r="247">
-      <c r="G247" s="27"/>
+      <c r="G247" s="28"/>
     </row>
     <row r="248">
-      <c r="G248" s="27"/>
+      <c r="G248" s="28"/>
     </row>
     <row r="249">
-      <c r="G249" s="27"/>
+      <c r="G249" s="28"/>
     </row>
     <row r="250">
-      <c r="G250" s="27"/>
+      <c r="G250" s="28"/>
     </row>
     <row r="251">
-      <c r="G251" s="27"/>
+      <c r="G251" s="28"/>
     </row>
     <row r="252">
-      <c r="G252" s="27"/>
+      <c r="G252" s="28"/>
     </row>
     <row r="253">
-      <c r="G253" s="27"/>
+      <c r="G253" s="28"/>
     </row>
     <row r="254">
-      <c r="G254" s="27"/>
+      <c r="G254" s="28"/>
     </row>
     <row r="255">
-      <c r="G255" s="27"/>
+      <c r="G255" s="28"/>
     </row>
     <row r="256">
-      <c r="G256" s="27"/>
+      <c r="G256" s="28"/>
     </row>
     <row r="257">
-      <c r="G257" s="27"/>
+      <c r="G257" s="28"/>
     </row>
     <row r="258">
-      <c r="G258" s="27"/>
+      <c r="G258" s="28"/>
     </row>
     <row r="259">
-      <c r="G259" s="27"/>
+      <c r="G259" s="28"/>
     </row>
     <row r="260">
-      <c r="G260" s="27"/>
+      <c r="G260" s="28"/>
     </row>
     <row r="261">
-      <c r="G261" s="27"/>
+      <c r="G261" s="28"/>
     </row>
     <row r="262">
-      <c r="G262" s="27"/>
+      <c r="G262" s="28"/>
     </row>
     <row r="263">
-      <c r="G263" s="27"/>
+      <c r="G263" s="28"/>
     </row>
     <row r="264">
-      <c r="G264" s="27"/>
+      <c r="G264" s="28"/>
     </row>
     <row r="265">
-      <c r="G265" s="27"/>
+      <c r="G265" s="28"/>
     </row>
     <row r="266">
-      <c r="G266" s="27"/>
+      <c r="G266" s="28"/>
     </row>
     <row r="267">
-      <c r="G267" s="27"/>
+      <c r="G267" s="28"/>
     </row>
     <row r="268">
-      <c r="G268" s="27"/>
+      <c r="G268" s="28"/>
     </row>
     <row r="269">
-      <c r="G269" s="27"/>
+      <c r="G269" s="28"/>
     </row>
     <row r="270">
-      <c r="G270" s="27"/>
+      <c r="G270" s="28"/>
     </row>
     <row r="271">
-      <c r="G271" s="27"/>
+      <c r="G271" s="28"/>
     </row>
     <row r="272">
-      <c r="G272" s="27"/>
+      <c r="G272" s="28"/>
     </row>
     <row r="273">
-      <c r="G273" s="27"/>
+      <c r="G273" s="28"/>
     </row>
     <row r="274">
-      <c r="G274" s="27"/>
+      <c r="G274" s="28"/>
     </row>
     <row r="275">
-      <c r="G275" s="27"/>
+      <c r="G275" s="28"/>
     </row>
     <row r="276">
-      <c r="G276" s="27"/>
+      <c r="G276" s="28"/>
     </row>
     <row r="277">
-      <c r="G277" s="27"/>
+      <c r="G277" s="28"/>
     </row>
     <row r="278">
-      <c r="G278" s="27"/>
+      <c r="G278" s="28"/>
     </row>
     <row r="279">
-      <c r="G279" s="27"/>
+      <c r="G279" s="28"/>
     </row>
     <row r="280">
-      <c r="G280" s="27"/>
+      <c r="G280" s="28"/>
     </row>
     <row r="281">
-      <c r="G281" s="27"/>
+      <c r="G281" s="28"/>
     </row>
     <row r="282">
-      <c r="G282" s="27"/>
+      <c r="G282" s="28"/>
     </row>
     <row r="283">
-      <c r="G283" s="27"/>
+      <c r="G283" s="28"/>
     </row>
     <row r="284">
-      <c r="G284" s="27"/>
+      <c r="G284" s="28"/>
     </row>
     <row r="285">
-      <c r="G285" s="27"/>
+      <c r="G285" s="28"/>
     </row>
     <row r="286">
-      <c r="G286" s="27"/>
+      <c r="G286" s="28"/>
     </row>
     <row r="287">
-      <c r="G287" s="27"/>
+      <c r="G287" s="28"/>
     </row>
     <row r="288">
-      <c r="G288" s="27"/>
+      <c r="G288" s="28"/>
     </row>
     <row r="289">
-      <c r="G289" s="27"/>
+      <c r="G289" s="28"/>
     </row>
     <row r="290">
-      <c r="G290" s="27"/>
+      <c r="G290" s="28"/>
     </row>
     <row r="291">
-      <c r="G291" s="27"/>
+      <c r="G291" s="28"/>
     </row>
     <row r="292">
-      <c r="G292" s="27"/>
+      <c r="G292" s="28"/>
     </row>
     <row r="293">
-      <c r="G293" s="27"/>
+      <c r="G293" s="28"/>
     </row>
     <row r="294">
-      <c r="G294" s="27"/>
+      <c r="G294" s="28"/>
     </row>
     <row r="295">
-      <c r="G295" s="27"/>
+      <c r="G295" s="28"/>
     </row>
     <row r="296">
-      <c r="G296" s="27"/>
+      <c r="G296" s="28"/>
     </row>
     <row r="297">
-      <c r="G297" s="27"/>
+      <c r="G297" s="28"/>
     </row>
     <row r="298">
-      <c r="G298" s="27"/>
+      <c r="G298" s="28"/>
     </row>
     <row r="299">
-      <c r="G299" s="27"/>
+      <c r="G299" s="28"/>
     </row>
     <row r="300">
-      <c r="G300" s="27"/>
+      <c r="G300" s="28"/>
     </row>
     <row r="301">
-      <c r="G301" s="27"/>
+      <c r="G301" s="28"/>
     </row>
     <row r="302">
-      <c r="G302" s="27"/>
+      <c r="G302" s="28"/>
     </row>
     <row r="303">
-      <c r="G303" s="27"/>
+      <c r="G303" s="28"/>
     </row>
     <row r="304">
-      <c r="G304" s="27"/>
+      <c r="G304" s="28"/>
     </row>
     <row r="305">
-      <c r="G305" s="27"/>
+      <c r="G305" s="28"/>
     </row>
     <row r="306">
-      <c r="G306" s="27"/>
+      <c r="G306" s="28"/>
     </row>
     <row r="307">
-      <c r="G307" s="27"/>
+      <c r="G307" s="28"/>
     </row>
     <row r="308">
-      <c r="G308" s="27"/>
+      <c r="G308" s="28"/>
     </row>
     <row r="309">
-      <c r="G309" s="27"/>
+      <c r="G309" s="28"/>
     </row>
     <row r="310">
-      <c r="G310" s="27"/>
+      <c r="G310" s="28"/>
     </row>
     <row r="311">
-      <c r="G311" s="27"/>
+      <c r="G311" s="28"/>
     </row>
     <row r="312">
-      <c r="G312" s="27"/>
+      <c r="G312" s="28"/>
     </row>
     <row r="313">
-      <c r="G313" s="27"/>
+      <c r="G313" s="28"/>
     </row>
     <row r="314">
-      <c r="G314" s="27"/>
+      <c r="G314" s="28"/>
     </row>
     <row r="315">
-      <c r="G315" s="27"/>
+      <c r="G315" s="28"/>
     </row>
     <row r="316">
-      <c r="G316" s="27"/>
+      <c r="G316" s="28"/>
     </row>
     <row r="317">
-      <c r="G317" s="27"/>
+      <c r="G317" s="28"/>
     </row>
     <row r="318">
-      <c r="G318" s="27"/>
+      <c r="G318" s="28"/>
     </row>
     <row r="319">
-      <c r="G319" s="27"/>
+      <c r="G319" s="28"/>
     </row>
     <row r="320">
-      <c r="G320" s="27"/>
+      <c r="G320" s="28"/>
     </row>
     <row r="321">
-      <c r="G321" s="27"/>
+      <c r="G321" s="28"/>
     </row>
     <row r="322">
-      <c r="G322" s="27"/>
+      <c r="G322" s="28"/>
     </row>
     <row r="323">
-      <c r="G323" s="27"/>
+      <c r="G323" s="28"/>
     </row>
     <row r="324">
-      <c r="G324" s="27"/>
+      <c r="G324" s="28"/>
     </row>
     <row r="325">
-      <c r="G325" s="27"/>
+      <c r="G325" s="28"/>
     </row>
     <row r="326">
-      <c r="G326" s="27"/>
+      <c r="G326" s="28"/>
     </row>
     <row r="327">
-      <c r="G327" s="27"/>
+      <c r="G327" s="28"/>
     </row>
     <row r="328">
-      <c r="G328" s="27"/>
+      <c r="G328" s="28"/>
     </row>
     <row r="329">
-      <c r="G329" s="27"/>
+      <c r="G329" s="28"/>
     </row>
     <row r="330">
-      <c r="G330" s="27"/>
+      <c r="G330" s="28"/>
     </row>
     <row r="331">
-      <c r="G331" s="27"/>
+      <c r="G331" s="28"/>
     </row>
     <row r="332">
-      <c r="G332" s="27"/>
+      <c r="G332" s="28"/>
     </row>
     <row r="333">
-      <c r="G333" s="27"/>
+      <c r="G333" s="28"/>
     </row>
     <row r="334">
-      <c r="G334" s="27"/>
+      <c r="G334" s="28"/>
     </row>
     <row r="335">
-      <c r="G335" s="27"/>
+      <c r="G335" s="28"/>
     </row>
     <row r="336">
-      <c r="G336" s="27"/>
+      <c r="G336" s="28"/>
     </row>
     <row r="337">
-      <c r="G337" s="27"/>
+      <c r="G337" s="28"/>
     </row>
     <row r="338">
-      <c r="G338" s="27"/>
+      <c r="G338" s="28"/>
     </row>
     <row r="339">
-      <c r="G339" s="27"/>
+      <c r="G339" s="28"/>
     </row>
     <row r="340">
-      <c r="G340" s="27"/>
+      <c r="G340" s="28"/>
     </row>
     <row r="341">
-      <c r="G341" s="27"/>
+      <c r="G341" s="28"/>
     </row>
     <row r="342">
-      <c r="G342" s="27"/>
+      <c r="G342" s="28"/>
     </row>
     <row r="343">
-      <c r="G343" s="27"/>
+      <c r="G343" s="28"/>
     </row>
     <row r="344">
-      <c r="G344" s="27"/>
+      <c r="G344" s="28"/>
     </row>
     <row r="345">
-      <c r="G345" s="27"/>
+      <c r="G345" s="28"/>
     </row>
     <row r="346">
-      <c r="G346" s="27"/>
+      <c r="G346" s="28"/>
     </row>
     <row r="347">
-      <c r="G347" s="27"/>
+      <c r="G347" s="28"/>
     </row>
     <row r="348">
-      <c r="G348" s="27"/>
+      <c r="G348" s="28"/>
     </row>
     <row r="349">
-      <c r="G349" s="27"/>
+      <c r="G349" s="28"/>
     </row>
     <row r="350">
-      <c r="G350" s="27"/>
+      <c r="G350" s="28"/>
     </row>
     <row r="351">
-      <c r="G351" s="27"/>
+      <c r="G351" s="28"/>
     </row>
     <row r="352">
-      <c r="G352" s="27"/>
+      <c r="G352" s="28"/>
     </row>
     <row r="353">
-      <c r="G353" s="27"/>
+      <c r="G353" s="28"/>
     </row>
     <row r="354">
-      <c r="G354" s="27"/>
+      <c r="G354" s="28"/>
     </row>
     <row r="355">
-      <c r="G355" s="27"/>
+      <c r="G355" s="28"/>
     </row>
     <row r="356">
-      <c r="G356" s="27"/>
+      <c r="G356" s="28"/>
     </row>
     <row r="357">
-      <c r="G357" s="27"/>
+      <c r="G357" s="28"/>
     </row>
     <row r="358">
-      <c r="G358" s="27"/>
+      <c r="G358" s="28"/>
     </row>
     <row r="359">
-      <c r="G359" s="27"/>
+      <c r="G359" s="28"/>
     </row>
     <row r="360">
-      <c r="G360" s="27"/>
+      <c r="G360" s="28"/>
     </row>
     <row r="361">
-      <c r="G361" s="27"/>
+      <c r="G361" s="28"/>
     </row>
     <row r="362">
-      <c r="G362" s="27"/>
+      <c r="G362" s="28"/>
     </row>
     <row r="363">
-      <c r="G363" s="27"/>
+      <c r="G363" s="28"/>
     </row>
     <row r="364">
-      <c r="G364" s="27"/>
+      <c r="G364" s="28"/>
     </row>
     <row r="365">
-      <c r="G365" s="27"/>
+      <c r="G365" s="28"/>
     </row>
     <row r="366">
-      <c r="G366" s="27"/>
+      <c r="G366" s="28"/>
     </row>
     <row r="367">
-      <c r="G367" s="27"/>
+      <c r="G367" s="28"/>
     </row>
     <row r="368">
-      <c r="G368" s="27"/>
+      <c r="G368" s="28"/>
     </row>
     <row r="369">
-      <c r="G369" s="27"/>
+      <c r="G369" s="28"/>
     </row>
     <row r="370">
-      <c r="G370" s="27"/>
+      <c r="G370" s="28"/>
     </row>
     <row r="371">
-      <c r="G371" s="27"/>
+      <c r="G371" s="28"/>
     </row>
     <row r="372">
-      <c r="G372" s="27"/>
+      <c r="G372" s="28"/>
     </row>
     <row r="373">
-      <c r="G373" s="27"/>
+      <c r="G373" s="28"/>
     </row>
     <row r="374">
-      <c r="G374" s="27"/>
+      <c r="G374" s="28"/>
     </row>
     <row r="375">
-      <c r="G375" s="27"/>
+      <c r="G375" s="28"/>
     </row>
     <row r="376">
-      <c r="G376" s="27"/>
+      <c r="G376" s="28"/>
     </row>
     <row r="377">
-      <c r="G377" s="27"/>
+      <c r="G377" s="28"/>
     </row>
     <row r="378">
-      <c r="G378" s="27"/>
+      <c r="G378" s="28"/>
     </row>
     <row r="379">
-      <c r="G379" s="27"/>
+      <c r="G379" s="28"/>
     </row>
     <row r="380">
-      <c r="G380" s="27"/>
+      <c r="G380" s="28"/>
     </row>
     <row r="381">
-      <c r="G381" s="27"/>
+      <c r="G381" s="28"/>
     </row>
     <row r="382">
-      <c r="G382" s="27"/>
+      <c r="G382" s="28"/>
     </row>
     <row r="383">
-      <c r="G383" s="27"/>
+      <c r="G383" s="28"/>
     </row>
     <row r="384">
-      <c r="G384" s="27"/>
+      <c r="G384" s="28"/>
     </row>
     <row r="385">
-      <c r="G385" s="27"/>
+      <c r="G385" s="28"/>
     </row>
     <row r="386">
-      <c r="G386" s="27"/>
+      <c r="G386" s="28"/>
     </row>
     <row r="387">
-      <c r="G387" s="27"/>
+      <c r="G387" s="28"/>
     </row>
     <row r="388">
-      <c r="G388" s="27"/>
+      <c r="G388" s="28"/>
     </row>
     <row r="389">
-      <c r="G389" s="27"/>
+      <c r="G389" s="28"/>
     </row>
     <row r="390">
-      <c r="G390" s="27"/>
+      <c r="G390" s="28"/>
     </row>
     <row r="391">
-      <c r="G391" s="27"/>
+      <c r="G391" s="28"/>
     </row>
     <row r="392">
-      <c r="G392" s="27"/>
+      <c r="G392" s="28"/>
     </row>
     <row r="393">
-      <c r="G393" s="27"/>
+      <c r="G393" s="28"/>
     </row>
     <row r="394">
-      <c r="G394" s="27"/>
+      <c r="G394" s="28"/>
     </row>
     <row r="395">
-      <c r="G395" s="27"/>
+      <c r="G395" s="28"/>
     </row>
     <row r="396">
-      <c r="G396" s="27"/>
+      <c r="G396" s="28"/>
     </row>
     <row r="397">
-      <c r="G397" s="27"/>
+      <c r="G397" s="28"/>
     </row>
     <row r="398">
-      <c r="G398" s="27"/>
+      <c r="G398" s="28"/>
     </row>
     <row r="399">
-      <c r="G399" s="27"/>
+      <c r="G399" s="28"/>
     </row>
     <row r="400">
-      <c r="G400" s="27"/>
+      <c r="G400" s="28"/>
     </row>
     <row r="401">
-      <c r="G401" s="27"/>
+      <c r="G401" s="28"/>
     </row>
     <row r="402">
-      <c r="G402" s="27"/>
+      <c r="G402" s="28"/>
     </row>
     <row r="403">
-      <c r="G403" s="27"/>
+      <c r="G403" s="28"/>
     </row>
     <row r="404">
-      <c r="G404" s="27"/>
+      <c r="G404" s="28"/>
     </row>
     <row r="405">
-      <c r="G405" s="27"/>
+      <c r="G405" s="28"/>
     </row>
     <row r="406">
-      <c r="G406" s="27"/>
+      <c r="G406" s="28"/>
     </row>
     <row r="407">
-      <c r="G407" s="27"/>
+      <c r="G407" s="28"/>
     </row>
     <row r="408">
-      <c r="G408" s="27"/>
+      <c r="G408" s="28"/>
     </row>
     <row r="409">
-      <c r="G409" s="27"/>
+      <c r="G409" s="28"/>
     </row>
     <row r="410">
-      <c r="G410" s="27"/>
+      <c r="G410" s="28"/>
     </row>
     <row r="411">
-      <c r="G411" s="27"/>
+      <c r="G411" s="28"/>
     </row>
     <row r="412">
-      <c r="G412" s="27"/>
+      <c r="G412" s="28"/>
     </row>
     <row r="413">
-      <c r="G413" s="27"/>
+      <c r="G413" s="28"/>
     </row>
     <row r="414">
-      <c r="G414" s="27"/>
+      <c r="G414" s="28"/>
     </row>
     <row r="415">
-      <c r="G415" s="27"/>
+      <c r="G415" s="28"/>
     </row>
     <row r="416">
-      <c r="G416" s="27"/>
+      <c r="G416" s="28"/>
     </row>
     <row r="417">
-      <c r="G417" s="27"/>
+      <c r="G417" s="28"/>
     </row>
     <row r="418">
-      <c r="G418" s="27"/>
+      <c r="G418" s="28"/>
     </row>
     <row r="419">
-      <c r="G419" s="27"/>
+      <c r="G419" s="28"/>
     </row>
     <row r="420">
-      <c r="G420" s="27"/>
+      <c r="G420" s="28"/>
     </row>
     <row r="421">
-      <c r="G421" s="27"/>
+      <c r="G421" s="28"/>
     </row>
     <row r="422">
-      <c r="G422" s="27"/>
+      <c r="G422" s="28"/>
     </row>
     <row r="423">
-      <c r="G423" s="27"/>
+      <c r="G423" s="28"/>
     </row>
     <row r="424">
-      <c r="G424" s="27"/>
+      <c r="G424" s="28"/>
     </row>
     <row r="425">
-      <c r="G425" s="27"/>
+      <c r="G425" s="28"/>
     </row>
     <row r="426">
-      <c r="G426" s="27"/>
+      <c r="G426" s="28"/>
     </row>
     <row r="427">
-      <c r="G427" s="27"/>
+      <c r="G427" s="28"/>
     </row>
     <row r="428">
-      <c r="G428" s="27"/>
+      <c r="G428" s="28"/>
     </row>
     <row r="429">
-      <c r="G429" s="27"/>
+      <c r="G429" s="28"/>
     </row>
     <row r="430">
-      <c r="G430" s="27"/>
+      <c r="G430" s="28"/>
     </row>
     <row r="431">
-      <c r="G431" s="27"/>
+      <c r="G431" s="28"/>
     </row>
     <row r="432">
-      <c r="G432" s="27"/>
+      <c r="G432" s="28"/>
     </row>
     <row r="433">
-      <c r="G433" s="27"/>
+      <c r="G433" s="28"/>
     </row>
     <row r="434">
-      <c r="G434" s="27"/>
+      <c r="G434" s="28"/>
     </row>
     <row r="435">
-      <c r="G435" s="27"/>
+      <c r="G435" s="28"/>
     </row>
     <row r="436">
-      <c r="G436" s="27"/>
+      <c r="G436" s="28"/>
     </row>
     <row r="437">
-      <c r="G437" s="27"/>
+      <c r="G437" s="28"/>
     </row>
     <row r="438">
-      <c r="G438" s="27"/>
+      <c r="G438" s="28"/>
     </row>
     <row r="439">
-      <c r="G439" s="27"/>
+      <c r="G439" s="28"/>
     </row>
     <row r="440">
-      <c r="G440" s="27"/>
+      <c r="G440" s="28"/>
     </row>
     <row r="441">
-      <c r="G441" s="27"/>
+      <c r="G441" s="28"/>
     </row>
     <row r="442">
-      <c r="G442" s="27"/>
+      <c r="G442" s="28"/>
     </row>
     <row r="443">
-      <c r="G443" s="27"/>
+      <c r="G443" s="28"/>
     </row>
     <row r="444">
-      <c r="G444" s="27"/>
+      <c r="G444" s="28"/>
     </row>
     <row r="445">
-      <c r="G445" s="27"/>
+      <c r="G445" s="28"/>
     </row>
     <row r="446">
-      <c r="G446" s="27"/>
+      <c r="G446" s="28"/>
     </row>
     <row r="447">
-      <c r="G447" s="27"/>
+      <c r="G447" s="28"/>
     </row>
     <row r="448">
-      <c r="G448" s="27"/>
+      <c r="G448" s="28"/>
     </row>
     <row r="449">
-      <c r="G449" s="27"/>
+      <c r="G449" s="28"/>
     </row>
     <row r="450">
-      <c r="G450" s="27"/>
+      <c r="G450" s="28"/>
     </row>
     <row r="451">
-      <c r="G451" s="27"/>
+      <c r="G451" s="28"/>
     </row>
     <row r="452">
-      <c r="G452" s="27"/>
+      <c r="G452" s="28"/>
     </row>
     <row r="453">
-      <c r="G453" s="27"/>
+      <c r="G453" s="28"/>
     </row>
     <row r="454">
-      <c r="G454" s="27"/>
+      <c r="G454" s="28"/>
     </row>
     <row r="455">
-      <c r="G455" s="27"/>
+      <c r="G455" s="28"/>
     </row>
     <row r="456">
-      <c r="G456" s="27"/>
+      <c r="G456" s="28"/>
     </row>
     <row r="457">
-      <c r="G457" s="27"/>
+      <c r="G457" s="28"/>
     </row>
     <row r="458">
-      <c r="G458" s="27"/>
+      <c r="G458" s="28"/>
     </row>
     <row r="459">
-      <c r="G459" s="27"/>
+      <c r="G459" s="28"/>
     </row>
     <row r="460">
-      <c r="G460" s="27"/>
+      <c r="G460" s="28"/>
     </row>
     <row r="461">
-      <c r="G461" s="27"/>
+      <c r="G461" s="28"/>
     </row>
     <row r="462">
-      <c r="G462" s="27"/>
+      <c r="G462" s="28"/>
     </row>
     <row r="463">
-      <c r="G463" s="27"/>
+      <c r="G463" s="28"/>
     </row>
     <row r="464">
-      <c r="G464" s="27"/>
+      <c r="G464" s="28"/>
     </row>
     <row r="465">
-      <c r="G465" s="27"/>
+      <c r="G465" s="28"/>
     </row>
     <row r="466">
-      <c r="G466" s="27"/>
+      <c r="G466" s="28"/>
     </row>
     <row r="467">
-      <c r="G467" s="27"/>
+      <c r="G467" s="28"/>
     </row>
     <row r="468">
-      <c r="G468" s="27"/>
+      <c r="G468" s="28"/>
     </row>
     <row r="469">
-      <c r="G469" s="27"/>
+      <c r="G469" s="28"/>
     </row>
     <row r="470">
-      <c r="G470" s="27"/>
+      <c r="G470" s="28"/>
     </row>
     <row r="471">
-      <c r="G471" s="27"/>
+      <c r="G471" s="28"/>
     </row>
     <row r="472">
-      <c r="G472" s="27"/>
+      <c r="G472" s="28"/>
     </row>
     <row r="473">
-      <c r="G473" s="27"/>
+      <c r="G473" s="28"/>
     </row>
     <row r="474">
-      <c r="G474" s="27"/>
+      <c r="G474" s="28"/>
     </row>
     <row r="475">
-      <c r="G475" s="27"/>
+      <c r="G475" s="28"/>
     </row>
     <row r="476">
-      <c r="G476" s="27"/>
+      <c r="G476" s="28"/>
     </row>
     <row r="477">
-      <c r="G477" s="27"/>
+      <c r="G477" s="28"/>
     </row>
     <row r="478">
-      <c r="G478" s="27"/>
+      <c r="G478" s="28"/>
     </row>
     <row r="479">
-      <c r="G479" s="27"/>
+      <c r="G479" s="28"/>
     </row>
     <row r="480">
-      <c r="G480" s="27"/>
+      <c r="G480" s="28"/>
     </row>
     <row r="481">
-      <c r="G481" s="27"/>
+      <c r="G481" s="28"/>
     </row>
     <row r="482">
-      <c r="G482" s="27"/>
+      <c r="G482" s="28"/>
     </row>
     <row r="483">
-      <c r="G483" s="27"/>
+      <c r="G483" s="28"/>
     </row>
     <row r="484">
-      <c r="G484" s="27"/>
+      <c r="G484" s="28"/>
     </row>
     <row r="485">
-      <c r="G485" s="27"/>
+      <c r="G485" s="28"/>
     </row>
     <row r="486">
-      <c r="G486" s="27"/>
+      <c r="G486" s="28"/>
     </row>
     <row r="487">
-      <c r="G487" s="27"/>
+      <c r="G487" s="28"/>
     </row>
     <row r="488">
-      <c r="G488" s="27"/>
+      <c r="G488" s="28"/>
     </row>
     <row r="489">
-      <c r="G489" s="27"/>
+      <c r="G489" s="28"/>
     </row>
     <row r="490">
-      <c r="G490" s="27"/>
+      <c r="G490" s="28"/>
     </row>
     <row r="491">
-      <c r="G491" s="27"/>
+      <c r="G491" s="28"/>
     </row>
     <row r="492">
-      <c r="G492" s="27"/>
+      <c r="G492" s="28"/>
     </row>
     <row r="493">
-      <c r="G493" s="27"/>
+      <c r="G493" s="28"/>
     </row>
     <row r="494">
-      <c r="G494" s="27"/>
+      <c r="G494" s="28"/>
     </row>
     <row r="495">
-      <c r="G495" s="27"/>
+      <c r="G495" s="28"/>
     </row>
     <row r="496">
-      <c r="G496" s="27"/>
+      <c r="G496" s="28"/>
     </row>
     <row r="497">
-      <c r="G497" s="27"/>
+      <c r="G497" s="28"/>
     </row>
     <row r="498">
-      <c r="G498" s="27"/>
+      <c r="G498" s="28"/>
     </row>
     <row r="499">
-      <c r="G499" s="27"/>
+      <c r="G499" s="28"/>
     </row>
     <row r="500">
-      <c r="G500" s="27"/>
+      <c r="G500" s="28"/>
     </row>
     <row r="501">
-      <c r="G501" s="27"/>
+      <c r="G501" s="28"/>
     </row>
     <row r="502">
-      <c r="G502" s="27"/>
+      <c r="G502" s="28"/>
     </row>
     <row r="503">
-      <c r="G503" s="27"/>
+      <c r="G503" s="28"/>
     </row>
     <row r="504">
-      <c r="G504" s="27"/>
+      <c r="G504" s="28"/>
     </row>
     <row r="505">
-      <c r="G505" s="27"/>
+      <c r="G505" s="28"/>
     </row>
     <row r="506">
-      <c r="G506" s="27"/>
+      <c r="G506" s="28"/>
     </row>
     <row r="507">
-      <c r="G507" s="27"/>
+      <c r="G507" s="28"/>
     </row>
     <row r="508">
-      <c r="G508" s="27"/>
+      <c r="G508" s="28"/>
     </row>
     <row r="509">
-      <c r="G509" s="27"/>
+      <c r="G509" s="28"/>
     </row>
     <row r="510">
-      <c r="G510" s="27"/>
+      <c r="G510" s="28"/>
     </row>
     <row r="511">
-      <c r="G511" s="27"/>
+      <c r="G511" s="28"/>
     </row>
     <row r="512">
-      <c r="G512" s="27"/>
+      <c r="G512" s="28"/>
     </row>
     <row r="513">
-      <c r="G513" s="27"/>
+      <c r="G513" s="28"/>
     </row>
     <row r="514">
-      <c r="G514" s="27"/>
+      <c r="G514" s="28"/>
     </row>
     <row r="515">
-      <c r="G515" s="27"/>
+      <c r="G515" s="28"/>
     </row>
     <row r="516">
-      <c r="G516" s="27"/>
+      <c r="G516" s="28"/>
     </row>
     <row r="517">
-      <c r="G517" s="27"/>
+      <c r="G517" s="28"/>
     </row>
     <row r="518">
-      <c r="G518" s="27"/>
+      <c r="G518" s="28"/>
     </row>
     <row r="519">
-      <c r="G519" s="27"/>
+      <c r="G519" s="28"/>
     </row>
     <row r="520">
-      <c r="G520" s="27"/>
+      <c r="G520" s="28"/>
     </row>
     <row r="521">
-      <c r="G521" s="27"/>
+      <c r="G521" s="28"/>
     </row>
     <row r="522">
-      <c r="G522" s="27"/>
+      <c r="G522" s="28"/>
     </row>
     <row r="523">
-      <c r="G523" s="27"/>
+      <c r="G523" s="28"/>
     </row>
     <row r="524">
-      <c r="G524" s="27"/>
+      <c r="G524" s="28"/>
     </row>
     <row r="525">
-      <c r="G525" s="27"/>
+      <c r="G525" s="28"/>
     </row>
     <row r="526">
-      <c r="G526" s="27"/>
+      <c r="G526" s="28"/>
     </row>
     <row r="527">
-      <c r="G527" s="27"/>
+      <c r="G527" s="28"/>
     </row>
     <row r="528">
-      <c r="G528" s="27"/>
+      <c r="G528" s="28"/>
     </row>
     <row r="529">
-      <c r="G529" s="27"/>
+      <c r="G529" s="28"/>
     </row>
     <row r="530">
-      <c r="G530" s="27"/>
+      <c r="G530" s="28"/>
     </row>
     <row r="531">
-      <c r="G531" s="27"/>
+      <c r="G531" s="28"/>
     </row>
     <row r="532">
-      <c r="G532" s="27"/>
+      <c r="G532" s="28"/>
     </row>
     <row r="533">
-      <c r="G533" s="27"/>
+      <c r="G533" s="28"/>
     </row>
     <row r="534">
-      <c r="G534" s="27"/>
+      <c r="G534" s="28"/>
     </row>
     <row r="535">
-      <c r="G535" s="27"/>
+      <c r="G535" s="28"/>
     </row>
     <row r="536">
-      <c r="G536" s="27"/>
+      <c r="G536" s="28"/>
     </row>
     <row r="537">
-      <c r="G537" s="27"/>
+      <c r="G537" s="28"/>
     </row>
     <row r="538">
-      <c r="G538" s="27"/>
+      <c r="G538" s="28"/>
     </row>
     <row r="539">
-      <c r="G539" s="27"/>
+      <c r="G539" s="28"/>
     </row>
     <row r="540">
-      <c r="G540" s="27"/>
+      <c r="G540" s="28"/>
     </row>
     <row r="541">
-      <c r="G541" s="27"/>
+      <c r="G541" s="28"/>
     </row>
     <row r="542">
-      <c r="G542" s="27"/>
+      <c r="G542" s="28"/>
     </row>
     <row r="543">
-      <c r="G543" s="27"/>
+      <c r="G543" s="28"/>
     </row>
     <row r="544">
-      <c r="G544" s="27"/>
+      <c r="G544" s="28"/>
     </row>
     <row r="545">
-      <c r="G545" s="27"/>
+      <c r="G545" s="28"/>
     </row>
     <row r="546">
-      <c r="G546" s="27"/>
+      <c r="G546" s="28"/>
     </row>
     <row r="547">
-      <c r="G547" s="27"/>
+      <c r="G547" s="28"/>
     </row>
     <row r="548">
-      <c r="G548" s="27"/>
+      <c r="G548" s="28"/>
     </row>
     <row r="549">
-      <c r="G549" s="27"/>
+      <c r="G549" s="28"/>
     </row>
     <row r="550">
-      <c r="G550" s="27"/>
+      <c r="G550" s="28"/>
     </row>
     <row r="551">
-      <c r="G551" s="27"/>
+      <c r="G551" s="28"/>
     </row>
     <row r="552">
-      <c r="G552" s="27"/>
+      <c r="G552" s="28"/>
     </row>
     <row r="553">
-      <c r="G553" s="27"/>
+      <c r="G553" s="28"/>
     </row>
     <row r="554">
-      <c r="G554" s="27"/>
+      <c r="G554" s="28"/>
     </row>
     <row r="555">
-      <c r="G555" s="27"/>
+      <c r="G555" s="28"/>
     </row>
     <row r="556">
-      <c r="G556" s="27"/>
+      <c r="G556" s="28"/>
     </row>
     <row r="557">
-      <c r="G557" s="27"/>
+      <c r="G557" s="28"/>
     </row>
     <row r="558">
-      <c r="G558" s="27"/>
+      <c r="G558" s="28"/>
     </row>
     <row r="559">
-      <c r="G559" s="27"/>
+      <c r="G559" s="28"/>
     </row>
     <row r="560">
-      <c r="G560" s="27"/>
+      <c r="G560" s="28"/>
     </row>
     <row r="561">
-      <c r="G561" s="27"/>
+      <c r="G561" s="28"/>
     </row>
     <row r="562">
-      <c r="G562" s="27"/>
+      <c r="G562" s="28"/>
     </row>
     <row r="563">
-      <c r="G563" s="27"/>
+      <c r="G563" s="28"/>
     </row>
     <row r="564">
-      <c r="G564" s="27"/>
+      <c r="G564" s="28"/>
     </row>
     <row r="565">
-      <c r="G565" s="27"/>
+      <c r="G565" s="28"/>
     </row>
     <row r="566">
-      <c r="G566" s="27"/>
+      <c r="G566" s="28"/>
     </row>
     <row r="567">
-      <c r="G567" s="27"/>
+      <c r="G567" s="28"/>
     </row>
     <row r="568">
-      <c r="G568" s="27"/>
+      <c r="G568" s="28"/>
     </row>
     <row r="569">
-      <c r="G569" s="27"/>
+      <c r="G569" s="28"/>
     </row>
     <row r="570">
-      <c r="G570" s="27"/>
+      <c r="G570" s="28"/>
     </row>
     <row r="571">
-      <c r="G571" s="27"/>
+      <c r="G571" s="28"/>
     </row>
     <row r="572">
-      <c r="G572" s="27"/>
+      <c r="G572" s="28"/>
     </row>
     <row r="573">
-      <c r="G573" s="27"/>
+      <c r="G573" s="28"/>
     </row>
     <row r="574">
-      <c r="G574" s="27"/>
+      <c r="G574" s="28"/>
     </row>
     <row r="575">
-      <c r="G575" s="27"/>
+      <c r="G575" s="28"/>
     </row>
     <row r="576">
-      <c r="G576" s="27"/>
+      <c r="G576" s="28"/>
     </row>
     <row r="577">
-      <c r="G577" s="27"/>
+      <c r="G577" s="28"/>
     </row>
     <row r="578">
-      <c r="G578" s="27"/>
+      <c r="G578" s="28"/>
     </row>
     <row r="579">
-      <c r="G579" s="27"/>
+      <c r="G579" s="28"/>
     </row>
     <row r="580">
-      <c r="G580" s="27"/>
+      <c r="G580" s="28"/>
     </row>
     <row r="581">
-      <c r="G581" s="27"/>
+      <c r="G581" s="28"/>
     </row>
     <row r="582">
-      <c r="G582" s="27"/>
+      <c r="G582" s="28"/>
     </row>
     <row r="583">
-      <c r="G583" s="27"/>
+      <c r="G583" s="28"/>
     </row>
     <row r="584">
-      <c r="G584" s="27"/>
+      <c r="G584" s="28"/>
     </row>
     <row r="585">
-      <c r="G585" s="27"/>
+      <c r="G585" s="28"/>
     </row>
     <row r="586">
-      <c r="G586" s="27"/>
+      <c r="G586" s="28"/>
     </row>
     <row r="587">
-      <c r="G587" s="27"/>
+      <c r="G587" s="28"/>
     </row>
     <row r="588">
-      <c r="G588" s="27"/>
+      <c r="G588" s="28"/>
     </row>
     <row r="589">
-      <c r="G589" s="27"/>
+      <c r="G589" s="28"/>
     </row>
     <row r="590">
-      <c r="G590" s="27"/>
+      <c r="G590" s="28"/>
     </row>
     <row r="591">
-      <c r="G591" s="27"/>
+      <c r="G591" s="28"/>
     </row>
     <row r="592">
-      <c r="G592" s="27"/>
+      <c r="G592" s="28"/>
     </row>
     <row r="593">
-      <c r="G593" s="27"/>
+      <c r="G593" s="28"/>
     </row>
     <row r="594">
-      <c r="G594" s="27"/>
+      <c r="G594" s="28"/>
     </row>
     <row r="595">
-      <c r="G595" s="27"/>
+      <c r="G595" s="28"/>
     </row>
     <row r="596">
-      <c r="G596" s="27"/>
+      <c r="G596" s="28"/>
     </row>
     <row r="597">
-      <c r="G597" s="27"/>
+      <c r="G597" s="28"/>
     </row>
     <row r="598">
-      <c r="G598" s="27"/>
+      <c r="G598" s="28"/>
     </row>
     <row r="599">
-      <c r="G599" s="27"/>
+      <c r="G599" s="28"/>
     </row>
     <row r="600">
-      <c r="G600" s="27"/>
+      <c r="G600" s="28"/>
     </row>
     <row r="601">
-      <c r="G601" s="27"/>
+      <c r="G601" s="28"/>
     </row>
     <row r="602">
-      <c r="G602" s="27"/>
+      <c r="G602" s="28"/>
     </row>
     <row r="603">
-      <c r="G603" s="27"/>
+      <c r="G603" s="28"/>
     </row>
     <row r="604">
-      <c r="G604" s="27"/>
+      <c r="G604" s="28"/>
     </row>
     <row r="605">
-      <c r="G605" s="27"/>
+      <c r="G605" s="28"/>
     </row>
     <row r="606">
-      <c r="G606" s="27"/>
+      <c r="G606" s="28"/>
     </row>
     <row r="607">
-      <c r="G607" s="27"/>
+      <c r="G607" s="28"/>
     </row>
     <row r="608">
-      <c r="G608" s="27"/>
+      <c r="G608" s="28"/>
     </row>
     <row r="609">
-      <c r="G609" s="27"/>
+      <c r="G609" s="28"/>
     </row>
     <row r="610">
-      <c r="G610" s="27"/>
+      <c r="G610" s="28"/>
     </row>
     <row r="611">
-      <c r="G611" s="27"/>
+      <c r="G611" s="28"/>
     </row>
     <row r="612">
-      <c r="G612" s="27"/>
+      <c r="G612" s="28"/>
     </row>
     <row r="613">
-      <c r="G613" s="27"/>
+      <c r="G613" s="28"/>
     </row>
     <row r="614">
-      <c r="G614" s="27"/>
+      <c r="G614" s="28"/>
     </row>
     <row r="615">
-      <c r="G615" s="27"/>
+      <c r="G615" s="28"/>
     </row>
     <row r="616">
-      <c r="G616" s="27"/>
+      <c r="G616" s="28"/>
     </row>
     <row r="617">
-      <c r="G617" s="27"/>
+      <c r="G617" s="28"/>
     </row>
     <row r="618">
-      <c r="G618" s="27"/>
+      <c r="G618" s="28"/>
     </row>
     <row r="619">
-      <c r="G619" s="27"/>
+      <c r="G619" s="28"/>
     </row>
     <row r="620">
-      <c r="G620" s="27"/>
+      <c r="G620" s="28"/>
     </row>
     <row r="621">
-      <c r="G621" s="27"/>
+      <c r="G621" s="28"/>
     </row>
     <row r="622">
-      <c r="G622" s="27"/>
+      <c r="G622" s="28"/>
     </row>
     <row r="623">
-      <c r="G623" s="27"/>
+      <c r="G623" s="28"/>
     </row>
     <row r="624">
-      <c r="G624" s="27"/>
+      <c r="G624" s="28"/>
     </row>
     <row r="625">
-      <c r="G625" s="27"/>
+      <c r="G625" s="28"/>
     </row>
     <row r="626">
-      <c r="G626" s="27"/>
+      <c r="G626" s="28"/>
     </row>
     <row r="627">
-      <c r="G627" s="27"/>
+      <c r="G627" s="28"/>
     </row>
     <row r="628">
-      <c r="G628" s="27"/>
+      <c r="G628" s="28"/>
     </row>
     <row r="629">
-      <c r="G629" s="27"/>
+      <c r="G629" s="28"/>
     </row>
     <row r="630">
-      <c r="G630" s="27"/>
+      <c r="G630" s="28"/>
     </row>
     <row r="631">
-      <c r="G631" s="27"/>
+      <c r="G631" s="28"/>
     </row>
     <row r="632">
-      <c r="G632" s="27"/>
+      <c r="G632" s="28"/>
     </row>
     <row r="633">
-      <c r="G633" s="27"/>
+      <c r="G633" s="28"/>
     </row>
     <row r="634">
-      <c r="G634" s="27"/>
+      <c r="G634" s="28"/>
     </row>
     <row r="635">
-      <c r="G635" s="27"/>
+      <c r="G635" s="28"/>
     </row>
     <row r="636">
-      <c r="G636" s="27"/>
+      <c r="G636" s="28"/>
     </row>
     <row r="637">
-      <c r="G637" s="27"/>
+      <c r="G637" s="28"/>
     </row>
     <row r="638">
-      <c r="G638" s="27"/>
+      <c r="G638" s="28"/>
     </row>
     <row r="639">
-      <c r="G639" s="27"/>
+      <c r="G639" s="28"/>
     </row>
     <row r="640">
-      <c r="G640" s="27"/>
+      <c r="G640" s="28"/>
     </row>
     <row r="641">
-      <c r="G641" s="27"/>
+      <c r="G641" s="28"/>
     </row>
     <row r="642">
-      <c r="G642" s="27"/>
+      <c r="G642" s="28"/>
     </row>
     <row r="643">
-      <c r="G643" s="27"/>
+      <c r="G643" s="28"/>
     </row>
     <row r="644">
-      <c r="G644" s="27"/>
+      <c r="G644" s="28"/>
     </row>
     <row r="645">
-      <c r="G645" s="27"/>
+      <c r="G645" s="28"/>
     </row>
     <row r="646">
-      <c r="G646" s="27"/>
+      <c r="G646" s="28"/>
     </row>
     <row r="647">
-      <c r="G647" s="27"/>
+      <c r="G647" s="28"/>
     </row>
     <row r="648">
-      <c r="G648" s="27"/>
+      <c r="G648" s="28"/>
     </row>
     <row r="649">
-      <c r="G649" s="27"/>
+      <c r="G649" s="28"/>
     </row>
     <row r="650">
-      <c r="G650" s="27"/>
+      <c r="G650" s="28"/>
     </row>
     <row r="651">
-      <c r="G651" s="27"/>
+      <c r="G651" s="28"/>
     </row>
     <row r="652">
-      <c r="G652" s="27"/>
+      <c r="G652" s="28"/>
     </row>
     <row r="653">
-      <c r="G653" s="27"/>
+      <c r="G653" s="28"/>
     </row>
     <row r="654">
-      <c r="G654" s="27"/>
+      <c r="G654" s="28"/>
     </row>
     <row r="655">
-      <c r="G655" s="27"/>
+      <c r="G655" s="28"/>
     </row>
     <row r="656">
-      <c r="G656" s="27"/>
+      <c r="G656" s="28"/>
     </row>
     <row r="657">
-      <c r="G657" s="27"/>
+      <c r="G657" s="28"/>
     </row>
     <row r="658">
-      <c r="G658" s="27"/>
+      <c r="G658" s="28"/>
     </row>
     <row r="659">
-      <c r="G659" s="27"/>
+      <c r="G659" s="28"/>
     </row>
     <row r="660">
-      <c r="G660" s="27"/>
+      <c r="G660" s="28"/>
     </row>
     <row r="661">
-      <c r="G661" s="27"/>
+      <c r="G661" s="28"/>
     </row>
     <row r="662">
-      <c r="G662" s="27"/>
+      <c r="G662" s="28"/>
     </row>
     <row r="663">
-      <c r="G663" s="27"/>
+      <c r="G663" s="28"/>
     </row>
     <row r="664">
-      <c r="G664" s="27"/>
+      <c r="G664" s="28"/>
     </row>
     <row r="665">
-      <c r="G665" s="27"/>
+      <c r="G665" s="28"/>
     </row>
     <row r="666">
-      <c r="G666" s="27"/>
+      <c r="G666" s="28"/>
     </row>
     <row r="667">
-      <c r="G667" s="27"/>
+      <c r="G667" s="28"/>
     </row>
     <row r="668">
-      <c r="G668" s="27"/>
+      <c r="G668" s="28"/>
     </row>
     <row r="669">
-      <c r="G669" s="27"/>
+      <c r="G669" s="28"/>
     </row>
     <row r="670">
-      <c r="G670" s="27"/>
+      <c r="G670" s="28"/>
     </row>
     <row r="671">
-      <c r="G671" s="27"/>
+      <c r="G671" s="28"/>
     </row>
     <row r="672">
-      <c r="G672" s="27"/>
+      <c r="G672" s="28"/>
     </row>
     <row r="673">
-      <c r="G673" s="27"/>
+      <c r="G673" s="28"/>
     </row>
     <row r="674">
-      <c r="G674" s="27"/>
+      <c r="G674" s="28"/>
     </row>
     <row r="675">
-      <c r="G675" s="27"/>
+      <c r="G675" s="28"/>
     </row>
     <row r="676">
-      <c r="G676" s="27"/>
+      <c r="G676" s="28"/>
     </row>
     <row r="677">
-      <c r="G677" s="27"/>
+      <c r="G677" s="28"/>
     </row>
     <row r="678">
-      <c r="G678" s="27"/>
+      <c r="G678" s="28"/>
     </row>
     <row r="679">
-      <c r="G679" s="27"/>
+      <c r="G679" s="28"/>
     </row>
     <row r="680">
-      <c r="G680" s="27"/>
+      <c r="G680" s="28"/>
     </row>
     <row r="681">
-      <c r="G681" s="27"/>
+      <c r="G681" s="28"/>
     </row>
     <row r="682">
-      <c r="G682" s="27"/>
+      <c r="G682" s="28"/>
     </row>
     <row r="683">
-      <c r="G683" s="27"/>
+      <c r="G683" s="28"/>
     </row>
     <row r="684">
-      <c r="G684" s="27"/>
+      <c r="G684" s="28"/>
     </row>
     <row r="685">
-      <c r="G685" s="27"/>
+      <c r="G685" s="28"/>
     </row>
     <row r="686">
-      <c r="G686" s="27"/>
+      <c r="G686" s="28"/>
     </row>
     <row r="687">
-      <c r="G687" s="27"/>
+      <c r="G687" s="28"/>
     </row>
     <row r="688">
-      <c r="G688" s="27"/>
+      <c r="G688" s="28"/>
     </row>
     <row r="689">
-      <c r="G689" s="27"/>
+      <c r="G689" s="28"/>
     </row>
     <row r="690">
-      <c r="G690" s="27"/>
+      <c r="G690" s="28"/>
     </row>
     <row r="691">
-      <c r="G691" s="27"/>
+      <c r="G691" s="28"/>
     </row>
     <row r="692">
-      <c r="G692" s="27"/>
+      <c r="G692" s="28"/>
     </row>
     <row r="693">
-      <c r="G693" s="27"/>
+      <c r="G693" s="28"/>
     </row>
     <row r="694">
-      <c r="G694" s="27"/>
+      <c r="G694" s="28"/>
     </row>
     <row r="695">
-      <c r="G695" s="27"/>
+      <c r="G695" s="28"/>
     </row>
     <row r="696">
-      <c r="G696" s="27"/>
+      <c r="G696" s="28"/>
     </row>
     <row r="697">
-      <c r="G697" s="27"/>
+      <c r="G697" s="28"/>
     </row>
     <row r="698">
-      <c r="G698" s="27"/>
+      <c r="G698" s="28"/>
     </row>
     <row r="699">
-      <c r="G699" s="27"/>
+      <c r="G699" s="28"/>
     </row>
     <row r="700">
-      <c r="G700" s="27"/>
+      <c r="G700" s="28"/>
     </row>
     <row r="701">
-      <c r="G701" s="27"/>
+      <c r="G701" s="28"/>
     </row>
     <row r="702">
-      <c r="G702" s="27"/>
+      <c r="G702" s="28"/>
     </row>
     <row r="703">
-      <c r="G703" s="27"/>
+      <c r="G703" s="28"/>
     </row>
     <row r="704">
-      <c r="G704" s="27"/>
+      <c r="G704" s="28"/>
     </row>
     <row r="705">
-      <c r="G705" s="27"/>
+      <c r="G705" s="28"/>
     </row>
     <row r="706">
-      <c r="G706" s="27"/>
+      <c r="G706" s="28"/>
     </row>
     <row r="707">
-      <c r="G707" s="27"/>
+      <c r="G707" s="28"/>
     </row>
     <row r="708">
-      <c r="G708" s="27"/>
+      <c r="G708" s="28"/>
     </row>
     <row r="709">
-      <c r="G709" s="27"/>
+      <c r="G709" s="28"/>
     </row>
     <row r="710">
-      <c r="G710" s="27"/>
+      <c r="G710" s="28"/>
     </row>
     <row r="711">
-      <c r="G711" s="27"/>
+      <c r="G711" s="28"/>
     </row>
     <row r="712">
-      <c r="G712" s="27"/>
+      <c r="G712" s="28"/>
     </row>
     <row r="713">
-      <c r="G713" s="27"/>
+      <c r="G713" s="28"/>
     </row>
     <row r="714">
-      <c r="G714" s="27"/>
+      <c r="G714" s="28"/>
     </row>
     <row r="715">
-      <c r="G715" s="27"/>
+      <c r="G715" s="28"/>
     </row>
     <row r="716">
-      <c r="G716" s="27"/>
+      <c r="G716" s="28"/>
     </row>
     <row r="717">
-      <c r="G717" s="27"/>
+      <c r="G717" s="28"/>
     </row>
     <row r="718">
-      <c r="G718" s="27"/>
+      <c r="G718" s="28"/>
     </row>
     <row r="719">
-      <c r="G719" s="27"/>
+      <c r="G719" s="28"/>
     </row>
     <row r="720">
-      <c r="G720" s="27"/>
+      <c r="G720" s="28"/>
     </row>
     <row r="721">
-      <c r="G721" s="27"/>
+      <c r="G721" s="28"/>
     </row>
     <row r="722">
-      <c r="G722" s="27"/>
+      <c r="G722" s="28"/>
     </row>
     <row r="723">
-      <c r="G723" s="27"/>
+      <c r="G723" s="28"/>
     </row>
     <row r="724">
-      <c r="G724" s="27"/>
+      <c r="G724" s="28"/>
     </row>
     <row r="725">
-      <c r="G725" s="27"/>
+      <c r="G725" s="28"/>
     </row>
     <row r="726">
-      <c r="G726" s="27"/>
+      <c r="G726" s="28"/>
     </row>
     <row r="727">
-      <c r="G727" s="27"/>
+      <c r="G727" s="28"/>
     </row>
     <row r="728">
-      <c r="G728" s="27"/>
+      <c r="G728" s="28"/>
     </row>
     <row r="729">
-      <c r="G729" s="27"/>
+      <c r="G729" s="28"/>
     </row>
     <row r="730">
-      <c r="G730" s="27"/>
+      <c r="G730" s="28"/>
     </row>
     <row r="731">
-      <c r="G731" s="27"/>
+      <c r="G731" s="28"/>
     </row>
     <row r="732">
-      <c r="G732" s="27"/>
+      <c r="G732" s="28"/>
     </row>
     <row r="733">
-      <c r="G733" s="27"/>
+      <c r="G733" s="28"/>
     </row>
     <row r="734">
-      <c r="G734" s="27"/>
+      <c r="G734" s="28"/>
     </row>
     <row r="735">
-      <c r="G735" s="27"/>
+      <c r="G735" s="28"/>
     </row>
     <row r="736">
-      <c r="G736" s="27"/>
+      <c r="G736" s="28"/>
     </row>
     <row r="737">
-      <c r="G737" s="27"/>
+      <c r="G737" s="28"/>
     </row>
     <row r="738">
-      <c r="G738" s="27"/>
+      <c r="G738" s="28"/>
     </row>
     <row r="739">
-      <c r="G739" s="27"/>
+      <c r="G739" s="28"/>
     </row>
     <row r="740">
-      <c r="G740" s="27"/>
+      <c r="G740" s="28"/>
     </row>
     <row r="741">
-      <c r="G741" s="27"/>
+      <c r="G741" s="28"/>
     </row>
     <row r="742">
-      <c r="G742" s="27"/>
+      <c r="G742" s="28"/>
     </row>
     <row r="743">
-      <c r="G743" s="27"/>
+      <c r="G743" s="28"/>
     </row>
     <row r="744">
-      <c r="G744" s="27"/>
+      <c r="G744" s="28"/>
     </row>
     <row r="745">
-      <c r="G745" s="27"/>
+      <c r="G745" s="28"/>
     </row>
     <row r="746">
-      <c r="G746" s="27"/>
+      <c r="G746" s="28"/>
     </row>
     <row r="747">
-      <c r="G747" s="27"/>
+      <c r="G747" s="28"/>
     </row>
     <row r="748">
-      <c r="G748" s="27"/>
+      <c r="G748" s="28"/>
     </row>
     <row r="749">
-      <c r="G749" s="27"/>
+      <c r="G749" s="28"/>
     </row>
     <row r="750">
-      <c r="G750" s="27"/>
+      <c r="G750" s="28"/>
     </row>
     <row r="751">
-      <c r="G751" s="27"/>
+      <c r="G751" s="28"/>
     </row>
     <row r="752">
-      <c r="G752" s="27"/>
+      <c r="G752" s="28"/>
     </row>
     <row r="753">
-      <c r="G753" s="27"/>
+      <c r="G753" s="28"/>
     </row>
     <row r="754">
-      <c r="G754" s="27"/>
+      <c r="G754" s="28"/>
     </row>
     <row r="755">
-      <c r="G755" s="27"/>
+      <c r="G755" s="28"/>
     </row>
     <row r="756">
-      <c r="G756" s="27"/>
+      <c r="G756" s="28"/>
     </row>
     <row r="757">
-      <c r="G757" s="27"/>
+      <c r="G757" s="28"/>
     </row>
     <row r="758">
-      <c r="G758" s="27"/>
+      <c r="G758" s="28"/>
     </row>
     <row r="759">
-      <c r="G759" s="27"/>
+      <c r="G759" s="28"/>
     </row>
     <row r="760">
-      <c r="G760" s="27"/>
+      <c r="G760" s="28"/>
     </row>
     <row r="761">
-      <c r="G761" s="27"/>
+      <c r="G761" s="28"/>
     </row>
     <row r="762">
-      <c r="G762" s="27"/>
+      <c r="G762" s="28"/>
     </row>
     <row r="763">
-      <c r="G763" s="27"/>
+      <c r="G763" s="28"/>
     </row>
     <row r="764">
-      <c r="G764" s="27"/>
+      <c r="G764" s="28"/>
     </row>
     <row r="765">
-      <c r="G765" s="27"/>
+      <c r="G765" s="28"/>
     </row>
     <row r="766">
-      <c r="G766" s="27"/>
+      <c r="G766" s="28"/>
     </row>
     <row r="767">
-      <c r="G767" s="27"/>
+      <c r="G767" s="28"/>
     </row>
     <row r="768">
-      <c r="G768" s="27"/>
+      <c r="G768" s="28"/>
     </row>
     <row r="769">
-      <c r="G769" s="27"/>
+      <c r="G769" s="28"/>
     </row>
     <row r="770">
-      <c r="G770" s="27"/>
+      <c r="G770" s="28"/>
     </row>
     <row r="771">
-      <c r="G771" s="27"/>
+      <c r="G771" s="28"/>
     </row>
     <row r="772">
-      <c r="G772" s="27"/>
+      <c r="G772" s="28"/>
     </row>
     <row r="773">
-      <c r="G773" s="27"/>
+      <c r="G773" s="28"/>
     </row>
     <row r="774">
-      <c r="G774" s="27"/>
+      <c r="G774" s="28"/>
     </row>
     <row r="775">
-      <c r="G775" s="27"/>
+      <c r="G775" s="28"/>
     </row>
     <row r="776">
-      <c r="G776" s="27"/>
+      <c r="G776" s="28"/>
     </row>
     <row r="777">
-      <c r="G777" s="27"/>
+      <c r="G777" s="28"/>
     </row>
     <row r="778">
-      <c r="G778" s="27"/>
+      <c r="G778" s="28"/>
     </row>
     <row r="779">
-      <c r="G779" s="27"/>
+      <c r="G779" s="28"/>
     </row>
     <row r="780">
-      <c r="G780" s="27"/>
+      <c r="G780" s="28"/>
     </row>
     <row r="781">
-      <c r="G781" s="27"/>
+      <c r="G781" s="28"/>
     </row>
     <row r="782">
-      <c r="G782" s="27"/>
+      <c r="G782" s="28"/>
     </row>
     <row r="783">
-      <c r="G783" s="27"/>
+      <c r="G783" s="28"/>
     </row>
     <row r="784">
-      <c r="G784" s="27"/>
+      <c r="G784" s="28"/>
     </row>
     <row r="785">
-      <c r="G785" s="27"/>
+      <c r="G785" s="28"/>
     </row>
     <row r="786">
-      <c r="G786" s="27"/>
+      <c r="G786" s="28"/>
     </row>
     <row r="787">
-      <c r="G787" s="27"/>
+      <c r="G787" s="28"/>
     </row>
     <row r="788">
-      <c r="G788" s="27"/>
+      <c r="G788" s="28"/>
     </row>
     <row r="789">
-      <c r="G789" s="27"/>
+      <c r="G789" s="28"/>
     </row>
     <row r="790">
-      <c r="G790" s="27"/>
+      <c r="G790" s="28"/>
     </row>
     <row r="791">
-      <c r="G791" s="27"/>
+      <c r="G791" s="28"/>
     </row>
     <row r="792">
-      <c r="G792" s="27"/>
+      <c r="G792" s="28"/>
     </row>
     <row r="793">
-      <c r="G793" s="27"/>
+      <c r="G793" s="28"/>
     </row>
     <row r="794">
-      <c r="G794" s="27"/>
+      <c r="G794" s="28"/>
     </row>
     <row r="795">
-      <c r="G795" s="27"/>
+      <c r="G795" s="28"/>
     </row>
     <row r="796">
-      <c r="G796" s="27"/>
+      <c r="G796" s="28"/>
     </row>
     <row r="797">
-      <c r="G797" s="27"/>
+      <c r="G797" s="28"/>
     </row>
     <row r="798">
-      <c r="G798" s="27"/>
+      <c r="G798" s="28"/>
     </row>
     <row r="799">
-      <c r="G799" s="27"/>
+      <c r="G799" s="28"/>
     </row>
     <row r="800">
-      <c r="G800" s="27"/>
+      <c r="G800" s="28"/>
     </row>
     <row r="801">
-      <c r="G801" s="27"/>
+      <c r="G801" s="28"/>
     </row>
     <row r="802">
-      <c r="G802" s="27"/>
+      <c r="G802" s="28"/>
     </row>
     <row r="803">
-      <c r="G803" s="27"/>
+      <c r="G803" s="28"/>
     </row>
     <row r="804">
-      <c r="G804" s="27"/>
+      <c r="G804" s="28"/>
     </row>
     <row r="805">
-      <c r="G805" s="27"/>
+      <c r="G805" s="28"/>
     </row>
     <row r="806">
-      <c r="G806" s="27"/>
+      <c r="G806" s="28"/>
     </row>
     <row r="807">
-      <c r="G807" s="27"/>
+      <c r="G807" s="28"/>
     </row>
     <row r="808">
-      <c r="G808" s="27"/>
+      <c r="G808" s="28"/>
     </row>
     <row r="809">
-      <c r="G809" s="27"/>
+      <c r="G809" s="28"/>
     </row>
     <row r="810">
-      <c r="G810" s="27"/>
+      <c r="G810" s="28"/>
     </row>
     <row r="811">
-      <c r="G811" s="27"/>
+      <c r="G811" s="28"/>
     </row>
     <row r="812">
-      <c r="G812" s="27"/>
+      <c r="G812" s="28"/>
     </row>
     <row r="813">
-      <c r="G813" s="27"/>
+      <c r="G813" s="28"/>
     </row>
     <row r="814">
-      <c r="G814" s="27"/>
+      <c r="G814" s="28"/>
     </row>
     <row r="815">
-      <c r="G815" s="27"/>
+      <c r="G815" s="28"/>
     </row>
     <row r="816">
-      <c r="G816" s="27"/>
+      <c r="G816" s="28"/>
     </row>
     <row r="817">
-      <c r="G817" s="27"/>
+      <c r="G817" s="28"/>
     </row>
     <row r="818">
-      <c r="G818" s="27"/>
+      <c r="G818" s="28"/>
     </row>
     <row r="819">
-      <c r="G819" s="27"/>
+      <c r="G819" s="28"/>
     </row>
     <row r="820">
-      <c r="G820" s="27"/>
+      <c r="G820" s="28"/>
     </row>
     <row r="821">
-      <c r="G821" s="27"/>
+      <c r="G821" s="28"/>
     </row>
     <row r="822">
-      <c r="G822" s="27"/>
+      <c r="G822" s="28"/>
     </row>
     <row r="823">
-      <c r="G823" s="27"/>
+      <c r="G823" s="28"/>
     </row>
     <row r="824">
-      <c r="G824" s="27"/>
+      <c r="G824" s="28"/>
     </row>
     <row r="825">
-      <c r="G825" s="27"/>
+      <c r="G825" s="28"/>
     </row>
     <row r="826">
-      <c r="G826" s="27"/>
+      <c r="G826" s="28"/>
     </row>
     <row r="827">
-      <c r="G827" s="27"/>
+      <c r="G827" s="28"/>
     </row>
     <row r="828">
-      <c r="G828" s="27"/>
+      <c r="G828" s="28"/>
     </row>
     <row r="829">
-      <c r="G829" s="27"/>
+      <c r="G829" s="28"/>
     </row>
     <row r="830">
-      <c r="G830" s="27"/>
+      <c r="G830" s="28"/>
     </row>
     <row r="831">
-      <c r="G831" s="27"/>
+      <c r="G831" s="28"/>
     </row>
     <row r="832">
-      <c r="G832" s="27"/>
+      <c r="G832" s="28"/>
     </row>
     <row r="833">
-      <c r="G833" s="27"/>
+      <c r="G833" s="28"/>
     </row>
     <row r="834">
-      <c r="G834" s="27"/>
+      <c r="G834" s="28"/>
     </row>
     <row r="835">
-      <c r="G835" s="27"/>
+      <c r="G835" s="28"/>
     </row>
     <row r="836">
-      <c r="G836" s="27"/>
+      <c r="G836" s="28"/>
     </row>
     <row r="837">
-      <c r="G837" s="27"/>
+      <c r="G837" s="28"/>
     </row>
     <row r="838">
-      <c r="G838" s="27"/>
+      <c r="G838" s="28"/>
     </row>
     <row r="839">
-      <c r="G839" s="27"/>
+      <c r="G839" s="28"/>
     </row>
     <row r="840">
-      <c r="G840" s="27"/>
+      <c r="G840" s="28"/>
     </row>
     <row r="841">
-      <c r="G841" s="27"/>
+      <c r="G841" s="28"/>
     </row>
     <row r="842">
-      <c r="G842" s="27"/>
+      <c r="G842" s="28"/>
     </row>
     <row r="843">
-      <c r="G843" s="27"/>
+      <c r="G843" s="28"/>
     </row>
     <row r="844">
-      <c r="G844" s="27"/>
+      <c r="G844" s="28"/>
     </row>
     <row r="845">
-      <c r="G845" s="27"/>
+      <c r="G845" s="28"/>
     </row>
     <row r="846">
-      <c r="G846" s="27"/>
+      <c r="G846" s="28"/>
     </row>
     <row r="847">
-      <c r="G847" s="27"/>
+      <c r="G847" s="28"/>
     </row>
     <row r="848">
-      <c r="G848" s="27"/>
+      <c r="G848" s="28"/>
     </row>
     <row r="849">
-      <c r="G849" s="27"/>
+      <c r="G849" s="28"/>
     </row>
     <row r="850">
-      <c r="G850" s="27"/>
+      <c r="G850" s="28"/>
     </row>
     <row r="851">
-      <c r="G851" s="27"/>
+      <c r="G851" s="28"/>
     </row>
     <row r="852">
-      <c r="G852" s="27"/>
+      <c r="G852" s="28"/>
     </row>
     <row r="853">
-      <c r="G853" s="27"/>
+      <c r="G853" s="28"/>
     </row>
     <row r="854">
-      <c r="G854" s="27"/>
+      <c r="G854" s="28"/>
     </row>
     <row r="855">
-      <c r="G855" s="27"/>
+      <c r="G855" s="28"/>
     </row>
     <row r="856">
-      <c r="G856" s="27"/>
+      <c r="G856" s="28"/>
     </row>
     <row r="857">
-      <c r="G857" s="27"/>
+      <c r="G857" s="28"/>
     </row>
     <row r="858">
-      <c r="G858" s="27"/>
+      <c r="G858" s="28"/>
     </row>
     <row r="859">
-      <c r="G859" s="27"/>
+      <c r="G859" s="28"/>
     </row>
     <row r="860">
-      <c r="G860" s="27"/>
+      <c r="G860" s="28"/>
     </row>
     <row r="861">
-      <c r="G861" s="27"/>
+      <c r="G861" s="28"/>
     </row>
     <row r="862">
-      <c r="G862" s="27"/>
+      <c r="G862" s="28"/>
     </row>
     <row r="863">
-      <c r="G863" s="27"/>
+      <c r="G863" s="28"/>
     </row>
     <row r="864">
-      <c r="G864" s="27"/>
+      <c r="G864" s="28"/>
     </row>
     <row r="865">
-      <c r="G865" s="27"/>
+      <c r="G865" s="28"/>
     </row>
     <row r="866">
-      <c r="G866" s="27"/>
+      <c r="G866" s="28"/>
     </row>
     <row r="867">
-      <c r="G867" s="27"/>
+      <c r="G867" s="28"/>
     </row>
     <row r="868">
-      <c r="G868" s="27"/>
+      <c r="G868" s="28"/>
     </row>
     <row r="869">
-      <c r="G869" s="27"/>
+      <c r="G869" s="28"/>
     </row>
     <row r="870">
-      <c r="G870" s="27"/>
+      <c r="G870" s="28"/>
     </row>
     <row r="871">
-      <c r="G871" s="27"/>
+      <c r="G871" s="28"/>
     </row>
     <row r="872">
-      <c r="G872" s="27"/>
+      <c r="G872" s="28"/>
     </row>
     <row r="873">
-      <c r="G873" s="27"/>
+      <c r="G873" s="28"/>
     </row>
     <row r="874">
-      <c r="G874" s="27"/>
+      <c r="G874" s="28"/>
     </row>
     <row r="875">
-      <c r="G875" s="27"/>
+      <c r="G875" s="28"/>
     </row>
     <row r="876">
-      <c r="G876" s="27"/>
+      <c r="G876" s="28"/>
     </row>
     <row r="877">
-      <c r="G877" s="27"/>
+      <c r="G877" s="28"/>
     </row>
     <row r="878">
-      <c r="G878" s="27"/>
+      <c r="G878" s="28"/>
     </row>
     <row r="879">
-      <c r="G879" s="27"/>
+      <c r="G879" s="28"/>
     </row>
     <row r="880">
-      <c r="G880" s="27"/>
+      <c r="G880" s="28"/>
     </row>
     <row r="881">
-      <c r="G881" s="27"/>
+      <c r="G881" s="28"/>
     </row>
     <row r="882">
-      <c r="G882" s="27"/>
+      <c r="G882" s="28"/>
     </row>
     <row r="883">
-      <c r="G883" s="27"/>
+      <c r="G883" s="28"/>
     </row>
     <row r="884">
-      <c r="G884" s="27"/>
+      <c r="G884" s="28"/>
     </row>
     <row r="885">
-      <c r="G885" s="27"/>
+      <c r="G885" s="28"/>
     </row>
     <row r="886">
-      <c r="G886" s="27"/>
+      <c r="G886" s="28"/>
     </row>
     <row r="887">
-      <c r="G887" s="27"/>
+      <c r="G887" s="28"/>
     </row>
     <row r="888">
-      <c r="G888" s="27"/>
+      <c r="G888" s="28"/>
     </row>
     <row r="889">
-      <c r="G889" s="27"/>
+      <c r="G889" s="28"/>
     </row>
     <row r="890">
-      <c r="G890" s="27"/>
+      <c r="G890" s="28"/>
     </row>
     <row r="891">
-      <c r="G891" s="27"/>
+      <c r="G891" s="28"/>
     </row>
     <row r="892">
-      <c r="G892" s="27"/>
+      <c r="G892" s="28"/>
     </row>
     <row r="893">
-      <c r="G893" s="27"/>
+      <c r="G893" s="28"/>
     </row>
     <row r="894">
-      <c r="G894" s="27"/>
+      <c r="G894" s="28"/>
     </row>
     <row r="895">
-      <c r="G895" s="27"/>
+      <c r="G895" s="28"/>
     </row>
     <row r="896">
-      <c r="G896" s="27"/>
+      <c r="G896" s="28"/>
     </row>
     <row r="897">
-      <c r="G897" s="27"/>
+      <c r="G897" s="28"/>
     </row>
     <row r="898">
-      <c r="G898" s="27"/>
+      <c r="G898" s="28"/>
     </row>
     <row r="899">
-      <c r="G899" s="27"/>
+      <c r="G899" s="28"/>
     </row>
     <row r="900">
-      <c r="G900" s="27"/>
+      <c r="G900" s="28"/>
     </row>
     <row r="901">
-      <c r="G901" s="27"/>
+      <c r="G901" s="28"/>
     </row>
     <row r="902">
-      <c r="G902" s="27"/>
+      <c r="G902" s="28"/>
     </row>
     <row r="903">
-      <c r="G903" s="27"/>
+      <c r="G903" s="28"/>
     </row>
     <row r="904">
-      <c r="G904" s="27"/>
+      <c r="G904" s="28"/>
     </row>
     <row r="905">
-      <c r="G905" s="27"/>
+      <c r="G905" s="28"/>
     </row>
     <row r="906">
-      <c r="G906" s="27"/>
+      <c r="G906" s="28"/>
     </row>
     <row r="907">
-      <c r="G907" s="27"/>
+      <c r="G907" s="28"/>
     </row>
     <row r="908">
-      <c r="G908" s="27"/>
+      <c r="G908" s="28"/>
     </row>
     <row r="909">
-      <c r="G909" s="27"/>
+      <c r="G909" s="28"/>
     </row>
     <row r="910">
-      <c r="G910" s="27"/>
+      <c r="G910" s="28"/>
     </row>
     <row r="911">
-      <c r="G911" s="27"/>
+      <c r="G911" s="28"/>
     </row>
     <row r="912">
-      <c r="G912" s="27"/>
+      <c r="G912" s="28"/>
     </row>
     <row r="913">
-      <c r="G913" s="27"/>
+      <c r="G913" s="28"/>
     </row>
     <row r="914">
-      <c r="G914" s="27"/>
+      <c r="G914" s="28"/>
     </row>
     <row r="915">
-      <c r="G915" s="27"/>
+      <c r="G915" s="28"/>
     </row>
     <row r="916">
-      <c r="G916" s="27"/>
+      <c r="G916" s="28"/>
     </row>
     <row r="917">
-      <c r="G917" s="27"/>
+      <c r="G917" s="28"/>
     </row>
     <row r="918">
-      <c r="G918" s="27"/>
+      <c r="G918" s="28"/>
     </row>
     <row r="919">
-      <c r="G919" s="27"/>
+      <c r="G919" s="28"/>
     </row>
     <row r="920">
-      <c r="G920" s="27"/>
+      <c r="G920" s="28"/>
     </row>
     <row r="921">
-      <c r="G921" s="27"/>
+      <c r="G921" s="28"/>
     </row>
     <row r="922">
-      <c r="G922" s="27"/>
+      <c r="G922" s="28"/>
     </row>
     <row r="923">
-      <c r="G923" s="27"/>
+      <c r="G923" s="28"/>
     </row>
     <row r="924">
-      <c r="G924" s="27"/>
+      <c r="G924" s="28"/>
     </row>
     <row r="925">
-      <c r="G925" s="27"/>
+      <c r="G925" s="28"/>
     </row>
     <row r="926">
-      <c r="G926" s="27"/>
+      <c r="G926" s="28"/>
     </row>
     <row r="927">
-      <c r="G927" s="27"/>
+      <c r="G927" s="28"/>
     </row>
     <row r="928">
-      <c r="G928" s="27"/>
+      <c r="G928" s="28"/>
     </row>
     <row r="929">
-      <c r="G929" s="27"/>
+      <c r="G929" s="28"/>
     </row>
     <row r="930">
-      <c r="G930" s="27"/>
+      <c r="G930" s="28"/>
     </row>
     <row r="931">
-      <c r="G931" s="27"/>
+      <c r="G931" s="28"/>
     </row>
     <row r="932">
-      <c r="G932" s="27"/>
+      <c r="G932" s="28"/>
     </row>
     <row r="933">
-      <c r="G933" s="27"/>
+      <c r="G933" s="28"/>
     </row>
     <row r="934">
-      <c r="G934" s="27"/>
+      <c r="G934" s="28"/>
     </row>
     <row r="935">
-      <c r="G935" s="27"/>
+      <c r="G935" s="28"/>
     </row>
     <row r="936">
-      <c r="G936" s="27"/>
+      <c r="G936" s="28"/>
     </row>
     <row r="937">
-      <c r="G937" s="27"/>
+      <c r="G937" s="28"/>
     </row>
     <row r="938">
-      <c r="G938" s="27"/>
+      <c r="G938" s="28"/>
     </row>
     <row r="939">
-      <c r="G939" s="27"/>
+      <c r="G939" s="28"/>
     </row>
     <row r="940">
-      <c r="G940" s="27"/>
+      <c r="G940" s="28"/>
     </row>
     <row r="941">
-      <c r="G941" s="27"/>
+      <c r="G941" s="28"/>
     </row>
     <row r="942">
-      <c r="G942" s="27"/>
+      <c r="G942" s="28"/>
     </row>
     <row r="943">
-      <c r="G943" s="27"/>
+      <c r="G943" s="28"/>
     </row>
     <row r="944">
-      <c r="G944" s="27"/>
+      <c r="G944" s="28"/>
     </row>
     <row r="945">
-      <c r="G945" s="27"/>
+      <c r="G945" s="28"/>
     </row>
     <row r="946">
-      <c r="G946" s="27"/>
+      <c r="G946" s="28"/>
     </row>
     <row r="947">
-      <c r="G947" s="27"/>
+      <c r="G947" s="28"/>
     </row>
     <row r="948">
-      <c r="G948" s="27"/>
+      <c r="G948" s="28"/>
     </row>
     <row r="949">
-      <c r="G949" s="27"/>
+      <c r="G949" s="28"/>
     </row>
     <row r="950">
-      <c r="G950" s="27"/>
+      <c r="G950" s="28"/>
     </row>
     <row r="951">
-      <c r="G951" s="27"/>
+      <c r="G951" s="28"/>
     </row>
     <row r="952">
-      <c r="G952" s="27"/>
+      <c r="G952" s="28"/>
     </row>
     <row r="953">
-      <c r="G953" s="27"/>
+      <c r="G953" s="28"/>
     </row>
     <row r="954">
-      <c r="G954" s="27"/>
+      <c r="G954" s="28"/>
     </row>
     <row r="955">
-      <c r="G955" s="27"/>
+      <c r="G955" s="28"/>
     </row>
     <row r="956">
-      <c r="G956" s="27"/>
+      <c r="G956" s="28"/>
     </row>
     <row r="957">
-      <c r="G957" s="27"/>
+      <c r="G957" s="28"/>
     </row>
     <row r="958">
-      <c r="G958" s="27"/>
+      <c r="G958" s="28"/>
     </row>
     <row r="959">
-      <c r="G959" s="27"/>
+      <c r="G959" s="28"/>
     </row>
     <row r="960">
-      <c r="G960" s="27"/>
+      <c r="G960" s="28"/>
     </row>
     <row r="961">
-      <c r="G961" s="27"/>
+      <c r="G961" s="28"/>
     </row>
     <row r="962">
-      <c r="G962" s="27"/>
+      <c r="G962" s="28"/>
     </row>
     <row r="963">
-      <c r="G963" s="27"/>
+      <c r="G963" s="28"/>
     </row>
     <row r="964">
-      <c r="G964" s="27"/>
+      <c r="G964" s="28"/>
     </row>
     <row r="965">
-      <c r="G965" s="27"/>
+      <c r="G965" s="28"/>
     </row>
     <row r="966">
-      <c r="G966" s="27"/>
+      <c r="G966" s="28"/>
     </row>
     <row r="967">
-      <c r="G967" s="27"/>
+      <c r="G967" s="28"/>
     </row>
     <row r="968">
-      <c r="G968" s="27"/>
+      <c r="G968" s="28"/>
     </row>
     <row r="969">
-      <c r="G969" s="27"/>
+      <c r="G969" s="28"/>
     </row>
     <row r="970">
-      <c r="G970" s="27"/>
+      <c r="G970" s="28"/>
     </row>
     <row r="971">
-      <c r="G971" s="27"/>
+      <c r="G971" s="28"/>
     </row>
     <row r="972">
-      <c r="G972" s="27"/>
+      <c r="G972" s="28"/>
     </row>
     <row r="973">
-      <c r="G973" s="27"/>
+      <c r="G973" s="28"/>
     </row>
     <row r="974">
-      <c r="G974" s="27"/>
+      <c r="G974" s="28"/>
     </row>
     <row r="975">
-      <c r="G975" s="27"/>
+      <c r="G975" s="28"/>
     </row>
     <row r="976">
-      <c r="G976" s="27"/>
+      <c r="G976" s="28"/>
     </row>
     <row r="977">
-      <c r="G977" s="27"/>
+      <c r="G977" s="28"/>
     </row>
     <row r="978">
-      <c r="G978" s="27"/>
+      <c r="G978" s="28"/>
     </row>
     <row r="979">
-      <c r="G979" s="27"/>
+      <c r="G979" s="28"/>
     </row>
     <row r="980">
-      <c r="G980" s="27"/>
+      <c r="G980" s="28"/>
     </row>
     <row r="981">
-      <c r="G981" s="27"/>
+      <c r="G981" s="28"/>
     </row>
     <row r="982">
-      <c r="G982" s="27"/>
+      <c r="G982" s="28"/>
     </row>
     <row r="983">
-      <c r="G983" s="27"/>
+      <c r="G983" s="28"/>
     </row>
     <row r="984">
-      <c r="G984" s="27"/>
+      <c r="G984" s="28"/>
     </row>
     <row r="985">
-      <c r="G985" s="27"/>
+      <c r="G985" s="28"/>
     </row>
     <row r="986">
-      <c r="G986" s="27"/>
+      <c r="G986" s="28"/>
     </row>
     <row r="987">
-      <c r="G987" s="27"/>
+      <c r="G987" s="28"/>
     </row>
     <row r="988">
-      <c r="G988" s="27"/>
+      <c r="G988" s="28"/>
     </row>
     <row r="989">
-      <c r="G989" s="27"/>
+      <c r="G989" s="28"/>
     </row>
     <row r="990">
-      <c r="G990" s="27"/>
+      <c r="G990" s="28"/>
     </row>
     <row r="991">
-      <c r="G991" s="27"/>
+      <c r="G991" s="28"/>
     </row>
     <row r="992">
-      <c r="G992" s="27"/>
+      <c r="G992" s="28"/>
     </row>
     <row r="993">
-      <c r="G993" s="27"/>
+      <c r="G993" s="28"/>
     </row>
     <row r="994">
-      <c r="G994" s="27"/>
+      <c r="G994" s="28"/>
     </row>
     <row r="995">
-      <c r="G995" s="27"/>
+      <c r="G995" s="28"/>
     </row>
     <row r="996">
-      <c r="G996" s="27"/>
+      <c r="G996" s="28"/>
     </row>
     <row r="997">
-      <c r="G997" s="27"/>
+      <c r="G997" s="28"/>
     </row>
     <row r="998">
-      <c r="G998" s="27"/>
+      <c r="G998" s="28"/>
     </row>
     <row r="999">
-      <c r="G999" s="27"/>
+      <c r="G999" s="28"/>
     </row>
     <row r="1000">
-      <c r="G1000" s="27"/>
+      <c r="G1000" s="28"/>
     </row>
     <row r="1001">
-      <c r="G1001" s="27"/>
+      <c r="G1001" s="28"/>
     </row>
     <row r="1002">
-      <c r="G1002" s="27"/>
+      <c r="G1002" s="28"/>
     </row>
     <row r="1003">
-      <c r="G1003" s="27"/>
+      <c r="G1003" s="28"/>
     </row>
     <row r="1004">
-      <c r="G1004" s="27"/>
+      <c r="G1004" s="28"/>
     </row>
     <row r="1005">
-      <c r="G1005" s="27"/>
+      <c r="G1005" s="28"/>
     </row>
     <row r="1006">
-      <c r="G1006" s="27"/>
+      <c r="G1006" s="28"/>
     </row>
     <row r="1007">
-      <c r="G1007" s="27"/>
+      <c r="G1007" s="28"/>
     </row>
     <row r="1008">
-      <c r="G1008" s="27"/>
+      <c r="G1008" s="28"/>
     </row>
     <row r="1009">
-      <c r="G1009" s="27"/>
+      <c r="G1009" s="28"/>
     </row>
     <row r="1010">
-      <c r="G1010" s="27"/>
+      <c r="G1010" s="28"/>
     </row>
     <row r="1011">
-      <c r="G1011" s="27"/>
+      <c r="G1011" s="28"/>
     </row>
     <row r="1012">
-      <c r="G1012" s="27"/>
+      <c r="G1012" s="28"/>
     </row>
     <row r="1013">
-      <c r="G1013" s="27"/>
+      <c r="G1013" s="28"/>
     </row>
     <row r="1014">
-      <c r="G1014" s="27"/>
+      <c r="G1014" s="28"/>
     </row>
     <row r="1015">
-      <c r="G1015" s="27"/>
+      <c r="G1015" s="28"/>
     </row>
     <row r="1016">
-      <c r="G1016" s="27"/>
+      <c r="G1016" s="28"/>
     </row>
     <row r="1017">
-      <c r="G1017" s="27"/>
+      <c r="G1017" s="28"/>
     </row>
     <row r="1018">
-      <c r="G1018" s="27"/>
+      <c r="G1018" s="28"/>
     </row>
     <row r="1019">
-      <c r="G1019" s="27"/>
+      <c r="G1019" s="28"/>
     </row>
     <row r="1020">
-      <c r="G1020" s="27"/>
+      <c r="G1020" s="28"/>
     </row>
     <row r="1021">
-      <c r="G1021" s="27"/>
+      <c r="G1021" s="28"/>
     </row>
     <row r="1022">
-      <c r="G1022" s="27"/>
+      <c r="G1022" s="28"/>
     </row>
     <row r="1023">
-      <c r="G1023" s="27"/>
+      <c r="G1023" s="28"/>
     </row>
     <row r="1024">
-      <c r="G1024" s="27"/>
+      <c r="G1024" s="28"/>
     </row>
     <row r="1025">
-      <c r="G1025" s="27"/>
+      <c r="G1025" s="28"/>
     </row>
     <row r="1026">
-      <c r="G1026" s="27"/>
+      <c r="G1026" s="28"/>
     </row>
     <row r="1027">
-      <c r="G1027" s="27"/>
+      <c r="G1027" s="28"/>
     </row>
     <row r="1028">
-      <c r="G1028" s="27"/>
+      <c r="G1028" s="28"/>
+    </row>
+    <row r="1029">
+      <c r="G1029" s="28"/>
+    </row>
+    <row r="1030">
+      <c r="G1030" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10866,164 +10959,164 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="149.25" customHeight="1">
-      <c r="A2" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="C2" s="31">
+      <c r="A2" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="32">
         <v>1.0</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31">
+      <c r="A3" s="34"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32">
         <v>2.0</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="32" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31">
+      <c r="A4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32">
         <v>3.0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32">
+      <c r="A5" s="34"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33">
         <v>4.0</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="33"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="31"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7">
-      <c r="A7" s="33"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" ht="75.0" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" ht="90.0" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10">
-      <c r="A10" s="33"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11">
-      <c r="A11" s="33"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12">
-      <c r="A12" s="33"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13">
-      <c r="A13" s="33"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14">
-      <c r="A14" s="33"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16">
-      <c r="A16" s="33"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17">
-      <c r="A17" s="33"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18">
-      <c r="A18" s="33"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19">
-      <c r="A19" s="33"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20">
-      <c r="A20" s="33"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>

--- a/cuestionario_formr_lisa.xlsx
+++ b/cuestionario_formr_lisa.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="IKVVm1Sb81nAVYI7jx9q96E3x4Erw5a7DZGXz5V3Ly0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="JwDRdZEqRxaRCV3othGDPY3bxnyRI6Y/G0wBtpEzERs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="420">
   <si>
     <t>explanations</t>
   </si>
@@ -1186,33 +1186,39 @@
     <t># **Módulo 7: Caracterización sociodemográfica**</t>
   </si>
   <si>
+    <t>&gt; El último módulo se encuentra relacionado a preguntas de caracterización.</t>
+  </si>
+  <si>
     <t>label_align_left</t>
   </si>
   <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>info01</t>
+  </si>
+  <si>
+    <t>¿Cuál es su edad</t>
+  </si>
+  <si>
+    <t>info02</t>
+  </si>
+  <si>
+    <t>¿Con cuál género se indentifica?</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
     <t>text 20</t>
   </si>
   <si>
-    <t>info01</t>
-  </si>
-  <si>
-    <t>¿Cuál es su edad</t>
-  </si>
-  <si>
-    <t>info02</t>
-  </si>
-  <si>
-    <t>¿Con cuál género se indentifica?</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Otro</t>
-  </si>
-  <si>
     <t>info02_other</t>
   </si>
   <si>
@@ -1225,7 +1231,7 @@
     <t>info03</t>
   </si>
   <si>
-    <t>¿Cuántos años trabajando en investigación académica/científica?</t>
+    <t>¿Cuántos años lleva trabajando en investigación académica/científica?</t>
   </si>
   <si>
     <t>info04</t>
@@ -1262,6 +1268,27 @@
   </si>
   <si>
     <t>¿Cuál es su afiliación institucional?</t>
+  </si>
+  <si>
+    <t>submit_p9</t>
+  </si>
+  <si>
+    <t>label_align_center</t>
+  </si>
+  <si>
+    <t>### ¡Muchas gracias por su colaboración!</t>
+  </si>
+  <si>
+    <t>label_align_center answer_align_center</t>
+  </si>
+  <si>
+    <t>textarea</t>
+  </si>
+  <si>
+    <t>comentario</t>
+  </si>
+  <si>
+    <t>Sugerencias y comentarios</t>
   </si>
   <si>
     <t>Finalizar encuesta</t>
@@ -1281,7 +1308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -1309,6 +1336,11 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1358,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1443,23 +1475,29 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7312,24 +7350,14 @@
       <c r="Q151" s="15"/>
     </row>
     <row r="152">
-      <c r="A152" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B152" s="27" t="s">
+      <c r="A152" s="9"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="17" t="s">
         <v>381</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E152" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="F152" s="15"/>
-      <c r="G152" s="16" t="s">
-        <v>384</v>
       </c>
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
@@ -7347,30 +7375,24 @@
         <v>20</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>27</v>
+        <v>382</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>383</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F153" s="15"/>
       <c r="G153" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="H153" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="I153" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="J153" s="15" t="s">
-        <v>389</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
       <c r="K153" s="15"/>
       <c r="L153" s="15"/>
       <c r="M153" s="15"/>
@@ -7384,26 +7406,30 @@
         <v>20</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>382</v>
+        <v>27</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E154" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="F154" s="15"/>
+      <c r="G154" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="H154" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="I154" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="J154" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="F154" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="G154" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
-      <c r="J154" s="15"/>
       <c r="K154" s="15"/>
       <c r="L154" s="15"/>
       <c r="M154" s="15"/>
@@ -7417,18 +7443,20 @@
         <v>20</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E155" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="F155" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="F155" s="15"/>
       <c r="G155" s="16" t="s">
         <v>394</v>
       </c>
@@ -7448,10 +7476,10 @@
         <v>20</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>27</v>
+        <v>382</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>383</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>22</v>
@@ -7460,27 +7488,15 @@
         <v>395</v>
       </c>
       <c r="F156" s="15"/>
-      <c r="G156" s="16" t="s">
+      <c r="G156" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="H156" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="I156" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="J156" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="K156" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="L156" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="M156" s="15" t="s">
-        <v>389</v>
-      </c>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="15"/>
       <c r="N156" s="15"/>
       <c r="O156" s="15"/>
       <c r="P156" s="15"/>
@@ -7491,29 +7507,39 @@
         <v>20</v>
       </c>
       <c r="B157" s="27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>382</v>
+        <v>27</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E157" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="F157" s="15"/>
+      <c r="G157" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="H157" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="I157" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="J157" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="K157" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="F157" s="15" t="s">
+      <c r="L157" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="G157" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="15"/>
-      <c r="L157" s="15"/>
-      <c r="M157" s="15"/>
+      <c r="M157" s="15" t="s">
+        <v>390</v>
+      </c>
       <c r="N157" s="15"/>
       <c r="O157" s="15"/>
       <c r="P157" s="15"/>
@@ -7524,18 +7550,20 @@
         <v>20</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E158" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="F158" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="F158" s="15"/>
       <c r="G158" s="16" t="s">
         <v>406</v>
       </c>
@@ -7555,20 +7583,20 @@
         <v>20</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>36</v>
+        <v>391</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E159" s="15" t="s">
-        <v>36</v>
+        <v>407</v>
       </c>
       <c r="F159" s="15"/>
       <c r="G159" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H159" s="15"/>
       <c r="I159" s="15"/>
@@ -7582,3353 +7610,3469 @@
       <c r="Q159" s="15"/>
     </row>
     <row r="160">
-      <c r="A160" s="28"/>
-      <c r="B160" s="28"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="28"/>
-      <c r="E160" s="28"/>
-      <c r="F160" s="28"/>
-      <c r="G160" s="28"/>
-      <c r="H160" s="28"/>
-      <c r="I160" s="28"/>
-      <c r="J160" s="28"/>
-      <c r="K160" s="28"/>
-      <c r="L160" s="28"/>
-      <c r="M160" s="28"/>
-      <c r="N160" s="28"/>
-      <c r="O160" s="28"/>
-      <c r="P160" s="28"/>
-      <c r="Q160" s="28"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E160" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="F160" s="15"/>
+      <c r="G160" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15"/>
+      <c r="N160" s="15"/>
+      <c r="O160" s="15"/>
+      <c r="P160" s="15"/>
+      <c r="Q160" s="15"/>
     </row>
     <row r="161">
-      <c r="A161" s="28"/>
-      <c r="B161" s="28"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="28"/>
-      <c r="G161" s="28"/>
-      <c r="H161" s="28"/>
-      <c r="I161" s="28"/>
-      <c r="J161" s="28"/>
-      <c r="K161" s="28"/>
-      <c r="L161" s="28"/>
-      <c r="M161" s="28"/>
-      <c r="N161" s="28"/>
-      <c r="O161" s="28"/>
-      <c r="P161" s="28"/>
-      <c r="Q161" s="28"/>
+      <c r="A161" s="9"/>
+      <c r="B161" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
+      <c r="N161" s="15"/>
+      <c r="O161" s="15"/>
+      <c r="P161" s="15"/>
+      <c r="Q161" s="15"/>
     </row>
     <row r="162">
-      <c r="A162" s="28"/>
-      <c r="B162" s="28"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
-      <c r="E162" s="28"/>
-      <c r="F162" s="28"/>
-      <c r="G162" s="28"/>
-      <c r="H162" s="28"/>
-      <c r="I162" s="28"/>
-      <c r="J162" s="28"/>
-      <c r="K162" s="28"/>
-      <c r="L162" s="28"/>
-      <c r="M162" s="28"/>
-      <c r="N162" s="28"/>
-      <c r="O162" s="28"/>
-      <c r="P162" s="28"/>
-      <c r="Q162" s="28"/>
+      <c r="A162" s="9"/>
+      <c r="B162" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="F162" s="15"/>
+      <c r="G162" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="15"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="15"/>
+      <c r="N162" s="15"/>
+      <c r="O162" s="15"/>
+      <c r="P162" s="15"/>
+      <c r="Q162" s="15"/>
     </row>
     <row r="163">
-      <c r="A163" s="28"/>
-      <c r="B163" s="28"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="28"/>
-      <c r="E163" s="28"/>
-      <c r="F163" s="28"/>
-      <c r="G163" s="28"/>
-      <c r="H163" s="28"/>
-      <c r="I163" s="28"/>
-      <c r="J163" s="28"/>
-      <c r="K163" s="28"/>
-      <c r="L163" s="28"/>
-      <c r="M163" s="28"/>
-      <c r="N163" s="28"/>
-      <c r="O163" s="28"/>
-      <c r="P163" s="28"/>
-      <c r="Q163" s="28"/>
+      <c r="A163" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E163" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163" s="15"/>
+      <c r="G163" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
+      <c r="N163" s="15"/>
+      <c r="O163" s="15"/>
+      <c r="P163" s="15"/>
+      <c r="Q163" s="15"/>
     </row>
     <row r="164">
-      <c r="A164" s="28"/>
-      <c r="B164" s="28"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="28"/>
-      <c r="E164" s="28"/>
-      <c r="F164" s="28"/>
-      <c r="G164" s="28"/>
-      <c r="H164" s="28"/>
-      <c r="I164" s="28"/>
-      <c r="J164" s="28"/>
-      <c r="K164" s="28"/>
-      <c r="L164" s="28"/>
-      <c r="M164" s="28"/>
-      <c r="N164" s="28"/>
-      <c r="O164" s="28"/>
-      <c r="P164" s="28"/>
-      <c r="Q164" s="28"/>
+      <c r="A164" s="30"/>
+      <c r="B164" s="30"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="30"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="30"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
+      <c r="K164" s="30"/>
+      <c r="L164" s="30"/>
+      <c r="M164" s="30"/>
+      <c r="N164" s="30"/>
+      <c r="O164" s="30"/>
+      <c r="P164" s="30"/>
+      <c r="Q164" s="30"/>
     </row>
     <row r="165">
-      <c r="A165" s="28"/>
-      <c r="B165" s="28"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="28"/>
-      <c r="E165" s="28"/>
-      <c r="F165" s="28"/>
-      <c r="G165" s="28"/>
-      <c r="H165" s="28"/>
-      <c r="I165" s="28"/>
-      <c r="J165" s="28"/>
-      <c r="K165" s="28"/>
-      <c r="L165" s="28"/>
-      <c r="M165" s="28"/>
-      <c r="N165" s="28"/>
-      <c r="O165" s="28"/>
-      <c r="P165" s="28"/>
-      <c r="Q165" s="28"/>
+      <c r="A165" s="30"/>
+      <c r="B165" s="30"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="30"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="30"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="30"/>
+      <c r="K165" s="30"/>
+      <c r="L165" s="30"/>
+      <c r="M165" s="30"/>
+      <c r="N165" s="30"/>
+      <c r="O165" s="30"/>
+      <c r="P165" s="30"/>
+      <c r="Q165" s="30"/>
     </row>
     <row r="166">
-      <c r="A166" s="28"/>
-      <c r="B166" s="28"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
-      <c r="E166" s="28"/>
-      <c r="F166" s="28"/>
-      <c r="G166" s="28"/>
-      <c r="H166" s="28"/>
-      <c r="I166" s="28"/>
-      <c r="J166" s="28"/>
-      <c r="K166" s="28"/>
-      <c r="L166" s="28"/>
-      <c r="M166" s="28"/>
-      <c r="N166" s="28"/>
-      <c r="O166" s="28"/>
-      <c r="P166" s="28"/>
-      <c r="Q166" s="28"/>
+      <c r="A166" s="30"/>
+      <c r="B166" s="30"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="30"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="30"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="30"/>
+      <c r="K166" s="30"/>
+      <c r="L166" s="30"/>
+      <c r="M166" s="30"/>
+      <c r="N166" s="30"/>
+      <c r="O166" s="30"/>
+      <c r="P166" s="30"/>
+      <c r="Q166" s="30"/>
     </row>
     <row r="167">
-      <c r="A167" s="28"/>
-      <c r="B167" s="28"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
-      <c r="E167" s="28"/>
-      <c r="F167" s="28"/>
-      <c r="G167" s="28"/>
-      <c r="H167" s="28"/>
-      <c r="I167" s="28"/>
-      <c r="J167" s="28"/>
-      <c r="K167" s="28"/>
-      <c r="L167" s="28"/>
-      <c r="M167" s="28"/>
-      <c r="N167" s="28"/>
-      <c r="O167" s="28"/>
-      <c r="P167" s="28"/>
-      <c r="Q167" s="28"/>
+      <c r="A167" s="30"/>
+      <c r="B167" s="30"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="30"/>
+      <c r="G167" s="30"/>
+      <c r="H167" s="30"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="30"/>
+      <c r="K167" s="30"/>
+      <c r="L167" s="30"/>
+      <c r="M167" s="30"/>
+      <c r="N167" s="30"/>
+      <c r="O167" s="30"/>
+      <c r="P167" s="30"/>
+      <c r="Q167" s="30"/>
     </row>
     <row r="168">
-      <c r="A168" s="28"/>
-      <c r="B168" s="28"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="28"/>
-      <c r="E168" s="28"/>
-      <c r="F168" s="28"/>
-      <c r="G168" s="28"/>
-      <c r="H168" s="28"/>
-      <c r="I168" s="28"/>
-      <c r="J168" s="28"/>
-      <c r="K168" s="28"/>
-      <c r="L168" s="28"/>
-      <c r="M168" s="28"/>
-      <c r="N168" s="28"/>
-      <c r="O168" s="28"/>
-      <c r="P168" s="28"/>
-      <c r="Q168" s="28"/>
+      <c r="A168" s="30"/>
+      <c r="B168" s="30"/>
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="30"/>
+      <c r="F168" s="30"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="30"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
+      <c r="K168" s="30"/>
+      <c r="L168" s="30"/>
+      <c r="M168" s="30"/>
+      <c r="N168" s="30"/>
+      <c r="O168" s="30"/>
+      <c r="P168" s="30"/>
+      <c r="Q168" s="30"/>
     </row>
     <row r="169">
-      <c r="A169" s="28"/>
-      <c r="B169" s="28"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="28"/>
-      <c r="G169" s="28"/>
-      <c r="H169" s="28"/>
-      <c r="I169" s="28"/>
-      <c r="J169" s="28"/>
-      <c r="K169" s="28"/>
-      <c r="L169" s="28"/>
-      <c r="M169" s="28"/>
-      <c r="N169" s="28"/>
-      <c r="O169" s="28"/>
-      <c r="P169" s="28"/>
-      <c r="Q169" s="28"/>
+      <c r="A169" s="30"/>
+      <c r="B169" s="30"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="30"/>
+      <c r="G169" s="30"/>
+      <c r="H169" s="30"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="30"/>
+      <c r="K169" s="30"/>
+      <c r="L169" s="30"/>
+      <c r="M169" s="30"/>
+      <c r="N169" s="30"/>
+      <c r="O169" s="30"/>
+      <c r="P169" s="30"/>
+      <c r="Q169" s="30"/>
     </row>
     <row r="170">
-      <c r="A170" s="28"/>
-      <c r="B170" s="28"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
-      <c r="E170" s="28"/>
-      <c r="F170" s="28"/>
-      <c r="G170" s="28"/>
-      <c r="H170" s="28"/>
-      <c r="I170" s="28"/>
-      <c r="J170" s="28"/>
-      <c r="K170" s="28"/>
-      <c r="L170" s="28"/>
-      <c r="M170" s="28"/>
-      <c r="N170" s="28"/>
-      <c r="O170" s="28"/>
-      <c r="P170" s="28"/>
-      <c r="Q170" s="28"/>
+      <c r="A170" s="30"/>
+      <c r="B170" s="30"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="30"/>
+      <c r="G170" s="30"/>
+      <c r="H170" s="30"/>
+      <c r="I170" s="30"/>
+      <c r="J170" s="30"/>
+      <c r="K170" s="30"/>
+      <c r="L170" s="30"/>
+      <c r="M170" s="30"/>
+      <c r="N170" s="30"/>
+      <c r="O170" s="30"/>
+      <c r="P170" s="30"/>
+      <c r="Q170" s="30"/>
     </row>
     <row r="171">
-      <c r="A171" s="28"/>
-      <c r="B171" s="28"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
-      <c r="E171" s="28"/>
-      <c r="F171" s="28"/>
-      <c r="G171" s="28"/>
-      <c r="H171" s="28"/>
-      <c r="I171" s="28"/>
-      <c r="J171" s="28"/>
-      <c r="K171" s="28"/>
-      <c r="L171" s="28"/>
-      <c r="M171" s="28"/>
-      <c r="N171" s="28"/>
-      <c r="O171" s="28"/>
-      <c r="P171" s="28"/>
-      <c r="Q171" s="28"/>
+      <c r="A171" s="30"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="30"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
+      <c r="K171" s="30"/>
+      <c r="L171" s="30"/>
+      <c r="M171" s="30"/>
+      <c r="N171" s="30"/>
+      <c r="O171" s="30"/>
+      <c r="P171" s="30"/>
+      <c r="Q171" s="30"/>
     </row>
     <row r="172">
-      <c r="A172" s="28"/>
-      <c r="B172" s="28"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="28"/>
-      <c r="F172" s="28"/>
-      <c r="G172" s="28"/>
-      <c r="H172" s="28"/>
-      <c r="I172" s="28"/>
-      <c r="J172" s="28"/>
-      <c r="K172" s="28"/>
-      <c r="L172" s="28"/>
-      <c r="M172" s="28"/>
-      <c r="N172" s="28"/>
-      <c r="O172" s="28"/>
-      <c r="P172" s="28"/>
-      <c r="Q172" s="28"/>
+      <c r="A172" s="30"/>
+      <c r="B172" s="30"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="30"/>
+      <c r="G172" s="30"/>
+      <c r="H172" s="30"/>
+      <c r="I172" s="30"/>
+      <c r="J172" s="30"/>
+      <c r="K172" s="30"/>
+      <c r="L172" s="30"/>
+      <c r="M172" s="30"/>
+      <c r="N172" s="30"/>
+      <c r="O172" s="30"/>
+      <c r="P172" s="30"/>
+      <c r="Q172" s="30"/>
     </row>
     <row r="173">
-      <c r="A173" s="28"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="28"/>
-      <c r="G173" s="28"/>
-      <c r="H173" s="28"/>
-      <c r="I173" s="28"/>
-      <c r="J173" s="28"/>
-      <c r="K173" s="28"/>
-      <c r="L173" s="28"/>
-      <c r="M173" s="28"/>
-      <c r="N173" s="28"/>
-      <c r="O173" s="28"/>
-      <c r="P173" s="28"/>
-      <c r="Q173" s="28"/>
+      <c r="A173" s="30"/>
+      <c r="B173" s="30"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="30"/>
+      <c r="G173" s="30"/>
+      <c r="H173" s="30"/>
+      <c r="I173" s="30"/>
+      <c r="J173" s="30"/>
+      <c r="K173" s="30"/>
+      <c r="L173" s="30"/>
+      <c r="M173" s="30"/>
+      <c r="N173" s="30"/>
+      <c r="O173" s="30"/>
+      <c r="P173" s="30"/>
+      <c r="Q173" s="30"/>
     </row>
     <row r="174">
-      <c r="A174" s="28"/>
-      <c r="B174" s="28"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
-      <c r="E174" s="28"/>
-      <c r="F174" s="28"/>
-      <c r="G174" s="28"/>
-      <c r="H174" s="28"/>
-      <c r="I174" s="28"/>
-      <c r="J174" s="28"/>
-      <c r="K174" s="28"/>
-      <c r="L174" s="28"/>
-      <c r="M174" s="28"/>
-      <c r="N174" s="28"/>
-      <c r="O174" s="28"/>
-      <c r="P174" s="28"/>
-      <c r="Q174" s="28"/>
+      <c r="A174" s="30"/>
+      <c r="B174" s="30"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="30"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="30"/>
+      <c r="G174" s="30"/>
+      <c r="H174" s="30"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30"/>
+      <c r="K174" s="30"/>
+      <c r="L174" s="30"/>
+      <c r="M174" s="30"/>
+      <c r="N174" s="30"/>
+      <c r="O174" s="30"/>
+      <c r="P174" s="30"/>
+      <c r="Q174" s="30"/>
     </row>
     <row r="175">
-      <c r="A175" s="28"/>
-      <c r="B175" s="28"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="28"/>
-      <c r="E175" s="28"/>
-      <c r="F175" s="28"/>
-      <c r="G175" s="28"/>
-      <c r="H175" s="28"/>
-      <c r="I175" s="28"/>
-      <c r="J175" s="28"/>
-      <c r="K175" s="28"/>
-      <c r="L175" s="28"/>
-      <c r="M175" s="28"/>
-      <c r="N175" s="28"/>
-      <c r="O175" s="28"/>
-      <c r="P175" s="28"/>
-      <c r="Q175" s="28"/>
+      <c r="A175" s="30"/>
+      <c r="B175" s="30"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="30"/>
+      <c r="G175" s="30"/>
+      <c r="H175" s="30"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="30"/>
+      <c r="K175" s="30"/>
+      <c r="L175" s="30"/>
+      <c r="M175" s="30"/>
+      <c r="N175" s="30"/>
+      <c r="O175" s="30"/>
+      <c r="P175" s="30"/>
+      <c r="Q175" s="30"/>
     </row>
     <row r="176">
-      <c r="A176" s="28"/>
-      <c r="B176" s="28"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="28"/>
-      <c r="E176" s="28"/>
-      <c r="F176" s="28"/>
-      <c r="G176" s="28"/>
-      <c r="H176" s="28"/>
-      <c r="I176" s="28"/>
-      <c r="J176" s="28"/>
-      <c r="K176" s="28"/>
-      <c r="L176" s="28"/>
-      <c r="M176" s="28"/>
-      <c r="N176" s="28"/>
-      <c r="O176" s="28"/>
-      <c r="P176" s="28"/>
-      <c r="Q176" s="28"/>
+      <c r="A176" s="30"/>
+      <c r="B176" s="30"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="30"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="30"/>
+      <c r="G176" s="30"/>
+      <c r="H176" s="30"/>
+      <c r="I176" s="30"/>
+      <c r="J176" s="30"/>
+      <c r="K176" s="30"/>
+      <c r="L176" s="30"/>
+      <c r="M176" s="30"/>
+      <c r="N176" s="30"/>
+      <c r="O176" s="30"/>
+      <c r="P176" s="30"/>
+      <c r="Q176" s="30"/>
     </row>
     <row r="177">
-      <c r="A177" s="28"/>
-      <c r="B177" s="28"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="28"/>
-      <c r="G177" s="28"/>
-      <c r="H177" s="28"/>
-      <c r="I177" s="28"/>
-      <c r="J177" s="28"/>
-      <c r="K177" s="28"/>
-      <c r="L177" s="28"/>
-      <c r="M177" s="28"/>
-      <c r="N177" s="28"/>
-      <c r="O177" s="28"/>
-      <c r="P177" s="28"/>
-      <c r="Q177" s="28"/>
+      <c r="A177" s="30"/>
+      <c r="B177" s="30"/>
+      <c r="C177" s="30"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="30"/>
+      <c r="G177" s="30"/>
+      <c r="H177" s="30"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="30"/>
+      <c r="K177" s="30"/>
+      <c r="L177" s="30"/>
+      <c r="M177" s="30"/>
+      <c r="N177" s="30"/>
+      <c r="O177" s="30"/>
+      <c r="P177" s="30"/>
+      <c r="Q177" s="30"/>
     </row>
     <row r="178">
-      <c r="A178" s="28"/>
-      <c r="B178" s="28"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="28"/>
-      <c r="G178" s="28"/>
-      <c r="H178" s="28"/>
-      <c r="I178" s="28"/>
-      <c r="J178" s="28"/>
-      <c r="K178" s="28"/>
-      <c r="L178" s="28"/>
-      <c r="M178" s="28"/>
-      <c r="N178" s="28"/>
-      <c r="O178" s="28"/>
-      <c r="P178" s="28"/>
-      <c r="Q178" s="28"/>
+      <c r="A178" s="30"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="30"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="30"/>
+      <c r="G178" s="30"/>
+      <c r="H178" s="30"/>
+      <c r="I178" s="30"/>
+      <c r="J178" s="30"/>
+      <c r="K178" s="30"/>
+      <c r="L178" s="30"/>
+      <c r="M178" s="30"/>
+      <c r="N178" s="30"/>
+      <c r="O178" s="30"/>
+      <c r="P178" s="30"/>
+      <c r="Q178" s="30"/>
     </row>
     <row r="179">
-      <c r="A179" s="28"/>
-      <c r="B179" s="28"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="28"/>
-      <c r="G179" s="28"/>
-      <c r="H179" s="28"/>
-      <c r="I179" s="28"/>
-      <c r="J179" s="28"/>
-      <c r="K179" s="28"/>
-      <c r="L179" s="28"/>
-      <c r="M179" s="28"/>
-      <c r="N179" s="28"/>
-      <c r="O179" s="28"/>
-      <c r="P179" s="28"/>
-      <c r="Q179" s="28"/>
+      <c r="A179" s="30"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="30"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="30"/>
+      <c r="G179" s="30"/>
+      <c r="H179" s="30"/>
+      <c r="I179" s="30"/>
+      <c r="J179" s="30"/>
+      <c r="K179" s="30"/>
+      <c r="L179" s="30"/>
+      <c r="M179" s="30"/>
+      <c r="N179" s="30"/>
+      <c r="O179" s="30"/>
+      <c r="P179" s="30"/>
+      <c r="Q179" s="30"/>
     </row>
     <row r="180">
-      <c r="A180" s="28"/>
-      <c r="B180" s="28"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
-      <c r="E180" s="28"/>
-      <c r="F180" s="28"/>
-      <c r="G180" s="28"/>
-      <c r="H180" s="28"/>
-      <c r="I180" s="28"/>
-      <c r="J180" s="28"/>
-      <c r="K180" s="28"/>
-      <c r="L180" s="28"/>
-      <c r="M180" s="28"/>
-      <c r="N180" s="28"/>
-      <c r="O180" s="28"/>
-      <c r="P180" s="28"/>
-      <c r="Q180" s="28"/>
+      <c r="A180" s="30"/>
+      <c r="B180" s="30"/>
+      <c r="C180" s="30"/>
+      <c r="D180" s="30"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="30"/>
+      <c r="G180" s="30"/>
+      <c r="H180" s="30"/>
+      <c r="I180" s="30"/>
+      <c r="J180" s="30"/>
+      <c r="K180" s="30"/>
+      <c r="L180" s="30"/>
+      <c r="M180" s="30"/>
+      <c r="N180" s="30"/>
+      <c r="O180" s="30"/>
+      <c r="P180" s="30"/>
+      <c r="Q180" s="30"/>
     </row>
     <row r="181">
-      <c r="A181" s="28"/>
-      <c r="B181" s="28"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
-      <c r="F181" s="28"/>
-      <c r="G181" s="28"/>
-      <c r="H181" s="28"/>
-      <c r="I181" s="28"/>
-      <c r="J181" s="28"/>
-      <c r="K181" s="28"/>
-      <c r="L181" s="28"/>
-      <c r="M181" s="28"/>
-      <c r="N181" s="28"/>
-      <c r="O181" s="28"/>
-      <c r="P181" s="28"/>
-      <c r="Q181" s="28"/>
+      <c r="A181" s="30"/>
+      <c r="B181" s="30"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="30"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="30"/>
+      <c r="G181" s="30"/>
+      <c r="H181" s="30"/>
+      <c r="I181" s="30"/>
+      <c r="J181" s="30"/>
+      <c r="K181" s="30"/>
+      <c r="L181" s="30"/>
+      <c r="M181" s="30"/>
+      <c r="N181" s="30"/>
+      <c r="O181" s="30"/>
+      <c r="P181" s="30"/>
+      <c r="Q181" s="30"/>
     </row>
     <row r="182">
-      <c r="A182" s="28"/>
-      <c r="B182" s="28"/>
-      <c r="C182" s="28"/>
-      <c r="D182" s="28"/>
-      <c r="E182" s="28"/>
-      <c r="F182" s="28"/>
-      <c r="G182" s="28"/>
-      <c r="H182" s="28"/>
-      <c r="I182" s="28"/>
-      <c r="J182" s="28"/>
-      <c r="K182" s="28"/>
-      <c r="L182" s="28"/>
-      <c r="M182" s="28"/>
-      <c r="N182" s="28"/>
-      <c r="O182" s="28"/>
-      <c r="P182" s="28"/>
-      <c r="Q182" s="28"/>
+      <c r="A182" s="30"/>
+      <c r="B182" s="30"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="30"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="30"/>
+      <c r="G182" s="30"/>
+      <c r="H182" s="30"/>
+      <c r="I182" s="30"/>
+      <c r="J182" s="30"/>
+      <c r="K182" s="30"/>
+      <c r="L182" s="30"/>
+      <c r="M182" s="30"/>
+      <c r="N182" s="30"/>
+      <c r="O182" s="30"/>
+      <c r="P182" s="30"/>
+      <c r="Q182" s="30"/>
     </row>
     <row r="183">
-      <c r="A183" s="28"/>
-      <c r="B183" s="28"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="28"/>
-      <c r="E183" s="28"/>
-      <c r="F183" s="28"/>
-      <c r="G183" s="28"/>
-      <c r="H183" s="28"/>
-      <c r="I183" s="28"/>
-      <c r="J183" s="28"/>
-      <c r="K183" s="28"/>
-      <c r="L183" s="28"/>
-      <c r="M183" s="28"/>
-      <c r="N183" s="28"/>
-      <c r="O183" s="28"/>
-      <c r="P183" s="28"/>
-      <c r="Q183" s="28"/>
+      <c r="A183" s="30"/>
+      <c r="B183" s="30"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="30"/>
+      <c r="E183" s="30"/>
+      <c r="F183" s="30"/>
+      <c r="G183" s="30"/>
+      <c r="H183" s="30"/>
+      <c r="I183" s="30"/>
+      <c r="J183" s="30"/>
+      <c r="K183" s="30"/>
+      <c r="L183" s="30"/>
+      <c r="M183" s="30"/>
+      <c r="N183" s="30"/>
+      <c r="O183" s="30"/>
+      <c r="P183" s="30"/>
+      <c r="Q183" s="30"/>
     </row>
     <row r="184">
-      <c r="A184" s="28"/>
-      <c r="B184" s="28"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28"/>
-      <c r="F184" s="28"/>
-      <c r="G184" s="28"/>
-      <c r="H184" s="28"/>
-      <c r="I184" s="28"/>
-      <c r="J184" s="28"/>
-      <c r="K184" s="28"/>
-      <c r="L184" s="28"/>
-      <c r="M184" s="28"/>
-      <c r="N184" s="28"/>
-      <c r="O184" s="28"/>
-      <c r="P184" s="28"/>
-      <c r="Q184" s="28"/>
+      <c r="A184" s="30"/>
+      <c r="B184" s="30"/>
+      <c r="C184" s="30"/>
+      <c r="D184" s="30"/>
+      <c r="E184" s="30"/>
+      <c r="F184" s="30"/>
+      <c r="G184" s="30"/>
+      <c r="H184" s="30"/>
+      <c r="I184" s="30"/>
+      <c r="J184" s="30"/>
+      <c r="K184" s="30"/>
+      <c r="L184" s="30"/>
+      <c r="M184" s="30"/>
+      <c r="N184" s="30"/>
+      <c r="O184" s="30"/>
+      <c r="P184" s="30"/>
+      <c r="Q184" s="30"/>
     </row>
     <row r="185">
-      <c r="A185" s="28"/>
-      <c r="B185" s="28"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28"/>
-      <c r="E185" s="28"/>
-      <c r="F185" s="28"/>
-      <c r="G185" s="28"/>
-      <c r="H185" s="28"/>
-      <c r="I185" s="28"/>
-      <c r="J185" s="28"/>
-      <c r="K185" s="28"/>
-      <c r="L185" s="28"/>
-      <c r="M185" s="28"/>
-      <c r="N185" s="28"/>
-      <c r="O185" s="28"/>
-      <c r="P185" s="28"/>
-      <c r="Q185" s="28"/>
+      <c r="A185" s="30"/>
+      <c r="B185" s="30"/>
+      <c r="C185" s="30"/>
+      <c r="D185" s="30"/>
+      <c r="E185" s="30"/>
+      <c r="F185" s="30"/>
+      <c r="G185" s="30"/>
+      <c r="H185" s="30"/>
+      <c r="I185" s="30"/>
+      <c r="J185" s="30"/>
+      <c r="K185" s="30"/>
+      <c r="L185" s="30"/>
+      <c r="M185" s="30"/>
+      <c r="N185" s="30"/>
+      <c r="O185" s="30"/>
+      <c r="P185" s="30"/>
+      <c r="Q185" s="30"/>
     </row>
     <row r="186">
-      <c r="A186" s="28"/>
-      <c r="B186" s="28"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="28"/>
-      <c r="E186" s="28"/>
-      <c r="F186" s="28"/>
-      <c r="G186" s="28"/>
-      <c r="H186" s="28"/>
-      <c r="I186" s="28"/>
-      <c r="J186" s="28"/>
-      <c r="K186" s="28"/>
-      <c r="L186" s="28"/>
-      <c r="M186" s="28"/>
-      <c r="N186" s="28"/>
-      <c r="O186" s="28"/>
-      <c r="P186" s="28"/>
-      <c r="Q186" s="28"/>
+      <c r="A186" s="30"/>
+      <c r="B186" s="30"/>
+      <c r="C186" s="30"/>
+      <c r="D186" s="30"/>
+      <c r="E186" s="30"/>
+      <c r="F186" s="30"/>
+      <c r="G186" s="30"/>
+      <c r="H186" s="30"/>
+      <c r="I186" s="30"/>
+      <c r="J186" s="30"/>
+      <c r="K186" s="30"/>
+      <c r="L186" s="30"/>
+      <c r="M186" s="30"/>
+      <c r="N186" s="30"/>
+      <c r="O186" s="30"/>
+      <c r="P186" s="30"/>
+      <c r="Q186" s="30"/>
     </row>
     <row r="187">
-      <c r="A187" s="28"/>
-      <c r="B187" s="28"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
-      <c r="E187" s="28"/>
-      <c r="F187" s="28"/>
-      <c r="G187" s="28"/>
-      <c r="H187" s="28"/>
-      <c r="I187" s="28"/>
-      <c r="J187" s="28"/>
-      <c r="K187" s="28"/>
-      <c r="L187" s="28"/>
-      <c r="M187" s="28"/>
-      <c r="N187" s="28"/>
-      <c r="O187" s="28"/>
-      <c r="P187" s="28"/>
-      <c r="Q187" s="28"/>
+      <c r="A187" s="30"/>
+      <c r="B187" s="30"/>
+      <c r="C187" s="30"/>
+      <c r="D187" s="30"/>
+      <c r="E187" s="30"/>
+      <c r="F187" s="30"/>
+      <c r="G187" s="30"/>
+      <c r="H187" s="30"/>
+      <c r="I187" s="30"/>
+      <c r="J187" s="30"/>
+      <c r="K187" s="30"/>
+      <c r="L187" s="30"/>
+      <c r="M187" s="30"/>
+      <c r="N187" s="30"/>
+      <c r="O187" s="30"/>
+      <c r="P187" s="30"/>
+      <c r="Q187" s="30"/>
     </row>
     <row r="188">
-      <c r="A188" s="28"/>
-      <c r="B188" s="28"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="28"/>
-      <c r="E188" s="28"/>
-      <c r="F188" s="28"/>
-      <c r="G188" s="28"/>
-      <c r="H188" s="28"/>
-      <c r="I188" s="28"/>
-      <c r="J188" s="28"/>
-      <c r="K188" s="28"/>
-      <c r="L188" s="28"/>
-      <c r="M188" s="28"/>
-      <c r="N188" s="28"/>
-      <c r="O188" s="28"/>
-      <c r="P188" s="28"/>
-      <c r="Q188" s="28"/>
+      <c r="A188" s="30"/>
+      <c r="B188" s="30"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="30"/>
+      <c r="E188" s="30"/>
+      <c r="F188" s="30"/>
+      <c r="G188" s="30"/>
+      <c r="H188" s="30"/>
+      <c r="I188" s="30"/>
+      <c r="J188" s="30"/>
+      <c r="K188" s="30"/>
+      <c r="L188" s="30"/>
+      <c r="M188" s="30"/>
+      <c r="N188" s="30"/>
+      <c r="O188" s="30"/>
+      <c r="P188" s="30"/>
+      <c r="Q188" s="30"/>
     </row>
     <row r="189">
-      <c r="A189" s="28"/>
-      <c r="B189" s="28"/>
-      <c r="C189" s="28"/>
-      <c r="D189" s="28"/>
-      <c r="E189" s="28"/>
-      <c r="F189" s="28"/>
-      <c r="G189" s="28"/>
-      <c r="H189" s="28"/>
-      <c r="I189" s="28"/>
-      <c r="J189" s="28"/>
-      <c r="K189" s="28"/>
-      <c r="L189" s="28"/>
-      <c r="M189" s="28"/>
-      <c r="N189" s="28"/>
-      <c r="O189" s="28"/>
-      <c r="P189" s="28"/>
-      <c r="Q189" s="28"/>
+      <c r="A189" s="30"/>
+      <c r="B189" s="30"/>
+      <c r="C189" s="30"/>
+      <c r="D189" s="30"/>
+      <c r="E189" s="30"/>
+      <c r="F189" s="30"/>
+      <c r="G189" s="30"/>
+      <c r="H189" s="30"/>
+      <c r="I189" s="30"/>
+      <c r="J189" s="30"/>
+      <c r="K189" s="30"/>
+      <c r="L189" s="30"/>
+      <c r="M189" s="30"/>
+      <c r="N189" s="30"/>
+      <c r="O189" s="30"/>
+      <c r="P189" s="30"/>
+      <c r="Q189" s="30"/>
     </row>
     <row r="190">
-      <c r="A190" s="28"/>
-      <c r="B190" s="28"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
-      <c r="E190" s="28"/>
-      <c r="F190" s="28"/>
-      <c r="G190" s="28"/>
-      <c r="H190" s="28"/>
-      <c r="I190" s="28"/>
-      <c r="J190" s="28"/>
-      <c r="K190" s="28"/>
-      <c r="L190" s="28"/>
-      <c r="M190" s="28"/>
-      <c r="N190" s="28"/>
-      <c r="O190" s="28"/>
-      <c r="P190" s="28"/>
-      <c r="Q190" s="28"/>
+      <c r="A190" s="30"/>
+      <c r="B190" s="30"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="30"/>
+      <c r="E190" s="30"/>
+      <c r="F190" s="30"/>
+      <c r="G190" s="30"/>
+      <c r="H190" s="30"/>
+      <c r="I190" s="30"/>
+      <c r="J190" s="30"/>
+      <c r="K190" s="30"/>
+      <c r="L190" s="30"/>
+      <c r="M190" s="30"/>
+      <c r="N190" s="30"/>
+      <c r="O190" s="30"/>
+      <c r="P190" s="30"/>
+      <c r="Q190" s="30"/>
     </row>
     <row r="191">
-      <c r="A191" s="28"/>
-      <c r="B191" s="28"/>
-      <c r="C191" s="28"/>
-      <c r="D191" s="28"/>
-      <c r="E191" s="28"/>
-      <c r="F191" s="28"/>
-      <c r="G191" s="28"/>
-      <c r="H191" s="28"/>
-      <c r="I191" s="28"/>
-      <c r="J191" s="28"/>
-      <c r="K191" s="28"/>
-      <c r="L191" s="28"/>
-      <c r="M191" s="28"/>
-      <c r="N191" s="28"/>
-      <c r="O191" s="28"/>
-      <c r="P191" s="28"/>
-      <c r="Q191" s="28"/>
+      <c r="A191" s="30"/>
+      <c r="B191" s="30"/>
+      <c r="C191" s="30"/>
+      <c r="D191" s="30"/>
+      <c r="E191" s="30"/>
+      <c r="F191" s="30"/>
+      <c r="G191" s="30"/>
+      <c r="H191" s="30"/>
+      <c r="I191" s="30"/>
+      <c r="J191" s="30"/>
+      <c r="K191" s="30"/>
+      <c r="L191" s="30"/>
+      <c r="M191" s="30"/>
+      <c r="N191" s="30"/>
+      <c r="O191" s="30"/>
+      <c r="P191" s="30"/>
+      <c r="Q191" s="30"/>
     </row>
     <row r="192">
-      <c r="A192" s="28"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="28"/>
-      <c r="E192" s="28"/>
-      <c r="F192" s="28"/>
-      <c r="G192" s="28"/>
-      <c r="H192" s="28"/>
-      <c r="I192" s="28"/>
-      <c r="J192" s="28"/>
-      <c r="K192" s="28"/>
-      <c r="L192" s="28"/>
-      <c r="M192" s="28"/>
-      <c r="N192" s="28"/>
-      <c r="O192" s="28"/>
-      <c r="P192" s="28"/>
-      <c r="Q192" s="28"/>
+      <c r="A192" s="30"/>
+      <c r="B192" s="30"/>
+      <c r="C192" s="30"/>
+      <c r="D192" s="30"/>
+      <c r="E192" s="30"/>
+      <c r="F192" s="30"/>
+      <c r="G192" s="30"/>
+      <c r="H192" s="30"/>
+      <c r="I192" s="30"/>
+      <c r="J192" s="30"/>
+      <c r="K192" s="30"/>
+      <c r="L192" s="30"/>
+      <c r="M192" s="30"/>
+      <c r="N192" s="30"/>
+      <c r="O192" s="30"/>
+      <c r="P192" s="30"/>
+      <c r="Q192" s="30"/>
     </row>
     <row r="193">
-      <c r="A193" s="28"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
-      <c r="E193" s="28"/>
-      <c r="F193" s="28"/>
-      <c r="G193" s="28"/>
-      <c r="H193" s="28"/>
-      <c r="I193" s="28"/>
-      <c r="J193" s="28"/>
-      <c r="K193" s="28"/>
-      <c r="L193" s="28"/>
-      <c r="M193" s="28"/>
-      <c r="N193" s="28"/>
-      <c r="O193" s="28"/>
-      <c r="P193" s="28"/>
-      <c r="Q193" s="28"/>
+      <c r="A193" s="30"/>
+      <c r="B193" s="30"/>
+      <c r="C193" s="30"/>
+      <c r="D193" s="30"/>
+      <c r="E193" s="30"/>
+      <c r="F193" s="30"/>
+      <c r="G193" s="30"/>
+      <c r="H193" s="30"/>
+      <c r="I193" s="30"/>
+      <c r="J193" s="30"/>
+      <c r="K193" s="30"/>
+      <c r="L193" s="30"/>
+      <c r="M193" s="30"/>
+      <c r="N193" s="30"/>
+      <c r="O193" s="30"/>
+      <c r="P193" s="30"/>
+      <c r="Q193" s="30"/>
     </row>
     <row r="194">
-      <c r="A194" s="28"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="28"/>
-      <c r="D194" s="28"/>
-      <c r="E194" s="28"/>
-      <c r="F194" s="28"/>
-      <c r="G194" s="28"/>
-      <c r="H194" s="28"/>
-      <c r="I194" s="28"/>
-      <c r="J194" s="28"/>
-      <c r="K194" s="28"/>
-      <c r="L194" s="28"/>
-      <c r="M194" s="28"/>
-      <c r="N194" s="28"/>
-      <c r="O194" s="28"/>
-      <c r="P194" s="28"/>
-      <c r="Q194" s="28"/>
+      <c r="A194" s="30"/>
+      <c r="B194" s="30"/>
+      <c r="C194" s="30"/>
+      <c r="D194" s="30"/>
+      <c r="E194" s="30"/>
+      <c r="F194" s="30"/>
+      <c r="G194" s="30"/>
+      <c r="H194" s="30"/>
+      <c r="I194" s="30"/>
+      <c r="J194" s="30"/>
+      <c r="K194" s="30"/>
+      <c r="L194" s="30"/>
+      <c r="M194" s="30"/>
+      <c r="N194" s="30"/>
+      <c r="O194" s="30"/>
+      <c r="P194" s="30"/>
+      <c r="Q194" s="30"/>
     </row>
     <row r="195">
-      <c r="A195" s="28"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="28"/>
-      <c r="D195" s="28"/>
-      <c r="E195" s="28"/>
-      <c r="F195" s="28"/>
-      <c r="G195" s="28"/>
-      <c r="H195" s="28"/>
-      <c r="I195" s="28"/>
-      <c r="J195" s="28"/>
-      <c r="K195" s="28"/>
-      <c r="L195" s="28"/>
-      <c r="M195" s="28"/>
-      <c r="N195" s="28"/>
-      <c r="O195" s="28"/>
-      <c r="P195" s="28"/>
-      <c r="Q195" s="28"/>
+      <c r="A195" s="30"/>
+      <c r="B195" s="30"/>
+      <c r="C195" s="30"/>
+      <c r="D195" s="30"/>
+      <c r="E195" s="30"/>
+      <c r="F195" s="30"/>
+      <c r="G195" s="30"/>
+      <c r="H195" s="30"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="30"/>
+      <c r="K195" s="30"/>
+      <c r="L195" s="30"/>
+      <c r="M195" s="30"/>
+      <c r="N195" s="30"/>
+      <c r="O195" s="30"/>
+      <c r="P195" s="30"/>
+      <c r="Q195" s="30"/>
     </row>
     <row r="196">
-      <c r="A196" s="28"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
-      <c r="E196" s="28"/>
-      <c r="F196" s="28"/>
-      <c r="G196" s="28"/>
-      <c r="H196" s="28"/>
-      <c r="I196" s="28"/>
-      <c r="J196" s="28"/>
-      <c r="K196" s="28"/>
-      <c r="L196" s="28"/>
-      <c r="M196" s="28"/>
-      <c r="N196" s="28"/>
-      <c r="O196" s="28"/>
-      <c r="P196" s="28"/>
-      <c r="Q196" s="28"/>
+      <c r="A196" s="30"/>
+      <c r="B196" s="30"/>
+      <c r="C196" s="30"/>
+      <c r="D196" s="30"/>
+      <c r="E196" s="30"/>
+      <c r="F196" s="30"/>
+      <c r="G196" s="30"/>
+      <c r="H196" s="30"/>
+      <c r="I196" s="30"/>
+      <c r="J196" s="30"/>
+      <c r="K196" s="30"/>
+      <c r="L196" s="30"/>
+      <c r="M196" s="30"/>
+      <c r="N196" s="30"/>
+      <c r="O196" s="30"/>
+      <c r="P196" s="30"/>
+      <c r="Q196" s="30"/>
     </row>
     <row r="197">
-      <c r="A197" s="28"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
-      <c r="E197" s="28"/>
-      <c r="F197" s="28"/>
-      <c r="G197" s="28"/>
-      <c r="H197" s="28"/>
-      <c r="I197" s="28"/>
-      <c r="J197" s="28"/>
-      <c r="K197" s="28"/>
-      <c r="L197" s="28"/>
-      <c r="M197" s="28"/>
-      <c r="N197" s="28"/>
-      <c r="O197" s="28"/>
-      <c r="P197" s="28"/>
-      <c r="Q197" s="28"/>
+      <c r="A197" s="30"/>
+      <c r="B197" s="30"/>
+      <c r="C197" s="30"/>
+      <c r="D197" s="30"/>
+      <c r="E197" s="30"/>
+      <c r="F197" s="30"/>
+      <c r="G197" s="30"/>
+      <c r="H197" s="30"/>
+      <c r="I197" s="30"/>
+      <c r="J197" s="30"/>
+      <c r="K197" s="30"/>
+      <c r="L197" s="30"/>
+      <c r="M197" s="30"/>
+      <c r="N197" s="30"/>
+      <c r="O197" s="30"/>
+      <c r="P197" s="30"/>
+      <c r="Q197" s="30"/>
     </row>
     <row r="198">
-      <c r="A198" s="28"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="28"/>
-      <c r="D198" s="28"/>
-      <c r="E198" s="28"/>
-      <c r="F198" s="28"/>
-      <c r="G198" s="28"/>
-      <c r="H198" s="28"/>
-      <c r="I198" s="28"/>
-      <c r="J198" s="28"/>
-      <c r="K198" s="28"/>
-      <c r="L198" s="28"/>
-      <c r="M198" s="28"/>
-      <c r="N198" s="28"/>
-      <c r="O198" s="28"/>
-      <c r="P198" s="28"/>
-      <c r="Q198" s="28"/>
+      <c r="A198" s="30"/>
+      <c r="B198" s="30"/>
+      <c r="C198" s="30"/>
+      <c r="D198" s="30"/>
+      <c r="E198" s="30"/>
+      <c r="F198" s="30"/>
+      <c r="G198" s="30"/>
+      <c r="H198" s="30"/>
+      <c r="I198" s="30"/>
+      <c r="J198" s="30"/>
+      <c r="K198" s="30"/>
+      <c r="L198" s="30"/>
+      <c r="M198" s="30"/>
+      <c r="N198" s="30"/>
+      <c r="O198" s="30"/>
+      <c r="P198" s="30"/>
+      <c r="Q198" s="30"/>
     </row>
     <row r="199">
-      <c r="A199" s="28"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="28"/>
-      <c r="E199" s="28"/>
-      <c r="F199" s="28"/>
-      <c r="G199" s="28"/>
-      <c r="H199" s="28"/>
-      <c r="I199" s="28"/>
-      <c r="J199" s="28"/>
-      <c r="K199" s="28"/>
-      <c r="L199" s="28"/>
-      <c r="M199" s="28"/>
-      <c r="N199" s="28"/>
-      <c r="O199" s="28"/>
-      <c r="P199" s="28"/>
-      <c r="Q199" s="28"/>
+      <c r="A199" s="30"/>
+      <c r="B199" s="30"/>
+      <c r="C199" s="30"/>
+      <c r="D199" s="30"/>
+      <c r="E199" s="30"/>
+      <c r="F199" s="30"/>
+      <c r="G199" s="30"/>
+      <c r="H199" s="30"/>
+      <c r="I199" s="30"/>
+      <c r="J199" s="30"/>
+      <c r="K199" s="30"/>
+      <c r="L199" s="30"/>
+      <c r="M199" s="30"/>
+      <c r="N199" s="30"/>
+      <c r="O199" s="30"/>
+      <c r="P199" s="30"/>
+      <c r="Q199" s="30"/>
     </row>
     <row r="200">
-      <c r="A200" s="28"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="28"/>
-      <c r="E200" s="28"/>
-      <c r="F200" s="28"/>
-      <c r="G200" s="28"/>
-      <c r="H200" s="28"/>
-      <c r="I200" s="28"/>
-      <c r="J200" s="28"/>
-      <c r="K200" s="28"/>
-      <c r="L200" s="28"/>
-      <c r="M200" s="28"/>
-      <c r="N200" s="28"/>
-      <c r="O200" s="28"/>
-      <c r="P200" s="28"/>
-      <c r="Q200" s="28"/>
+      <c r="A200" s="30"/>
+      <c r="B200" s="30"/>
+      <c r="C200" s="30"/>
+      <c r="D200" s="30"/>
+      <c r="E200" s="30"/>
+      <c r="F200" s="30"/>
+      <c r="G200" s="30"/>
+      <c r="H200" s="30"/>
+      <c r="I200" s="30"/>
+      <c r="J200" s="30"/>
+      <c r="K200" s="30"/>
+      <c r="L200" s="30"/>
+      <c r="M200" s="30"/>
+      <c r="N200" s="30"/>
+      <c r="O200" s="30"/>
+      <c r="P200" s="30"/>
+      <c r="Q200" s="30"/>
     </row>
     <row r="201">
-      <c r="A201" s="28"/>
-      <c r="B201" s="28"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="28"/>
-      <c r="E201" s="28"/>
-      <c r="F201" s="28"/>
-      <c r="G201" s="28"/>
-      <c r="H201" s="28"/>
-      <c r="I201" s="28"/>
-      <c r="J201" s="28"/>
-      <c r="K201" s="28"/>
-      <c r="L201" s="28"/>
-      <c r="M201" s="28"/>
-      <c r="N201" s="28"/>
-      <c r="O201" s="28"/>
-      <c r="P201" s="28"/>
-      <c r="Q201" s="28"/>
+      <c r="A201" s="30"/>
+      <c r="B201" s="30"/>
+      <c r="C201" s="30"/>
+      <c r="D201" s="30"/>
+      <c r="E201" s="30"/>
+      <c r="F201" s="30"/>
+      <c r="G201" s="30"/>
+      <c r="H201" s="30"/>
+      <c r="I201" s="30"/>
+      <c r="J201" s="30"/>
+      <c r="K201" s="30"/>
+      <c r="L201" s="30"/>
+      <c r="M201" s="30"/>
+      <c r="N201" s="30"/>
+      <c r="O201" s="30"/>
+      <c r="P201" s="30"/>
+      <c r="Q201" s="30"/>
     </row>
     <row r="202">
-      <c r="A202" s="28"/>
-      <c r="B202" s="28"/>
-      <c r="C202" s="28"/>
-      <c r="D202" s="28"/>
-      <c r="E202" s="28"/>
-      <c r="F202" s="28"/>
-      <c r="G202" s="28"/>
-      <c r="H202" s="28"/>
-      <c r="I202" s="28"/>
-      <c r="J202" s="28"/>
-      <c r="K202" s="28"/>
-      <c r="L202" s="28"/>
-      <c r="M202" s="28"/>
-      <c r="N202" s="28"/>
-      <c r="O202" s="28"/>
-      <c r="P202" s="28"/>
-      <c r="Q202" s="28"/>
+      <c r="A202" s="30"/>
+      <c r="B202" s="30"/>
+      <c r="C202" s="30"/>
+      <c r="D202" s="30"/>
+      <c r="E202" s="30"/>
+      <c r="F202" s="30"/>
+      <c r="G202" s="30"/>
+      <c r="H202" s="30"/>
+      <c r="I202" s="30"/>
+      <c r="J202" s="30"/>
+      <c r="K202" s="30"/>
+      <c r="L202" s="30"/>
+      <c r="M202" s="30"/>
+      <c r="N202" s="30"/>
+      <c r="O202" s="30"/>
+      <c r="P202" s="30"/>
+      <c r="Q202" s="30"/>
     </row>
     <row r="203">
-      <c r="A203" s="28"/>
-      <c r="B203" s="28"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="28"/>
-      <c r="E203" s="28"/>
-      <c r="F203" s="28"/>
-      <c r="G203" s="28"/>
-      <c r="H203" s="28"/>
-      <c r="I203" s="28"/>
-      <c r="J203" s="28"/>
-      <c r="K203" s="28"/>
-      <c r="L203" s="28"/>
-      <c r="M203" s="28"/>
-      <c r="N203" s="28"/>
-      <c r="O203" s="28"/>
-      <c r="P203" s="28"/>
-      <c r="Q203" s="28"/>
+      <c r="A203" s="30"/>
+      <c r="B203" s="30"/>
+      <c r="C203" s="30"/>
+      <c r="D203" s="30"/>
+      <c r="E203" s="30"/>
+      <c r="F203" s="30"/>
+      <c r="G203" s="30"/>
+      <c r="H203" s="30"/>
+      <c r="I203" s="30"/>
+      <c r="J203" s="30"/>
+      <c r="K203" s="30"/>
+      <c r="L203" s="30"/>
+      <c r="M203" s="30"/>
+      <c r="N203" s="30"/>
+      <c r="O203" s="30"/>
+      <c r="P203" s="30"/>
+      <c r="Q203" s="30"/>
     </row>
     <row r="204">
-      <c r="A204" s="28"/>
-      <c r="B204" s="28"/>
-      <c r="C204" s="28"/>
-      <c r="D204" s="28"/>
-      <c r="E204" s="28"/>
-      <c r="F204" s="28"/>
-      <c r="G204" s="28"/>
-      <c r="H204" s="28"/>
-      <c r="I204" s="28"/>
-      <c r="J204" s="28"/>
-      <c r="K204" s="28"/>
-      <c r="L204" s="28"/>
-      <c r="M204" s="28"/>
-      <c r="N204" s="28"/>
-      <c r="O204" s="28"/>
-      <c r="P204" s="28"/>
-      <c r="Q204" s="28"/>
+      <c r="A204" s="30"/>
+      <c r="B204" s="30"/>
+      <c r="C204" s="30"/>
+      <c r="D204" s="30"/>
+      <c r="E204" s="30"/>
+      <c r="F204" s="30"/>
+      <c r="G204" s="30"/>
+      <c r="H204" s="30"/>
+      <c r="I204" s="30"/>
+      <c r="J204" s="30"/>
+      <c r="K204" s="30"/>
+      <c r="L204" s="30"/>
+      <c r="M204" s="30"/>
+      <c r="N204" s="30"/>
+      <c r="O204" s="30"/>
+      <c r="P204" s="30"/>
+      <c r="Q204" s="30"/>
     </row>
     <row r="205">
-      <c r="A205" s="28"/>
-      <c r="B205" s="28"/>
-      <c r="C205" s="28"/>
-      <c r="D205" s="28"/>
-      <c r="E205" s="28"/>
-      <c r="F205" s="28"/>
-      <c r="G205" s="28"/>
-      <c r="H205" s="28"/>
-      <c r="I205" s="28"/>
-      <c r="J205" s="28"/>
-      <c r="K205" s="28"/>
-      <c r="L205" s="28"/>
-      <c r="M205" s="28"/>
-      <c r="N205" s="28"/>
-      <c r="O205" s="28"/>
-      <c r="P205" s="28"/>
-      <c r="Q205" s="28"/>
+      <c r="A205" s="30"/>
+      <c r="B205" s="30"/>
+      <c r="C205" s="30"/>
+      <c r="D205" s="30"/>
+      <c r="E205" s="30"/>
+      <c r="F205" s="30"/>
+      <c r="G205" s="30"/>
+      <c r="H205" s="30"/>
+      <c r="I205" s="30"/>
+      <c r="J205" s="30"/>
+      <c r="K205" s="30"/>
+      <c r="L205" s="30"/>
+      <c r="M205" s="30"/>
+      <c r="N205" s="30"/>
+      <c r="O205" s="30"/>
+      <c r="P205" s="30"/>
+      <c r="Q205" s="30"/>
     </row>
     <row r="206">
-      <c r="G206" s="28"/>
+      <c r="A206" s="30"/>
+      <c r="B206" s="30"/>
+      <c r="C206" s="30"/>
+      <c r="D206" s="30"/>
+      <c r="E206" s="30"/>
+      <c r="F206" s="30"/>
+      <c r="G206" s="30"/>
+      <c r="H206" s="30"/>
+      <c r="I206" s="30"/>
+      <c r="J206" s="30"/>
+      <c r="K206" s="30"/>
+      <c r="L206" s="30"/>
+      <c r="M206" s="30"/>
+      <c r="N206" s="30"/>
+      <c r="O206" s="30"/>
+      <c r="P206" s="30"/>
+      <c r="Q206" s="30"/>
     </row>
     <row r="207">
-      <c r="G207" s="28"/>
+      <c r="A207" s="30"/>
+      <c r="B207" s="30"/>
+      <c r="C207" s="30"/>
+      <c r="D207" s="30"/>
+      <c r="E207" s="30"/>
+      <c r="F207" s="30"/>
+      <c r="G207" s="30"/>
+      <c r="H207" s="30"/>
+      <c r="I207" s="30"/>
+      <c r="J207" s="30"/>
+      <c r="K207" s="30"/>
+      <c r="L207" s="30"/>
+      <c r="M207" s="30"/>
+      <c r="N207" s="30"/>
+      <c r="O207" s="30"/>
+      <c r="P207" s="30"/>
+      <c r="Q207" s="30"/>
     </row>
     <row r="208">
-      <c r="G208" s="28"/>
+      <c r="A208" s="30"/>
+      <c r="B208" s="30"/>
+      <c r="C208" s="30"/>
+      <c r="D208" s="30"/>
+      <c r="E208" s="30"/>
+      <c r="F208" s="30"/>
+      <c r="G208" s="30"/>
+      <c r="H208" s="30"/>
+      <c r="I208" s="30"/>
+      <c r="J208" s="30"/>
+      <c r="K208" s="30"/>
+      <c r="L208" s="30"/>
+      <c r="M208" s="30"/>
+      <c r="N208" s="30"/>
+      <c r="O208" s="30"/>
+      <c r="P208" s="30"/>
+      <c r="Q208" s="30"/>
     </row>
     <row r="209">
-      <c r="G209" s="28"/>
+      <c r="A209" s="30"/>
+      <c r="B209" s="30"/>
+      <c r="C209" s="30"/>
+      <c r="D209" s="30"/>
+      <c r="E209" s="30"/>
+      <c r="F209" s="30"/>
+      <c r="G209" s="30"/>
+      <c r="H209" s="30"/>
+      <c r="I209" s="30"/>
+      <c r="J209" s="30"/>
+      <c r="K209" s="30"/>
+      <c r="L209" s="30"/>
+      <c r="M209" s="30"/>
+      <c r="N209" s="30"/>
+      <c r="O209" s="30"/>
+      <c r="P209" s="30"/>
+      <c r="Q209" s="30"/>
     </row>
     <row r="210">
-      <c r="G210" s="28"/>
+      <c r="G210" s="30"/>
     </row>
     <row r="211">
-      <c r="G211" s="28"/>
+      <c r="G211" s="30"/>
     </row>
     <row r="212">
-      <c r="G212" s="28"/>
+      <c r="G212" s="30"/>
     </row>
     <row r="213">
-      <c r="G213" s="28"/>
+      <c r="G213" s="30"/>
     </row>
     <row r="214">
-      <c r="G214" s="28"/>
+      <c r="G214" s="30"/>
     </row>
     <row r="215">
-      <c r="G215" s="28"/>
+      <c r="G215" s="30"/>
     </row>
     <row r="216">
-      <c r="G216" s="28"/>
+      <c r="G216" s="30"/>
     </row>
     <row r="217">
-      <c r="G217" s="28"/>
+      <c r="G217" s="30"/>
     </row>
     <row r="218">
-      <c r="G218" s="28"/>
+      <c r="G218" s="30"/>
     </row>
     <row r="219">
-      <c r="G219" s="28"/>
+      <c r="G219" s="30"/>
     </row>
     <row r="220">
-      <c r="G220" s="28"/>
+      <c r="G220" s="30"/>
     </row>
     <row r="221">
-      <c r="G221" s="28"/>
+      <c r="G221" s="30"/>
     </row>
     <row r="222">
-      <c r="G222" s="28"/>
+      <c r="G222" s="30"/>
     </row>
     <row r="223">
-      <c r="G223" s="28"/>
+      <c r="G223" s="30"/>
     </row>
     <row r="224">
-      <c r="G224" s="28"/>
+      <c r="G224" s="30"/>
     </row>
     <row r="225">
-      <c r="G225" s="28"/>
+      <c r="G225" s="30"/>
     </row>
     <row r="226">
-      <c r="G226" s="28"/>
+      <c r="G226" s="30"/>
     </row>
     <row r="227">
-      <c r="G227" s="28"/>
+      <c r="G227" s="30"/>
     </row>
     <row r="228">
-      <c r="G228" s="28"/>
+      <c r="G228" s="30"/>
     </row>
     <row r="229">
-      <c r="G229" s="28"/>
+      <c r="G229" s="30"/>
     </row>
     <row r="230">
-      <c r="G230" s="28"/>
+      <c r="G230" s="30"/>
     </row>
     <row r="231">
-      <c r="G231" s="28"/>
+      <c r="G231" s="30"/>
     </row>
     <row r="232">
-      <c r="G232" s="28"/>
+      <c r="G232" s="30"/>
     </row>
     <row r="233">
-      <c r="G233" s="28"/>
+      <c r="G233" s="30"/>
     </row>
     <row r="234">
-      <c r="G234" s="28"/>
+      <c r="G234" s="30"/>
     </row>
     <row r="235">
-      <c r="G235" s="28"/>
+      <c r="G235" s="30"/>
     </row>
     <row r="236">
-      <c r="G236" s="28"/>
+      <c r="G236" s="30"/>
     </row>
     <row r="237">
-      <c r="G237" s="28"/>
+      <c r="G237" s="30"/>
     </row>
     <row r="238">
-      <c r="G238" s="28"/>
+      <c r="G238" s="30"/>
     </row>
     <row r="239">
-      <c r="G239" s="28"/>
+      <c r="G239" s="30"/>
     </row>
     <row r="240">
-      <c r="G240" s="28"/>
+      <c r="G240" s="30"/>
     </row>
     <row r="241">
-      <c r="G241" s="28"/>
+      <c r="G241" s="30"/>
     </row>
     <row r="242">
-      <c r="G242" s="28"/>
+      <c r="G242" s="30"/>
     </row>
     <row r="243">
-      <c r="G243" s="28"/>
+      <c r="G243" s="30"/>
     </row>
     <row r="244">
-      <c r="G244" s="28"/>
+      <c r="G244" s="30"/>
     </row>
     <row r="245">
-      <c r="G245" s="28"/>
+      <c r="G245" s="30"/>
     </row>
     <row r="246">
-      <c r="G246" s="28"/>
+      <c r="G246" s="30"/>
     </row>
     <row r="247">
-      <c r="G247" s="28"/>
+      <c r="G247" s="30"/>
     </row>
     <row r="248">
-      <c r="G248" s="28"/>
+      <c r="G248" s="30"/>
     </row>
     <row r="249">
-      <c r="G249" s="28"/>
+      <c r="G249" s="30"/>
     </row>
     <row r="250">
-      <c r="G250" s="28"/>
+      <c r="G250" s="30"/>
     </row>
     <row r="251">
-      <c r="G251" s="28"/>
+      <c r="G251" s="30"/>
     </row>
     <row r="252">
-      <c r="G252" s="28"/>
+      <c r="G252" s="30"/>
     </row>
     <row r="253">
-      <c r="G253" s="28"/>
+      <c r="G253" s="30"/>
     </row>
     <row r="254">
-      <c r="G254" s="28"/>
+      <c r="G254" s="30"/>
     </row>
     <row r="255">
-      <c r="G255" s="28"/>
+      <c r="G255" s="30"/>
     </row>
     <row r="256">
-      <c r="G256" s="28"/>
+      <c r="G256" s="30"/>
     </row>
     <row r="257">
-      <c r="G257" s="28"/>
+      <c r="G257" s="30"/>
     </row>
     <row r="258">
-      <c r="G258" s="28"/>
+      <c r="G258" s="30"/>
     </row>
     <row r="259">
-      <c r="G259" s="28"/>
+      <c r="G259" s="30"/>
     </row>
     <row r="260">
-      <c r="G260" s="28"/>
+      <c r="G260" s="30"/>
     </row>
     <row r="261">
-      <c r="G261" s="28"/>
+      <c r="G261" s="30"/>
     </row>
     <row r="262">
-      <c r="G262" s="28"/>
+      <c r="G262" s="30"/>
     </row>
     <row r="263">
-      <c r="G263" s="28"/>
+      <c r="G263" s="30"/>
     </row>
     <row r="264">
-      <c r="G264" s="28"/>
+      <c r="G264" s="30"/>
     </row>
     <row r="265">
-      <c r="G265" s="28"/>
+      <c r="G265" s="30"/>
     </row>
     <row r="266">
-      <c r="G266" s="28"/>
+      <c r="G266" s="30"/>
     </row>
     <row r="267">
-      <c r="G267" s="28"/>
+      <c r="G267" s="30"/>
     </row>
     <row r="268">
-      <c r="G268" s="28"/>
+      <c r="G268" s="30"/>
     </row>
     <row r="269">
-      <c r="G269" s="28"/>
+      <c r="G269" s="30"/>
     </row>
     <row r="270">
-      <c r="G270" s="28"/>
+      <c r="G270" s="30"/>
     </row>
     <row r="271">
-      <c r="G271" s="28"/>
+      <c r="G271" s="30"/>
     </row>
     <row r="272">
-      <c r="G272" s="28"/>
+      <c r="G272" s="30"/>
     </row>
     <row r="273">
-      <c r="G273" s="28"/>
+      <c r="G273" s="30"/>
     </row>
     <row r="274">
-      <c r="G274" s="28"/>
+      <c r="G274" s="30"/>
     </row>
     <row r="275">
-      <c r="G275" s="28"/>
+      <c r="G275" s="30"/>
     </row>
     <row r="276">
-      <c r="G276" s="28"/>
+      <c r="G276" s="30"/>
     </row>
     <row r="277">
-      <c r="G277" s="28"/>
+      <c r="G277" s="30"/>
     </row>
     <row r="278">
-      <c r="G278" s="28"/>
+      <c r="G278" s="30"/>
     </row>
     <row r="279">
-      <c r="G279" s="28"/>
+      <c r="G279" s="30"/>
     </row>
     <row r="280">
-      <c r="G280" s="28"/>
+      <c r="G280" s="30"/>
     </row>
     <row r="281">
-      <c r="G281" s="28"/>
+      <c r="G281" s="30"/>
     </row>
     <row r="282">
-      <c r="G282" s="28"/>
+      <c r="G282" s="30"/>
     </row>
     <row r="283">
-      <c r="G283" s="28"/>
+      <c r="G283" s="30"/>
     </row>
     <row r="284">
-      <c r="G284" s="28"/>
+      <c r="G284" s="30"/>
     </row>
     <row r="285">
-      <c r="G285" s="28"/>
+      <c r="G285" s="30"/>
     </row>
     <row r="286">
-      <c r="G286" s="28"/>
+      <c r="G286" s="30"/>
     </row>
     <row r="287">
-      <c r="G287" s="28"/>
+      <c r="G287" s="30"/>
     </row>
     <row r="288">
-      <c r="G288" s="28"/>
+      <c r="G288" s="30"/>
     </row>
     <row r="289">
-      <c r="G289" s="28"/>
+      <c r="G289" s="30"/>
     </row>
     <row r="290">
-      <c r="G290" s="28"/>
+      <c r="G290" s="30"/>
     </row>
     <row r="291">
-      <c r="G291" s="28"/>
+      <c r="G291" s="30"/>
     </row>
     <row r="292">
-      <c r="G292" s="28"/>
+      <c r="G292" s="30"/>
     </row>
     <row r="293">
-      <c r="G293" s="28"/>
+      <c r="G293" s="30"/>
     </row>
     <row r="294">
-      <c r="G294" s="28"/>
+      <c r="G294" s="30"/>
     </row>
     <row r="295">
-      <c r="G295" s="28"/>
+      <c r="G295" s="30"/>
     </row>
     <row r="296">
-      <c r="G296" s="28"/>
+      <c r="G296" s="30"/>
     </row>
     <row r="297">
-      <c r="G297" s="28"/>
+      <c r="G297" s="30"/>
     </row>
     <row r="298">
-      <c r="G298" s="28"/>
+      <c r="G298" s="30"/>
     </row>
     <row r="299">
-      <c r="G299" s="28"/>
+      <c r="G299" s="30"/>
     </row>
     <row r="300">
-      <c r="G300" s="28"/>
+      <c r="G300" s="30"/>
     </row>
     <row r="301">
-      <c r="G301" s="28"/>
+      <c r="G301" s="30"/>
     </row>
     <row r="302">
-      <c r="G302" s="28"/>
+      <c r="G302" s="30"/>
     </row>
     <row r="303">
-      <c r="G303" s="28"/>
+      <c r="G303" s="30"/>
     </row>
     <row r="304">
-      <c r="G304" s="28"/>
+      <c r="G304" s="30"/>
     </row>
     <row r="305">
-      <c r="G305" s="28"/>
+      <c r="G305" s="30"/>
     </row>
     <row r="306">
-      <c r="G306" s="28"/>
+      <c r="G306" s="30"/>
     </row>
     <row r="307">
-      <c r="G307" s="28"/>
+      <c r="G307" s="30"/>
     </row>
     <row r="308">
-      <c r="G308" s="28"/>
+      <c r="G308" s="30"/>
     </row>
     <row r="309">
-      <c r="G309" s="28"/>
+      <c r="G309" s="30"/>
     </row>
     <row r="310">
-      <c r="G310" s="28"/>
+      <c r="G310" s="30"/>
     </row>
     <row r="311">
-      <c r="G311" s="28"/>
+      <c r="G311" s="30"/>
     </row>
     <row r="312">
-      <c r="G312" s="28"/>
+      <c r="G312" s="30"/>
     </row>
     <row r="313">
-      <c r="G313" s="28"/>
+      <c r="G313" s="30"/>
     </row>
     <row r="314">
-      <c r="G314" s="28"/>
+      <c r="G314" s="30"/>
     </row>
     <row r="315">
-      <c r="G315" s="28"/>
+      <c r="G315" s="30"/>
     </row>
     <row r="316">
-      <c r="G316" s="28"/>
+      <c r="G316" s="30"/>
     </row>
     <row r="317">
-      <c r="G317" s="28"/>
+      <c r="G317" s="30"/>
     </row>
     <row r="318">
-      <c r="G318" s="28"/>
+      <c r="G318" s="30"/>
     </row>
     <row r="319">
-      <c r="G319" s="28"/>
+      <c r="G319" s="30"/>
     </row>
     <row r="320">
-      <c r="G320" s="28"/>
+      <c r="G320" s="30"/>
     </row>
     <row r="321">
-      <c r="G321" s="28"/>
+      <c r="G321" s="30"/>
     </row>
     <row r="322">
-      <c r="G322" s="28"/>
+      <c r="G322" s="30"/>
     </row>
     <row r="323">
-      <c r="G323" s="28"/>
+      <c r="G323" s="30"/>
     </row>
     <row r="324">
-      <c r="G324" s="28"/>
+      <c r="G324" s="30"/>
     </row>
     <row r="325">
-      <c r="G325" s="28"/>
+      <c r="G325" s="30"/>
     </row>
     <row r="326">
-      <c r="G326" s="28"/>
+      <c r="G326" s="30"/>
     </row>
     <row r="327">
-      <c r="G327" s="28"/>
+      <c r="G327" s="30"/>
     </row>
     <row r="328">
-      <c r="G328" s="28"/>
+      <c r="G328" s="30"/>
     </row>
     <row r="329">
-      <c r="G329" s="28"/>
+      <c r="G329" s="30"/>
     </row>
     <row r="330">
-      <c r="G330" s="28"/>
+      <c r="G330" s="30"/>
     </row>
     <row r="331">
-      <c r="G331" s="28"/>
+      <c r="G331" s="30"/>
     </row>
     <row r="332">
-      <c r="G332" s="28"/>
+      <c r="G332" s="30"/>
     </row>
     <row r="333">
-      <c r="G333" s="28"/>
+      <c r="G333" s="30"/>
     </row>
     <row r="334">
-      <c r="G334" s="28"/>
+      <c r="G334" s="30"/>
     </row>
     <row r="335">
-      <c r="G335" s="28"/>
+      <c r="G335" s="30"/>
     </row>
     <row r="336">
-      <c r="G336" s="28"/>
+      <c r="G336" s="30"/>
     </row>
     <row r="337">
-      <c r="G337" s="28"/>
+      <c r="G337" s="30"/>
     </row>
     <row r="338">
-      <c r="G338" s="28"/>
+      <c r="G338" s="30"/>
     </row>
     <row r="339">
-      <c r="G339" s="28"/>
+      <c r="G339" s="30"/>
     </row>
     <row r="340">
-      <c r="G340" s="28"/>
+      <c r="G340" s="30"/>
     </row>
     <row r="341">
-      <c r="G341" s="28"/>
+      <c r="G341" s="30"/>
     </row>
     <row r="342">
-      <c r="G342" s="28"/>
+      <c r="G342" s="30"/>
     </row>
     <row r="343">
-      <c r="G343" s="28"/>
+      <c r="G343" s="30"/>
     </row>
     <row r="344">
-      <c r="G344" s="28"/>
+      <c r="G344" s="30"/>
     </row>
     <row r="345">
-      <c r="G345" s="28"/>
+      <c r="G345" s="30"/>
     </row>
     <row r="346">
-      <c r="G346" s="28"/>
+      <c r="G346" s="30"/>
     </row>
     <row r="347">
-      <c r="G347" s="28"/>
+      <c r="G347" s="30"/>
     </row>
     <row r="348">
-      <c r="G348" s="28"/>
+      <c r="G348" s="30"/>
     </row>
     <row r="349">
-      <c r="G349" s="28"/>
+      <c r="G349" s="30"/>
     </row>
     <row r="350">
-      <c r="G350" s="28"/>
+      <c r="G350" s="30"/>
     </row>
     <row r="351">
-      <c r="G351" s="28"/>
+      <c r="G351" s="30"/>
     </row>
     <row r="352">
-      <c r="G352" s="28"/>
+      <c r="G352" s="30"/>
     </row>
     <row r="353">
-      <c r="G353" s="28"/>
+      <c r="G353" s="30"/>
     </row>
     <row r="354">
-      <c r="G354" s="28"/>
+      <c r="G354" s="30"/>
     </row>
     <row r="355">
-      <c r="G355" s="28"/>
+      <c r="G355" s="30"/>
     </row>
     <row r="356">
-      <c r="G356" s="28"/>
+      <c r="G356" s="30"/>
     </row>
     <row r="357">
-      <c r="G357" s="28"/>
+      <c r="G357" s="30"/>
     </row>
     <row r="358">
-      <c r="G358" s="28"/>
+      <c r="G358" s="30"/>
     </row>
     <row r="359">
-      <c r="G359" s="28"/>
+      <c r="G359" s="30"/>
     </row>
     <row r="360">
-      <c r="G360" s="28"/>
+      <c r="G360" s="30"/>
     </row>
     <row r="361">
-      <c r="G361" s="28"/>
+      <c r="G361" s="30"/>
     </row>
     <row r="362">
-      <c r="G362" s="28"/>
+      <c r="G362" s="30"/>
     </row>
     <row r="363">
-      <c r="G363" s="28"/>
+      <c r="G363" s="30"/>
     </row>
     <row r="364">
-      <c r="G364" s="28"/>
+      <c r="G364" s="30"/>
     </row>
     <row r="365">
-      <c r="G365" s="28"/>
+      <c r="G365" s="30"/>
     </row>
     <row r="366">
-      <c r="G366" s="28"/>
+      <c r="G366" s="30"/>
     </row>
     <row r="367">
-      <c r="G367" s="28"/>
+      <c r="G367" s="30"/>
     </row>
     <row r="368">
-      <c r="G368" s="28"/>
+      <c r="G368" s="30"/>
     </row>
     <row r="369">
-      <c r="G369" s="28"/>
+      <c r="G369" s="30"/>
     </row>
     <row r="370">
-      <c r="G370" s="28"/>
+      <c r="G370" s="30"/>
     </row>
     <row r="371">
-      <c r="G371" s="28"/>
+      <c r="G371" s="30"/>
     </row>
     <row r="372">
-      <c r="G372" s="28"/>
+      <c r="G372" s="30"/>
     </row>
     <row r="373">
-      <c r="G373" s="28"/>
+      <c r="G373" s="30"/>
     </row>
     <row r="374">
-      <c r="G374" s="28"/>
+      <c r="G374" s="30"/>
     </row>
     <row r="375">
-      <c r="G375" s="28"/>
+      <c r="G375" s="30"/>
     </row>
     <row r="376">
-      <c r="G376" s="28"/>
+      <c r="G376" s="30"/>
     </row>
     <row r="377">
-      <c r="G377" s="28"/>
+      <c r="G377" s="30"/>
     </row>
     <row r="378">
-      <c r="G378" s="28"/>
+      <c r="G378" s="30"/>
     </row>
     <row r="379">
-      <c r="G379" s="28"/>
+      <c r="G379" s="30"/>
     </row>
     <row r="380">
-      <c r="G380" s="28"/>
+      <c r="G380" s="30"/>
     </row>
     <row r="381">
-      <c r="G381" s="28"/>
+      <c r="G381" s="30"/>
     </row>
     <row r="382">
-      <c r="G382" s="28"/>
+      <c r="G382" s="30"/>
     </row>
     <row r="383">
-      <c r="G383" s="28"/>
+      <c r="G383" s="30"/>
     </row>
     <row r="384">
-      <c r="G384" s="28"/>
+      <c r="G384" s="30"/>
     </row>
     <row r="385">
-      <c r="G385" s="28"/>
+      <c r="G385" s="30"/>
     </row>
     <row r="386">
-      <c r="G386" s="28"/>
+      <c r="G386" s="30"/>
     </row>
     <row r="387">
-      <c r="G387" s="28"/>
+      <c r="G387" s="30"/>
     </row>
     <row r="388">
-      <c r="G388" s="28"/>
+      <c r="G388" s="30"/>
     </row>
     <row r="389">
-      <c r="G389" s="28"/>
+      <c r="G389" s="30"/>
     </row>
     <row r="390">
-      <c r="G390" s="28"/>
+      <c r="G390" s="30"/>
     </row>
     <row r="391">
-      <c r="G391" s="28"/>
+      <c r="G391" s="30"/>
     </row>
     <row r="392">
-      <c r="G392" s="28"/>
+      <c r="G392" s="30"/>
     </row>
     <row r="393">
-      <c r="G393" s="28"/>
+      <c r="G393" s="30"/>
     </row>
     <row r="394">
-      <c r="G394" s="28"/>
+      <c r="G394" s="30"/>
     </row>
     <row r="395">
-      <c r="G395" s="28"/>
+      <c r="G395" s="30"/>
     </row>
     <row r="396">
-      <c r="G396" s="28"/>
+      <c r="G396" s="30"/>
     </row>
     <row r="397">
-      <c r="G397" s="28"/>
+      <c r="G397" s="30"/>
     </row>
     <row r="398">
-      <c r="G398" s="28"/>
+      <c r="G398" s="30"/>
     </row>
     <row r="399">
-      <c r="G399" s="28"/>
+      <c r="G399" s="30"/>
     </row>
     <row r="400">
-      <c r="G400" s="28"/>
+      <c r="G400" s="30"/>
     </row>
     <row r="401">
-      <c r="G401" s="28"/>
+      <c r="G401" s="30"/>
     </row>
     <row r="402">
-      <c r="G402" s="28"/>
+      <c r="G402" s="30"/>
     </row>
     <row r="403">
-      <c r="G403" s="28"/>
+      <c r="G403" s="30"/>
     </row>
     <row r="404">
-      <c r="G404" s="28"/>
+      <c r="G404" s="30"/>
     </row>
     <row r="405">
-      <c r="G405" s="28"/>
+      <c r="G405" s="30"/>
     </row>
     <row r="406">
-      <c r="G406" s="28"/>
+      <c r="G406" s="30"/>
     </row>
     <row r="407">
-      <c r="G407" s="28"/>
+      <c r="G407" s="30"/>
     </row>
     <row r="408">
-      <c r="G408" s="28"/>
+      <c r="G408" s="30"/>
     </row>
     <row r="409">
-      <c r="G409" s="28"/>
+      <c r="G409" s="30"/>
     </row>
     <row r="410">
-      <c r="G410" s="28"/>
+      <c r="G410" s="30"/>
     </row>
     <row r="411">
-      <c r="G411" s="28"/>
+      <c r="G411" s="30"/>
     </row>
     <row r="412">
-      <c r="G412" s="28"/>
+      <c r="G412" s="30"/>
     </row>
     <row r="413">
-      <c r="G413" s="28"/>
+      <c r="G413" s="30"/>
     </row>
     <row r="414">
-      <c r="G414" s="28"/>
+      <c r="G414" s="30"/>
     </row>
     <row r="415">
-      <c r="G415" s="28"/>
+      <c r="G415" s="30"/>
     </row>
     <row r="416">
-      <c r="G416" s="28"/>
+      <c r="G416" s="30"/>
     </row>
     <row r="417">
-      <c r="G417" s="28"/>
+      <c r="G417" s="30"/>
     </row>
     <row r="418">
-      <c r="G418" s="28"/>
+      <c r="G418" s="30"/>
     </row>
     <row r="419">
-      <c r="G419" s="28"/>
+      <c r="G419" s="30"/>
     </row>
     <row r="420">
-      <c r="G420" s="28"/>
+      <c r="G420" s="30"/>
     </row>
     <row r="421">
-      <c r="G421" s="28"/>
+      <c r="G421" s="30"/>
     </row>
     <row r="422">
-      <c r="G422" s="28"/>
+      <c r="G422" s="30"/>
     </row>
     <row r="423">
-      <c r="G423" s="28"/>
+      <c r="G423" s="30"/>
     </row>
     <row r="424">
-      <c r="G424" s="28"/>
+      <c r="G424" s="30"/>
     </row>
     <row r="425">
-      <c r="G425" s="28"/>
+      <c r="G425" s="30"/>
     </row>
     <row r="426">
-      <c r="G426" s="28"/>
+      <c r="G426" s="30"/>
     </row>
     <row r="427">
-      <c r="G427" s="28"/>
+      <c r="G427" s="30"/>
     </row>
     <row r="428">
-      <c r="G428" s="28"/>
+      <c r="G428" s="30"/>
     </row>
     <row r="429">
-      <c r="G429" s="28"/>
+      <c r="G429" s="30"/>
     </row>
     <row r="430">
-      <c r="G430" s="28"/>
+      <c r="G430" s="30"/>
     </row>
     <row r="431">
-      <c r="G431" s="28"/>
+      <c r="G431" s="30"/>
     </row>
     <row r="432">
-      <c r="G432" s="28"/>
+      <c r="G432" s="30"/>
     </row>
     <row r="433">
-      <c r="G433" s="28"/>
+      <c r="G433" s="30"/>
     </row>
     <row r="434">
-      <c r="G434" s="28"/>
+      <c r="G434" s="30"/>
     </row>
     <row r="435">
-      <c r="G435" s="28"/>
+      <c r="G435" s="30"/>
     </row>
     <row r="436">
-      <c r="G436" s="28"/>
+      <c r="G436" s="30"/>
     </row>
     <row r="437">
-      <c r="G437" s="28"/>
+      <c r="G437" s="30"/>
     </row>
     <row r="438">
-      <c r="G438" s="28"/>
+      <c r="G438" s="30"/>
     </row>
     <row r="439">
-      <c r="G439" s="28"/>
+      <c r="G439" s="30"/>
     </row>
     <row r="440">
-      <c r="G440" s="28"/>
+      <c r="G440" s="30"/>
     </row>
     <row r="441">
-      <c r="G441" s="28"/>
+      <c r="G441" s="30"/>
     </row>
     <row r="442">
-      <c r="G442" s="28"/>
+      <c r="G442" s="30"/>
     </row>
     <row r="443">
-      <c r="G443" s="28"/>
+      <c r="G443" s="30"/>
     </row>
     <row r="444">
-      <c r="G444" s="28"/>
+      <c r="G444" s="30"/>
     </row>
     <row r="445">
-      <c r="G445" s="28"/>
+      <c r="G445" s="30"/>
     </row>
     <row r="446">
-      <c r="G446" s="28"/>
+      <c r="G446" s="30"/>
     </row>
     <row r="447">
-      <c r="G447" s="28"/>
+      <c r="G447" s="30"/>
     </row>
     <row r="448">
-      <c r="G448" s="28"/>
+      <c r="G448" s="30"/>
     </row>
     <row r="449">
-      <c r="G449" s="28"/>
+      <c r="G449" s="30"/>
     </row>
     <row r="450">
-      <c r="G450" s="28"/>
+      <c r="G450" s="30"/>
     </row>
     <row r="451">
-      <c r="G451" s="28"/>
+      <c r="G451" s="30"/>
     </row>
     <row r="452">
-      <c r="G452" s="28"/>
+      <c r="G452" s="30"/>
     </row>
     <row r="453">
-      <c r="G453" s="28"/>
+      <c r="G453" s="30"/>
     </row>
     <row r="454">
-      <c r="G454" s="28"/>
+      <c r="G454" s="30"/>
     </row>
     <row r="455">
-      <c r="G455" s="28"/>
+      <c r="G455" s="30"/>
     </row>
     <row r="456">
-      <c r="G456" s="28"/>
+      <c r="G456" s="30"/>
     </row>
     <row r="457">
-      <c r="G457" s="28"/>
+      <c r="G457" s="30"/>
     </row>
     <row r="458">
-      <c r="G458" s="28"/>
+      <c r="G458" s="30"/>
     </row>
     <row r="459">
-      <c r="G459" s="28"/>
+      <c r="G459" s="30"/>
     </row>
     <row r="460">
-      <c r="G460" s="28"/>
+      <c r="G460" s="30"/>
     </row>
     <row r="461">
-      <c r="G461" s="28"/>
+      <c r="G461" s="30"/>
     </row>
     <row r="462">
-      <c r="G462" s="28"/>
+      <c r="G462" s="30"/>
     </row>
     <row r="463">
-      <c r="G463" s="28"/>
+      <c r="G463" s="30"/>
     </row>
     <row r="464">
-      <c r="G464" s="28"/>
+      <c r="G464" s="30"/>
     </row>
     <row r="465">
-      <c r="G465" s="28"/>
+      <c r="G465" s="30"/>
     </row>
     <row r="466">
-      <c r="G466" s="28"/>
+      <c r="G466" s="30"/>
     </row>
     <row r="467">
-      <c r="G467" s="28"/>
+      <c r="G467" s="30"/>
     </row>
     <row r="468">
-      <c r="G468" s="28"/>
+      <c r="G468" s="30"/>
     </row>
     <row r="469">
-      <c r="G469" s="28"/>
+      <c r="G469" s="30"/>
     </row>
     <row r="470">
-      <c r="G470" s="28"/>
+      <c r="G470" s="30"/>
     </row>
     <row r="471">
-      <c r="G471" s="28"/>
+      <c r="G471" s="30"/>
     </row>
     <row r="472">
-      <c r="G472" s="28"/>
+      <c r="G472" s="30"/>
     </row>
     <row r="473">
-      <c r="G473" s="28"/>
+      <c r="G473" s="30"/>
     </row>
     <row r="474">
-      <c r="G474" s="28"/>
+      <c r="G474" s="30"/>
     </row>
     <row r="475">
-      <c r="G475" s="28"/>
+      <c r="G475" s="30"/>
     </row>
     <row r="476">
-      <c r="G476" s="28"/>
+      <c r="G476" s="30"/>
     </row>
     <row r="477">
-      <c r="G477" s="28"/>
+      <c r="G477" s="30"/>
     </row>
     <row r="478">
-      <c r="G478" s="28"/>
+      <c r="G478" s="30"/>
     </row>
     <row r="479">
-      <c r="G479" s="28"/>
+      <c r="G479" s="30"/>
     </row>
     <row r="480">
-      <c r="G480" s="28"/>
+      <c r="G480" s="30"/>
     </row>
     <row r="481">
-      <c r="G481" s="28"/>
+      <c r="G481" s="30"/>
     </row>
     <row r="482">
-      <c r="G482" s="28"/>
+      <c r="G482" s="30"/>
     </row>
     <row r="483">
-      <c r="G483" s="28"/>
+      <c r="G483" s="30"/>
     </row>
     <row r="484">
-      <c r="G484" s="28"/>
+      <c r="G484" s="30"/>
     </row>
     <row r="485">
-      <c r="G485" s="28"/>
+      <c r="G485" s="30"/>
     </row>
     <row r="486">
-      <c r="G486" s="28"/>
+      <c r="G486" s="30"/>
     </row>
     <row r="487">
-      <c r="G487" s="28"/>
+      <c r="G487" s="30"/>
     </row>
     <row r="488">
-      <c r="G488" s="28"/>
+      <c r="G488" s="30"/>
     </row>
     <row r="489">
-      <c r="G489" s="28"/>
+      <c r="G489" s="30"/>
     </row>
     <row r="490">
-      <c r="G490" s="28"/>
+      <c r="G490" s="30"/>
     </row>
     <row r="491">
-      <c r="G491" s="28"/>
+      <c r="G491" s="30"/>
     </row>
     <row r="492">
-      <c r="G492" s="28"/>
+      <c r="G492" s="30"/>
     </row>
     <row r="493">
-      <c r="G493" s="28"/>
+      <c r="G493" s="30"/>
     </row>
     <row r="494">
-      <c r="G494" s="28"/>
+      <c r="G494" s="30"/>
     </row>
     <row r="495">
-      <c r="G495" s="28"/>
+      <c r="G495" s="30"/>
     </row>
     <row r="496">
-      <c r="G496" s="28"/>
+      <c r="G496" s="30"/>
     </row>
     <row r="497">
-      <c r="G497" s="28"/>
+      <c r="G497" s="30"/>
     </row>
     <row r="498">
-      <c r="G498" s="28"/>
+      <c r="G498" s="30"/>
     </row>
     <row r="499">
-      <c r="G499" s="28"/>
+      <c r="G499" s="30"/>
     </row>
     <row r="500">
-      <c r="G500" s="28"/>
+      <c r="G500" s="30"/>
     </row>
     <row r="501">
-      <c r="G501" s="28"/>
+      <c r="G501" s="30"/>
     </row>
     <row r="502">
-      <c r="G502" s="28"/>
+      <c r="G502" s="30"/>
     </row>
     <row r="503">
-      <c r="G503" s="28"/>
+      <c r="G503" s="30"/>
     </row>
     <row r="504">
-      <c r="G504" s="28"/>
+      <c r="G504" s="30"/>
     </row>
     <row r="505">
-      <c r="G505" s="28"/>
+      <c r="G505" s="30"/>
     </row>
     <row r="506">
-      <c r="G506" s="28"/>
+      <c r="G506" s="30"/>
     </row>
     <row r="507">
-      <c r="G507" s="28"/>
+      <c r="G507" s="30"/>
     </row>
     <row r="508">
-      <c r="G508" s="28"/>
+      <c r="G508" s="30"/>
     </row>
     <row r="509">
-      <c r="G509" s="28"/>
+      <c r="G509" s="30"/>
     </row>
     <row r="510">
-      <c r="G510" s="28"/>
+      <c r="G510" s="30"/>
     </row>
     <row r="511">
-      <c r="G511" s="28"/>
+      <c r="G511" s="30"/>
     </row>
     <row r="512">
-      <c r="G512" s="28"/>
+      <c r="G512" s="30"/>
     </row>
     <row r="513">
-      <c r="G513" s="28"/>
+      <c r="G513" s="30"/>
     </row>
     <row r="514">
-      <c r="G514" s="28"/>
+      <c r="G514" s="30"/>
     </row>
     <row r="515">
-      <c r="G515" s="28"/>
+      <c r="G515" s="30"/>
     </row>
     <row r="516">
-      <c r="G516" s="28"/>
+      <c r="G516" s="30"/>
     </row>
     <row r="517">
-      <c r="G517" s="28"/>
+      <c r="G517" s="30"/>
     </row>
     <row r="518">
-      <c r="G518" s="28"/>
+      <c r="G518" s="30"/>
     </row>
     <row r="519">
-      <c r="G519" s="28"/>
+      <c r="G519" s="30"/>
     </row>
     <row r="520">
-      <c r="G520" s="28"/>
+      <c r="G520" s="30"/>
     </row>
     <row r="521">
-      <c r="G521" s="28"/>
+      <c r="G521" s="30"/>
     </row>
     <row r="522">
-      <c r="G522" s="28"/>
+      <c r="G522" s="30"/>
     </row>
     <row r="523">
-      <c r="G523" s="28"/>
+      <c r="G523" s="30"/>
     </row>
     <row r="524">
-      <c r="G524" s="28"/>
+      <c r="G524" s="30"/>
     </row>
     <row r="525">
-      <c r="G525" s="28"/>
+      <c r="G525" s="30"/>
     </row>
     <row r="526">
-      <c r="G526" s="28"/>
+      <c r="G526" s="30"/>
     </row>
     <row r="527">
-      <c r="G527" s="28"/>
+      <c r="G527" s="30"/>
     </row>
     <row r="528">
-      <c r="G528" s="28"/>
+      <c r="G528" s="30"/>
     </row>
     <row r="529">
-      <c r="G529" s="28"/>
+      <c r="G529" s="30"/>
     </row>
     <row r="530">
-      <c r="G530" s="28"/>
+      <c r="G530" s="30"/>
     </row>
     <row r="531">
-      <c r="G531" s="28"/>
+      <c r="G531" s="30"/>
     </row>
     <row r="532">
-      <c r="G532" s="28"/>
+      <c r="G532" s="30"/>
     </row>
     <row r="533">
-      <c r="G533" s="28"/>
+      <c r="G533" s="30"/>
     </row>
     <row r="534">
-      <c r="G534" s="28"/>
+      <c r="G534" s="30"/>
     </row>
     <row r="535">
-      <c r="G535" s="28"/>
+      <c r="G535" s="30"/>
     </row>
     <row r="536">
-      <c r="G536" s="28"/>
+      <c r="G536" s="30"/>
     </row>
     <row r="537">
-      <c r="G537" s="28"/>
+      <c r="G537" s="30"/>
     </row>
     <row r="538">
-      <c r="G538" s="28"/>
+      <c r="G538" s="30"/>
     </row>
     <row r="539">
-      <c r="G539" s="28"/>
+      <c r="G539" s="30"/>
     </row>
     <row r="540">
-      <c r="G540" s="28"/>
+      <c r="G540" s="30"/>
     </row>
     <row r="541">
-      <c r="G541" s="28"/>
+      <c r="G541" s="30"/>
     </row>
     <row r="542">
-      <c r="G542" s="28"/>
+      <c r="G542" s="30"/>
     </row>
     <row r="543">
-      <c r="G543" s="28"/>
+      <c r="G543" s="30"/>
     </row>
     <row r="544">
-      <c r="G544" s="28"/>
+      <c r="G544" s="30"/>
     </row>
     <row r="545">
-      <c r="G545" s="28"/>
+      <c r="G545" s="30"/>
     </row>
     <row r="546">
-      <c r="G546" s="28"/>
+      <c r="G546" s="30"/>
     </row>
     <row r="547">
-      <c r="G547" s="28"/>
+      <c r="G547" s="30"/>
     </row>
     <row r="548">
-      <c r="G548" s="28"/>
+      <c r="G548" s="30"/>
     </row>
     <row r="549">
-      <c r="G549" s="28"/>
+      <c r="G549" s="30"/>
     </row>
     <row r="550">
-      <c r="G550" s="28"/>
+      <c r="G550" s="30"/>
     </row>
     <row r="551">
-      <c r="G551" s="28"/>
+      <c r="G551" s="30"/>
     </row>
     <row r="552">
-      <c r="G552" s="28"/>
+      <c r="G552" s="30"/>
     </row>
     <row r="553">
-      <c r="G553" s="28"/>
+      <c r="G553" s="30"/>
     </row>
     <row r="554">
-      <c r="G554" s="28"/>
+      <c r="G554" s="30"/>
     </row>
     <row r="555">
-      <c r="G555" s="28"/>
+      <c r="G555" s="30"/>
     </row>
     <row r="556">
-      <c r="G556" s="28"/>
+      <c r="G556" s="30"/>
     </row>
     <row r="557">
-      <c r="G557" s="28"/>
+      <c r="G557" s="30"/>
     </row>
     <row r="558">
-      <c r="G558" s="28"/>
+      <c r="G558" s="30"/>
     </row>
     <row r="559">
-      <c r="G559" s="28"/>
+      <c r="G559" s="30"/>
     </row>
     <row r="560">
-      <c r="G560" s="28"/>
+      <c r="G560" s="30"/>
     </row>
     <row r="561">
-      <c r="G561" s="28"/>
+      <c r="G561" s="30"/>
     </row>
     <row r="562">
-      <c r="G562" s="28"/>
+      <c r="G562" s="30"/>
     </row>
     <row r="563">
-      <c r="G563" s="28"/>
+      <c r="G563" s="30"/>
     </row>
     <row r="564">
-      <c r="G564" s="28"/>
+      <c r="G564" s="30"/>
     </row>
     <row r="565">
-      <c r="G565" s="28"/>
+      <c r="G565" s="30"/>
     </row>
     <row r="566">
-      <c r="G566" s="28"/>
+      <c r="G566" s="30"/>
     </row>
     <row r="567">
-      <c r="G567" s="28"/>
+      <c r="G567" s="30"/>
     </row>
     <row r="568">
-      <c r="G568" s="28"/>
+      <c r="G568" s="30"/>
     </row>
     <row r="569">
-      <c r="G569" s="28"/>
+      <c r="G569" s="30"/>
     </row>
     <row r="570">
-      <c r="G570" s="28"/>
+      <c r="G570" s="30"/>
     </row>
     <row r="571">
-      <c r="G571" s="28"/>
+      <c r="G571" s="30"/>
     </row>
     <row r="572">
-      <c r="G572" s="28"/>
+      <c r="G572" s="30"/>
     </row>
     <row r="573">
-      <c r="G573" s="28"/>
+      <c r="G573" s="30"/>
     </row>
     <row r="574">
-      <c r="G574" s="28"/>
+      <c r="G574" s="30"/>
     </row>
     <row r="575">
-      <c r="G575" s="28"/>
+      <c r="G575" s="30"/>
     </row>
     <row r="576">
-      <c r="G576" s="28"/>
+      <c r="G576" s="30"/>
     </row>
     <row r="577">
-      <c r="G577" s="28"/>
+      <c r="G577" s="30"/>
     </row>
     <row r="578">
-      <c r="G578" s="28"/>
+      <c r="G578" s="30"/>
     </row>
     <row r="579">
-      <c r="G579" s="28"/>
+      <c r="G579" s="30"/>
     </row>
     <row r="580">
-      <c r="G580" s="28"/>
+      <c r="G580" s="30"/>
     </row>
     <row r="581">
-      <c r="G581" s="28"/>
+      <c r="G581" s="30"/>
     </row>
     <row r="582">
-      <c r="G582" s="28"/>
+      <c r="G582" s="30"/>
     </row>
     <row r="583">
-      <c r="G583" s="28"/>
+      <c r="G583" s="30"/>
     </row>
     <row r="584">
-      <c r="G584" s="28"/>
+      <c r="G584" s="30"/>
     </row>
     <row r="585">
-      <c r="G585" s="28"/>
+      <c r="G585" s="30"/>
     </row>
     <row r="586">
-      <c r="G586" s="28"/>
+      <c r="G586" s="30"/>
     </row>
     <row r="587">
-      <c r="G587" s="28"/>
+      <c r="G587" s="30"/>
     </row>
     <row r="588">
-      <c r="G588" s="28"/>
+      <c r="G588" s="30"/>
     </row>
     <row r="589">
-      <c r="G589" s="28"/>
+      <c r="G589" s="30"/>
     </row>
     <row r="590">
-      <c r="G590" s="28"/>
+      <c r="G590" s="30"/>
     </row>
     <row r="591">
-      <c r="G591" s="28"/>
+      <c r="G591" s="30"/>
     </row>
     <row r="592">
-      <c r="G592" s="28"/>
+      <c r="G592" s="30"/>
     </row>
     <row r="593">
-      <c r="G593" s="28"/>
+      <c r="G593" s="30"/>
     </row>
     <row r="594">
-      <c r="G594" s="28"/>
+      <c r="G594" s="30"/>
     </row>
     <row r="595">
-      <c r="G595" s="28"/>
+      <c r="G595" s="30"/>
     </row>
     <row r="596">
-      <c r="G596" s="28"/>
+      <c r="G596" s="30"/>
     </row>
     <row r="597">
-      <c r="G597" s="28"/>
+      <c r="G597" s="30"/>
     </row>
     <row r="598">
-      <c r="G598" s="28"/>
+      <c r="G598" s="30"/>
     </row>
     <row r="599">
-      <c r="G599" s="28"/>
+      <c r="G599" s="30"/>
     </row>
     <row r="600">
-      <c r="G600" s="28"/>
+      <c r="G600" s="30"/>
     </row>
     <row r="601">
-      <c r="G601" s="28"/>
+      <c r="G601" s="30"/>
     </row>
     <row r="602">
-      <c r="G602" s="28"/>
+      <c r="G602" s="30"/>
     </row>
     <row r="603">
-      <c r="G603" s="28"/>
+      <c r="G603" s="30"/>
     </row>
     <row r="604">
-      <c r="G604" s="28"/>
+      <c r="G604" s="30"/>
     </row>
     <row r="605">
-      <c r="G605" s="28"/>
+      <c r="G605" s="30"/>
     </row>
     <row r="606">
-      <c r="G606" s="28"/>
+      <c r="G606" s="30"/>
     </row>
     <row r="607">
-      <c r="G607" s="28"/>
+      <c r="G607" s="30"/>
     </row>
     <row r="608">
-      <c r="G608" s="28"/>
+      <c r="G608" s="30"/>
     </row>
     <row r="609">
-      <c r="G609" s="28"/>
+      <c r="G609" s="30"/>
     </row>
     <row r="610">
-      <c r="G610" s="28"/>
+      <c r="G610" s="30"/>
     </row>
     <row r="611">
-      <c r="G611" s="28"/>
+      <c r="G611" s="30"/>
     </row>
     <row r="612">
-      <c r="G612" s="28"/>
+      <c r="G612" s="30"/>
     </row>
     <row r="613">
-      <c r="G613" s="28"/>
+      <c r="G613" s="30"/>
     </row>
     <row r="614">
-      <c r="G614" s="28"/>
+      <c r="G614" s="30"/>
     </row>
     <row r="615">
-      <c r="G615" s="28"/>
+      <c r="G615" s="30"/>
     </row>
     <row r="616">
-      <c r="G616" s="28"/>
+      <c r="G616" s="30"/>
     </row>
     <row r="617">
-      <c r="G617" s="28"/>
+      <c r="G617" s="30"/>
     </row>
     <row r="618">
-      <c r="G618" s="28"/>
+      <c r="G618" s="30"/>
     </row>
     <row r="619">
-      <c r="G619" s="28"/>
+      <c r="G619" s="30"/>
     </row>
     <row r="620">
-      <c r="G620" s="28"/>
+      <c r="G620" s="30"/>
     </row>
     <row r="621">
-      <c r="G621" s="28"/>
+      <c r="G621" s="30"/>
     </row>
     <row r="622">
-      <c r="G622" s="28"/>
+      <c r="G622" s="30"/>
     </row>
     <row r="623">
-      <c r="G623" s="28"/>
+      <c r="G623" s="30"/>
     </row>
     <row r="624">
-      <c r="G624" s="28"/>
+      <c r="G624" s="30"/>
     </row>
     <row r="625">
-      <c r="G625" s="28"/>
+      <c r="G625" s="30"/>
     </row>
     <row r="626">
-      <c r="G626" s="28"/>
+      <c r="G626" s="30"/>
     </row>
     <row r="627">
-      <c r="G627" s="28"/>
+      <c r="G627" s="30"/>
     </row>
     <row r="628">
-      <c r="G628" s="28"/>
+      <c r="G628" s="30"/>
     </row>
     <row r="629">
-      <c r="G629" s="28"/>
+      <c r="G629" s="30"/>
     </row>
     <row r="630">
-      <c r="G630" s="28"/>
+      <c r="G630" s="30"/>
     </row>
     <row r="631">
-      <c r="G631" s="28"/>
+      <c r="G631" s="30"/>
     </row>
     <row r="632">
-      <c r="G632" s="28"/>
+      <c r="G632" s="30"/>
     </row>
     <row r="633">
-      <c r="G633" s="28"/>
+      <c r="G633" s="30"/>
     </row>
     <row r="634">
-      <c r="G634" s="28"/>
+      <c r="G634" s="30"/>
     </row>
     <row r="635">
-      <c r="G635" s="28"/>
+      <c r="G635" s="30"/>
     </row>
     <row r="636">
-      <c r="G636" s="28"/>
+      <c r="G636" s="30"/>
     </row>
     <row r="637">
-      <c r="G637" s="28"/>
+      <c r="G637" s="30"/>
     </row>
     <row r="638">
-      <c r="G638" s="28"/>
+      <c r="G638" s="30"/>
     </row>
     <row r="639">
-      <c r="G639" s="28"/>
+      <c r="G639" s="30"/>
     </row>
     <row r="640">
-      <c r="G640" s="28"/>
+      <c r="G640" s="30"/>
     </row>
     <row r="641">
-      <c r="G641" s="28"/>
+      <c r="G641" s="30"/>
     </row>
     <row r="642">
-      <c r="G642" s="28"/>
+      <c r="G642" s="30"/>
     </row>
     <row r="643">
-      <c r="G643" s="28"/>
+      <c r="G643" s="30"/>
     </row>
     <row r="644">
-      <c r="G644" s="28"/>
+      <c r="G644" s="30"/>
     </row>
     <row r="645">
-      <c r="G645" s="28"/>
+      <c r="G645" s="30"/>
     </row>
     <row r="646">
-      <c r="G646" s="28"/>
+      <c r="G646" s="30"/>
     </row>
     <row r="647">
-      <c r="G647" s="28"/>
+      <c r="G647" s="30"/>
     </row>
     <row r="648">
-      <c r="G648" s="28"/>
+      <c r="G648" s="30"/>
     </row>
     <row r="649">
-      <c r="G649" s="28"/>
+      <c r="G649" s="30"/>
     </row>
     <row r="650">
-      <c r="G650" s="28"/>
+      <c r="G650" s="30"/>
     </row>
     <row r="651">
-      <c r="G651" s="28"/>
+      <c r="G651" s="30"/>
     </row>
     <row r="652">
-      <c r="G652" s="28"/>
+      <c r="G652" s="30"/>
     </row>
     <row r="653">
-      <c r="G653" s="28"/>
+      <c r="G653" s="30"/>
     </row>
     <row r="654">
-      <c r="G654" s="28"/>
+      <c r="G654" s="30"/>
     </row>
     <row r="655">
-      <c r="G655" s="28"/>
+      <c r="G655" s="30"/>
     </row>
     <row r="656">
-      <c r="G656" s="28"/>
+      <c r="G656" s="30"/>
     </row>
     <row r="657">
-      <c r="G657" s="28"/>
+      <c r="G657" s="30"/>
     </row>
     <row r="658">
-      <c r="G658" s="28"/>
+      <c r="G658" s="30"/>
     </row>
     <row r="659">
-      <c r="G659" s="28"/>
+      <c r="G659" s="30"/>
     </row>
     <row r="660">
-      <c r="G660" s="28"/>
+      <c r="G660" s="30"/>
     </row>
     <row r="661">
-      <c r="G661" s="28"/>
+      <c r="G661" s="30"/>
     </row>
     <row r="662">
-      <c r="G662" s="28"/>
+      <c r="G662" s="30"/>
     </row>
     <row r="663">
-      <c r="G663" s="28"/>
+      <c r="G663" s="30"/>
     </row>
     <row r="664">
-      <c r="G664" s="28"/>
+      <c r="G664" s="30"/>
     </row>
     <row r="665">
-      <c r="G665" s="28"/>
+      <c r="G665" s="30"/>
     </row>
     <row r="666">
-      <c r="G666" s="28"/>
+      <c r="G666" s="30"/>
     </row>
     <row r="667">
-      <c r="G667" s="28"/>
+      <c r="G667" s="30"/>
     </row>
     <row r="668">
-      <c r="G668" s="28"/>
+      <c r="G668" s="30"/>
     </row>
     <row r="669">
-      <c r="G669" s="28"/>
+      <c r="G669" s="30"/>
     </row>
     <row r="670">
-      <c r="G670" s="28"/>
+      <c r="G670" s="30"/>
     </row>
     <row r="671">
-      <c r="G671" s="28"/>
+      <c r="G671" s="30"/>
     </row>
     <row r="672">
-      <c r="G672" s="28"/>
+      <c r="G672" s="30"/>
     </row>
     <row r="673">
-      <c r="G673" s="28"/>
+      <c r="G673" s="30"/>
     </row>
     <row r="674">
-      <c r="G674" s="28"/>
+      <c r="G674" s="30"/>
     </row>
     <row r="675">
-      <c r="G675" s="28"/>
+      <c r="G675" s="30"/>
     </row>
     <row r="676">
-      <c r="G676" s="28"/>
+      <c r="G676" s="30"/>
     </row>
     <row r="677">
-      <c r="G677" s="28"/>
+      <c r="G677" s="30"/>
     </row>
     <row r="678">
-      <c r="G678" s="28"/>
+      <c r="G678" s="30"/>
     </row>
     <row r="679">
-      <c r="G679" s="28"/>
+      <c r="G679" s="30"/>
     </row>
     <row r="680">
-      <c r="G680" s="28"/>
+      <c r="G680" s="30"/>
     </row>
     <row r="681">
-      <c r="G681" s="28"/>
+      <c r="G681" s="30"/>
     </row>
     <row r="682">
-      <c r="G682" s="28"/>
+      <c r="G682" s="30"/>
     </row>
     <row r="683">
-      <c r="G683" s="28"/>
+      <c r="G683" s="30"/>
     </row>
     <row r="684">
-      <c r="G684" s="28"/>
+      <c r="G684" s="30"/>
     </row>
     <row r="685">
-      <c r="G685" s="28"/>
+      <c r="G685" s="30"/>
     </row>
     <row r="686">
-      <c r="G686" s="28"/>
+      <c r="G686" s="30"/>
     </row>
     <row r="687">
-      <c r="G687" s="28"/>
+      <c r="G687" s="30"/>
     </row>
     <row r="688">
-      <c r="G688" s="28"/>
+      <c r="G688" s="30"/>
     </row>
     <row r="689">
-      <c r="G689" s="28"/>
+      <c r="G689" s="30"/>
     </row>
     <row r="690">
-      <c r="G690" s="28"/>
+      <c r="G690" s="30"/>
     </row>
     <row r="691">
-      <c r="G691" s="28"/>
+      <c r="G691" s="30"/>
     </row>
     <row r="692">
-      <c r="G692" s="28"/>
+      <c r="G692" s="30"/>
     </row>
     <row r="693">
-      <c r="G693" s="28"/>
+      <c r="G693" s="30"/>
     </row>
     <row r="694">
-      <c r="G694" s="28"/>
+      <c r="G694" s="30"/>
     </row>
     <row r="695">
-      <c r="G695" s="28"/>
+      <c r="G695" s="30"/>
     </row>
     <row r="696">
-      <c r="G696" s="28"/>
+      <c r="G696" s="30"/>
     </row>
     <row r="697">
-      <c r="G697" s="28"/>
+      <c r="G697" s="30"/>
     </row>
     <row r="698">
-      <c r="G698" s="28"/>
+      <c r="G698" s="30"/>
     </row>
     <row r="699">
-      <c r="G699" s="28"/>
+      <c r="G699" s="30"/>
     </row>
     <row r="700">
-      <c r="G700" s="28"/>
+      <c r="G700" s="30"/>
     </row>
     <row r="701">
-      <c r="G701" s="28"/>
+      <c r="G701" s="30"/>
     </row>
     <row r="702">
-      <c r="G702" s="28"/>
+      <c r="G702" s="30"/>
     </row>
     <row r="703">
-      <c r="G703" s="28"/>
+      <c r="G703" s="30"/>
     </row>
     <row r="704">
-      <c r="G704" s="28"/>
+      <c r="G704" s="30"/>
     </row>
     <row r="705">
-      <c r="G705" s="28"/>
+      <c r="G705" s="30"/>
     </row>
     <row r="706">
-      <c r="G706" s="28"/>
+      <c r="G706" s="30"/>
     </row>
     <row r="707">
-      <c r="G707" s="28"/>
+      <c r="G707" s="30"/>
     </row>
     <row r="708">
-      <c r="G708" s="28"/>
+      <c r="G708" s="30"/>
     </row>
     <row r="709">
-      <c r="G709" s="28"/>
+      <c r="G709" s="30"/>
     </row>
     <row r="710">
-      <c r="G710" s="28"/>
+      <c r="G710" s="30"/>
     </row>
     <row r="711">
-      <c r="G711" s="28"/>
+      <c r="G711" s="30"/>
     </row>
     <row r="712">
-      <c r="G712" s="28"/>
+      <c r="G712" s="30"/>
     </row>
     <row r="713">
-      <c r="G713" s="28"/>
+      <c r="G713" s="30"/>
     </row>
     <row r="714">
-      <c r="G714" s="28"/>
+      <c r="G714" s="30"/>
     </row>
     <row r="715">
-      <c r="G715" s="28"/>
+      <c r="G715" s="30"/>
     </row>
     <row r="716">
-      <c r="G716" s="28"/>
+      <c r="G716" s="30"/>
     </row>
     <row r="717">
-      <c r="G717" s="28"/>
+      <c r="G717" s="30"/>
     </row>
     <row r="718">
-      <c r="G718" s="28"/>
+      <c r="G718" s="30"/>
     </row>
     <row r="719">
-      <c r="G719" s="28"/>
+      <c r="G719" s="30"/>
     </row>
     <row r="720">
-      <c r="G720" s="28"/>
+      <c r="G720" s="30"/>
     </row>
     <row r="721">
-      <c r="G721" s="28"/>
+      <c r="G721" s="30"/>
     </row>
     <row r="722">
-      <c r="G722" s="28"/>
+      <c r="G722" s="30"/>
     </row>
     <row r="723">
-      <c r="G723" s="28"/>
+      <c r="G723" s="30"/>
     </row>
     <row r="724">
-      <c r="G724" s="28"/>
+      <c r="G724" s="30"/>
     </row>
     <row r="725">
-      <c r="G725" s="28"/>
+      <c r="G725" s="30"/>
     </row>
     <row r="726">
-      <c r="G726" s="28"/>
+      <c r="G726" s="30"/>
     </row>
     <row r="727">
-      <c r="G727" s="28"/>
+      <c r="G727" s="30"/>
     </row>
     <row r="728">
-      <c r="G728" s="28"/>
+      <c r="G728" s="30"/>
     </row>
     <row r="729">
-      <c r="G729" s="28"/>
+      <c r="G729" s="30"/>
     </row>
     <row r="730">
-      <c r="G730" s="28"/>
+      <c r="G730" s="30"/>
     </row>
     <row r="731">
-      <c r="G731" s="28"/>
+      <c r="G731" s="30"/>
     </row>
     <row r="732">
-      <c r="G732" s="28"/>
+      <c r="G732" s="30"/>
     </row>
     <row r="733">
-      <c r="G733" s="28"/>
+      <c r="G733" s="30"/>
     </row>
     <row r="734">
-      <c r="G734" s="28"/>
+      <c r="G734" s="30"/>
     </row>
     <row r="735">
-      <c r="G735" s="28"/>
+      <c r="G735" s="30"/>
     </row>
     <row r="736">
-      <c r="G736" s="28"/>
+      <c r="G736" s="30"/>
     </row>
     <row r="737">
-      <c r="G737" s="28"/>
+      <c r="G737" s="30"/>
     </row>
     <row r="738">
-      <c r="G738" s="28"/>
+      <c r="G738" s="30"/>
     </row>
     <row r="739">
-      <c r="G739" s="28"/>
+      <c r="G739" s="30"/>
     </row>
     <row r="740">
-      <c r="G740" s="28"/>
+      <c r="G740" s="30"/>
     </row>
     <row r="741">
-      <c r="G741" s="28"/>
+      <c r="G741" s="30"/>
     </row>
     <row r="742">
-      <c r="G742" s="28"/>
+      <c r="G742" s="30"/>
     </row>
     <row r="743">
-      <c r="G743" s="28"/>
+      <c r="G743" s="30"/>
     </row>
     <row r="744">
-      <c r="G744" s="28"/>
+      <c r="G744" s="30"/>
     </row>
     <row r="745">
-      <c r="G745" s="28"/>
+      <c r="G745" s="30"/>
     </row>
     <row r="746">
-      <c r="G746" s="28"/>
+      <c r="G746" s="30"/>
     </row>
     <row r="747">
-      <c r="G747" s="28"/>
+      <c r="G747" s="30"/>
     </row>
     <row r="748">
-      <c r="G748" s="28"/>
+      <c r="G748" s="30"/>
     </row>
     <row r="749">
-      <c r="G749" s="28"/>
+      <c r="G749" s="30"/>
     </row>
     <row r="750">
-      <c r="G750" s="28"/>
+      <c r="G750" s="30"/>
     </row>
     <row r="751">
-      <c r="G751" s="28"/>
+      <c r="G751" s="30"/>
     </row>
     <row r="752">
-      <c r="G752" s="28"/>
+      <c r="G752" s="30"/>
     </row>
     <row r="753">
-      <c r="G753" s="28"/>
+      <c r="G753" s="30"/>
     </row>
     <row r="754">
-      <c r="G754" s="28"/>
+      <c r="G754" s="30"/>
     </row>
     <row r="755">
-      <c r="G755" s="28"/>
+      <c r="G755" s="30"/>
     </row>
     <row r="756">
-      <c r="G756" s="28"/>
+      <c r="G756" s="30"/>
     </row>
     <row r="757">
-      <c r="G757" s="28"/>
+      <c r="G757" s="30"/>
     </row>
     <row r="758">
-      <c r="G758" s="28"/>
+      <c r="G758" s="30"/>
     </row>
     <row r="759">
-      <c r="G759" s="28"/>
+      <c r="G759" s="30"/>
     </row>
     <row r="760">
-      <c r="G760" s="28"/>
+      <c r="G760" s="30"/>
     </row>
     <row r="761">
-      <c r="G761" s="28"/>
+      <c r="G761" s="30"/>
     </row>
     <row r="762">
-      <c r="G762" s="28"/>
+      <c r="G762" s="30"/>
     </row>
     <row r="763">
-      <c r="G763" s="28"/>
+      <c r="G763" s="30"/>
     </row>
     <row r="764">
-      <c r="G764" s="28"/>
+      <c r="G764" s="30"/>
     </row>
     <row r="765">
-      <c r="G765" s="28"/>
+      <c r="G765" s="30"/>
     </row>
     <row r="766">
-      <c r="G766" s="28"/>
+      <c r="G766" s="30"/>
     </row>
     <row r="767">
-      <c r="G767" s="28"/>
+      <c r="G767" s="30"/>
     </row>
     <row r="768">
-      <c r="G768" s="28"/>
+      <c r="G768" s="30"/>
     </row>
     <row r="769">
-      <c r="G769" s="28"/>
+      <c r="G769" s="30"/>
     </row>
     <row r="770">
-      <c r="G770" s="28"/>
+      <c r="G770" s="30"/>
     </row>
     <row r="771">
-      <c r="G771" s="28"/>
+      <c r="G771" s="30"/>
     </row>
     <row r="772">
-      <c r="G772" s="28"/>
+      <c r="G772" s="30"/>
     </row>
     <row r="773">
-      <c r="G773" s="28"/>
+      <c r="G773" s="30"/>
     </row>
     <row r="774">
-      <c r="G774" s="28"/>
+      <c r="G774" s="30"/>
     </row>
     <row r="775">
-      <c r="G775" s="28"/>
+      <c r="G775" s="30"/>
     </row>
     <row r="776">
-      <c r="G776" s="28"/>
+      <c r="G776" s="30"/>
     </row>
     <row r="777">
-      <c r="G777" s="28"/>
+      <c r="G777" s="30"/>
     </row>
     <row r="778">
-      <c r="G778" s="28"/>
+      <c r="G778" s="30"/>
     </row>
     <row r="779">
-      <c r="G779" s="28"/>
+      <c r="G779" s="30"/>
     </row>
     <row r="780">
-      <c r="G780" s="28"/>
+      <c r="G780" s="30"/>
     </row>
     <row r="781">
-      <c r="G781" s="28"/>
+      <c r="G781" s="30"/>
     </row>
     <row r="782">
-      <c r="G782" s="28"/>
+      <c r="G782" s="30"/>
     </row>
     <row r="783">
-      <c r="G783" s="28"/>
+      <c r="G783" s="30"/>
     </row>
     <row r="784">
-      <c r="G784" s="28"/>
+      <c r="G784" s="30"/>
     </row>
     <row r="785">
-      <c r="G785" s="28"/>
+      <c r="G785" s="30"/>
     </row>
     <row r="786">
-      <c r="G786" s="28"/>
+      <c r="G786" s="30"/>
     </row>
     <row r="787">
-      <c r="G787" s="28"/>
+      <c r="G787" s="30"/>
     </row>
     <row r="788">
-      <c r="G788" s="28"/>
+      <c r="G788" s="30"/>
     </row>
     <row r="789">
-      <c r="G789" s="28"/>
+      <c r="G789" s="30"/>
     </row>
     <row r="790">
-      <c r="G790" s="28"/>
+      <c r="G790" s="30"/>
     </row>
     <row r="791">
-      <c r="G791" s="28"/>
+      <c r="G791" s="30"/>
     </row>
     <row r="792">
-      <c r="G792" s="28"/>
+      <c r="G792" s="30"/>
     </row>
     <row r="793">
-      <c r="G793" s="28"/>
+      <c r="G793" s="30"/>
     </row>
     <row r="794">
-      <c r="G794" s="28"/>
+      <c r="G794" s="30"/>
     </row>
     <row r="795">
-      <c r="G795" s="28"/>
+      <c r="G795" s="30"/>
     </row>
     <row r="796">
-      <c r="G796" s="28"/>
+      <c r="G796" s="30"/>
     </row>
     <row r="797">
-      <c r="G797" s="28"/>
+      <c r="G797" s="30"/>
     </row>
     <row r="798">
-      <c r="G798" s="28"/>
+      <c r="G798" s="30"/>
     </row>
     <row r="799">
-      <c r="G799" s="28"/>
+      <c r="G799" s="30"/>
     </row>
     <row r="800">
-      <c r="G800" s="28"/>
+      <c r="G800" s="30"/>
     </row>
     <row r="801">
-      <c r="G801" s="28"/>
+      <c r="G801" s="30"/>
     </row>
     <row r="802">
-      <c r="G802" s="28"/>
+      <c r="G802" s="30"/>
     </row>
     <row r="803">
-      <c r="G803" s="28"/>
+      <c r="G803" s="30"/>
     </row>
     <row r="804">
-      <c r="G804" s="28"/>
+      <c r="G804" s="30"/>
     </row>
     <row r="805">
-      <c r="G805" s="28"/>
+      <c r="G805" s="30"/>
     </row>
     <row r="806">
-      <c r="G806" s="28"/>
+      <c r="G806" s="30"/>
     </row>
     <row r="807">
-      <c r="G807" s="28"/>
+      <c r="G807" s="30"/>
     </row>
     <row r="808">
-      <c r="G808" s="28"/>
+      <c r="G808" s="30"/>
     </row>
     <row r="809">
-      <c r="G809" s="28"/>
+      <c r="G809" s="30"/>
     </row>
     <row r="810">
-      <c r="G810" s="28"/>
+      <c r="G810" s="30"/>
     </row>
     <row r="811">
-      <c r="G811" s="28"/>
+      <c r="G811" s="30"/>
     </row>
     <row r="812">
-      <c r="G812" s="28"/>
+      <c r="G812" s="30"/>
     </row>
     <row r="813">
-      <c r="G813" s="28"/>
+      <c r="G813" s="30"/>
     </row>
     <row r="814">
-      <c r="G814" s="28"/>
+      <c r="G814" s="30"/>
     </row>
     <row r="815">
-      <c r="G815" s="28"/>
+      <c r="G815" s="30"/>
     </row>
     <row r="816">
-      <c r="G816" s="28"/>
+      <c r="G816" s="30"/>
     </row>
     <row r="817">
-      <c r="G817" s="28"/>
+      <c r="G817" s="30"/>
     </row>
     <row r="818">
-      <c r="G818" s="28"/>
+      <c r="G818" s="30"/>
     </row>
     <row r="819">
-      <c r="G819" s="28"/>
+      <c r="G819" s="30"/>
     </row>
     <row r="820">
-      <c r="G820" s="28"/>
+      <c r="G820" s="30"/>
     </row>
     <row r="821">
-      <c r="G821" s="28"/>
+      <c r="G821" s="30"/>
     </row>
     <row r="822">
-      <c r="G822" s="28"/>
+      <c r="G822" s="30"/>
     </row>
     <row r="823">
-      <c r="G823" s="28"/>
+      <c r="G823" s="30"/>
     </row>
     <row r="824">
-      <c r="G824" s="28"/>
+      <c r="G824" s="30"/>
     </row>
     <row r="825">
-      <c r="G825" s="28"/>
+      <c r="G825" s="30"/>
     </row>
     <row r="826">
-      <c r="G826" s="28"/>
+      <c r="G826" s="30"/>
     </row>
     <row r="827">
-      <c r="G827" s="28"/>
+      <c r="G827" s="30"/>
     </row>
     <row r="828">
-      <c r="G828" s="28"/>
+      <c r="G828" s="30"/>
     </row>
     <row r="829">
-      <c r="G829" s="28"/>
+      <c r="G829" s="30"/>
     </row>
     <row r="830">
-      <c r="G830" s="28"/>
+      <c r="G830" s="30"/>
     </row>
     <row r="831">
-      <c r="G831" s="28"/>
+      <c r="G831" s="30"/>
     </row>
     <row r="832">
-      <c r="G832" s="28"/>
+      <c r="G832" s="30"/>
     </row>
     <row r="833">
-      <c r="G833" s="28"/>
+      <c r="G833" s="30"/>
     </row>
     <row r="834">
-      <c r="G834" s="28"/>
+      <c r="G834" s="30"/>
     </row>
     <row r="835">
-      <c r="G835" s="28"/>
+      <c r="G835" s="30"/>
     </row>
     <row r="836">
-      <c r="G836" s="28"/>
+      <c r="G836" s="30"/>
     </row>
     <row r="837">
-      <c r="G837" s="28"/>
+      <c r="G837" s="30"/>
     </row>
     <row r="838">
-      <c r="G838" s="28"/>
+      <c r="G838" s="30"/>
     </row>
     <row r="839">
-      <c r="G839" s="28"/>
+      <c r="G839" s="30"/>
     </row>
     <row r="840">
-      <c r="G840" s="28"/>
+      <c r="G840" s="30"/>
     </row>
     <row r="841">
-      <c r="G841" s="28"/>
+      <c r="G841" s="30"/>
     </row>
     <row r="842">
-      <c r="G842" s="28"/>
+      <c r="G842" s="30"/>
     </row>
     <row r="843">
-      <c r="G843" s="28"/>
+      <c r="G843" s="30"/>
     </row>
     <row r="844">
-      <c r="G844" s="28"/>
+      <c r="G844" s="30"/>
     </row>
     <row r="845">
-      <c r="G845" s="28"/>
+      <c r="G845" s="30"/>
     </row>
     <row r="846">
-      <c r="G846" s="28"/>
+      <c r="G846" s="30"/>
     </row>
     <row r="847">
-      <c r="G847" s="28"/>
+      <c r="G847" s="30"/>
     </row>
     <row r="848">
-      <c r="G848" s="28"/>
+      <c r="G848" s="30"/>
     </row>
     <row r="849">
-      <c r="G849" s="28"/>
+      <c r="G849" s="30"/>
     </row>
     <row r="850">
-      <c r="G850" s="28"/>
+      <c r="G850" s="30"/>
     </row>
     <row r="851">
-      <c r="G851" s="28"/>
+      <c r="G851" s="30"/>
     </row>
     <row r="852">
-      <c r="G852" s="28"/>
+      <c r="G852" s="30"/>
     </row>
     <row r="853">
-      <c r="G853" s="28"/>
+      <c r="G853" s="30"/>
     </row>
     <row r="854">
-      <c r="G854" s="28"/>
+      <c r="G854" s="30"/>
     </row>
     <row r="855">
-      <c r="G855" s="28"/>
+      <c r="G855" s="30"/>
     </row>
     <row r="856">
-      <c r="G856" s="28"/>
+      <c r="G856" s="30"/>
     </row>
     <row r="857">
-      <c r="G857" s="28"/>
+      <c r="G857" s="30"/>
     </row>
     <row r="858">
-      <c r="G858" s="28"/>
+      <c r="G858" s="30"/>
     </row>
     <row r="859">
-      <c r="G859" s="28"/>
+      <c r="G859" s="30"/>
     </row>
     <row r="860">
-      <c r="G860" s="28"/>
+      <c r="G860" s="30"/>
     </row>
     <row r="861">
-      <c r="G861" s="28"/>
+      <c r="G861" s="30"/>
     </row>
     <row r="862">
-      <c r="G862" s="28"/>
+      <c r="G862" s="30"/>
     </row>
     <row r="863">
-      <c r="G863" s="28"/>
+      <c r="G863" s="30"/>
     </row>
     <row r="864">
-      <c r="G864" s="28"/>
+      <c r="G864" s="30"/>
     </row>
     <row r="865">
-      <c r="G865" s="28"/>
+      <c r="G865" s="30"/>
     </row>
     <row r="866">
-      <c r="G866" s="28"/>
+      <c r="G866" s="30"/>
     </row>
     <row r="867">
-      <c r="G867" s="28"/>
+      <c r="G867" s="30"/>
     </row>
     <row r="868">
-      <c r="G868" s="28"/>
+      <c r="G868" s="30"/>
     </row>
     <row r="869">
-      <c r="G869" s="28"/>
+      <c r="G869" s="30"/>
     </row>
     <row r="870">
-      <c r="G870" s="28"/>
+      <c r="G870" s="30"/>
     </row>
     <row r="871">
-      <c r="G871" s="28"/>
+      <c r="G871" s="30"/>
     </row>
     <row r="872">
-      <c r="G872" s="28"/>
+      <c r="G872" s="30"/>
     </row>
     <row r="873">
-      <c r="G873" s="28"/>
+      <c r="G873" s="30"/>
     </row>
     <row r="874">
-      <c r="G874" s="28"/>
+      <c r="G874" s="30"/>
     </row>
     <row r="875">
-      <c r="G875" s="28"/>
+      <c r="G875" s="30"/>
     </row>
     <row r="876">
-      <c r="G876" s="28"/>
+      <c r="G876" s="30"/>
     </row>
     <row r="877">
-      <c r="G877" s="28"/>
+      <c r="G877" s="30"/>
     </row>
     <row r="878">
-      <c r="G878" s="28"/>
+      <c r="G878" s="30"/>
     </row>
     <row r="879">
-      <c r="G879" s="28"/>
+      <c r="G879" s="30"/>
     </row>
     <row r="880">
-      <c r="G880" s="28"/>
+      <c r="G880" s="30"/>
     </row>
     <row r="881">
-      <c r="G881" s="28"/>
+      <c r="G881" s="30"/>
     </row>
     <row r="882">
-      <c r="G882" s="28"/>
+      <c r="G882" s="30"/>
     </row>
     <row r="883">
-      <c r="G883" s="28"/>
+      <c r="G883" s="30"/>
     </row>
     <row r="884">
-      <c r="G884" s="28"/>
+      <c r="G884" s="30"/>
     </row>
     <row r="885">
-      <c r="G885" s="28"/>
+      <c r="G885" s="30"/>
     </row>
     <row r="886">
-      <c r="G886" s="28"/>
+      <c r="G886" s="30"/>
     </row>
     <row r="887">
-      <c r="G887" s="28"/>
+      <c r="G887" s="30"/>
     </row>
     <row r="888">
-      <c r="G888" s="28"/>
+      <c r="G888" s="30"/>
     </row>
     <row r="889">
-      <c r="G889" s="28"/>
+      <c r="G889" s="30"/>
     </row>
     <row r="890">
-      <c r="G890" s="28"/>
+      <c r="G890" s="30"/>
     </row>
     <row r="891">
-      <c r="G891" s="28"/>
+      <c r="G891" s="30"/>
     </row>
     <row r="892">
-      <c r="G892" s="28"/>
+      <c r="G892" s="30"/>
     </row>
     <row r="893">
-      <c r="G893" s="28"/>
+      <c r="G893" s="30"/>
     </row>
     <row r="894">
-      <c r="G894" s="28"/>
+      <c r="G894" s="30"/>
     </row>
     <row r="895">
-      <c r="G895" s="28"/>
+      <c r="G895" s="30"/>
     </row>
     <row r="896">
-      <c r="G896" s="28"/>
+      <c r="G896" s="30"/>
     </row>
     <row r="897">
-      <c r="G897" s="28"/>
+      <c r="G897" s="30"/>
     </row>
     <row r="898">
-      <c r="G898" s="28"/>
+      <c r="G898" s="30"/>
     </row>
     <row r="899">
-      <c r="G899" s="28"/>
+      <c r="G899" s="30"/>
     </row>
     <row r="900">
-      <c r="G900" s="28"/>
+      <c r="G900" s="30"/>
     </row>
     <row r="901">
-      <c r="G901" s="28"/>
+      <c r="G901" s="30"/>
     </row>
     <row r="902">
-      <c r="G902" s="28"/>
+      <c r="G902" s="30"/>
     </row>
     <row r="903">
-      <c r="G903" s="28"/>
+      <c r="G903" s="30"/>
     </row>
     <row r="904">
-      <c r="G904" s="28"/>
+      <c r="G904" s="30"/>
     </row>
     <row r="905">
-      <c r="G905" s="28"/>
+      <c r="G905" s="30"/>
     </row>
     <row r="906">
-      <c r="G906" s="28"/>
+      <c r="G906" s="30"/>
     </row>
     <row r="907">
-      <c r="G907" s="28"/>
+      <c r="G907" s="30"/>
     </row>
     <row r="908">
-      <c r="G908" s="28"/>
+      <c r="G908" s="30"/>
     </row>
     <row r="909">
-      <c r="G909" s="28"/>
+      <c r="G909" s="30"/>
     </row>
     <row r="910">
-      <c r="G910" s="28"/>
+      <c r="G910" s="30"/>
     </row>
     <row r="911">
-      <c r="G911" s="28"/>
+      <c r="G911" s="30"/>
     </row>
     <row r="912">
-      <c r="G912" s="28"/>
+      <c r="G912" s="30"/>
     </row>
     <row r="913">
-      <c r="G913" s="28"/>
+      <c r="G913" s="30"/>
     </row>
     <row r="914">
-      <c r="G914" s="28"/>
+      <c r="G914" s="30"/>
     </row>
     <row r="915">
-      <c r="G915" s="28"/>
+      <c r="G915" s="30"/>
     </row>
     <row r="916">
-      <c r="G916" s="28"/>
+      <c r="G916" s="30"/>
     </row>
     <row r="917">
-      <c r="G917" s="28"/>
+      <c r="G917" s="30"/>
     </row>
     <row r="918">
-      <c r="G918" s="28"/>
+      <c r="G918" s="30"/>
     </row>
     <row r="919">
-      <c r="G919" s="28"/>
+      <c r="G919" s="30"/>
     </row>
     <row r="920">
-      <c r="G920" s="28"/>
+      <c r="G920" s="30"/>
     </row>
     <row r="921">
-      <c r="G921" s="28"/>
+      <c r="G921" s="30"/>
     </row>
     <row r="922">
-      <c r="G922" s="28"/>
+      <c r="G922" s="30"/>
     </row>
     <row r="923">
-      <c r="G923" s="28"/>
+      <c r="G923" s="30"/>
     </row>
     <row r="924">
-      <c r="G924" s="28"/>
+      <c r="G924" s="30"/>
     </row>
     <row r="925">
-      <c r="G925" s="28"/>
+      <c r="G925" s="30"/>
     </row>
     <row r="926">
-      <c r="G926" s="28"/>
+      <c r="G926" s="30"/>
     </row>
     <row r="927">
-      <c r="G927" s="28"/>
+      <c r="G927" s="30"/>
     </row>
     <row r="928">
-      <c r="G928" s="28"/>
+      <c r="G928" s="30"/>
     </row>
     <row r="929">
-      <c r="G929" s="28"/>
+      <c r="G929" s="30"/>
     </row>
     <row r="930">
-      <c r="G930" s="28"/>
+      <c r="G930" s="30"/>
     </row>
     <row r="931">
-      <c r="G931" s="28"/>
+      <c r="G931" s="30"/>
     </row>
     <row r="932">
-      <c r="G932" s="28"/>
+      <c r="G932" s="30"/>
     </row>
     <row r="933">
-      <c r="G933" s="28"/>
+      <c r="G933" s="30"/>
     </row>
     <row r="934">
-      <c r="G934" s="28"/>
+      <c r="G934" s="30"/>
     </row>
     <row r="935">
-      <c r="G935" s="28"/>
+      <c r="G935" s="30"/>
     </row>
     <row r="936">
-      <c r="G936" s="28"/>
+      <c r="G936" s="30"/>
     </row>
     <row r="937">
-      <c r="G937" s="28"/>
+      <c r="G937" s="30"/>
     </row>
     <row r="938">
-      <c r="G938" s="28"/>
+      <c r="G938" s="30"/>
     </row>
     <row r="939">
-      <c r="G939" s="28"/>
+      <c r="G939" s="30"/>
     </row>
     <row r="940">
-      <c r="G940" s="28"/>
+      <c r="G940" s="30"/>
     </row>
     <row r="941">
-      <c r="G941" s="28"/>
+      <c r="G941" s="30"/>
     </row>
     <row r="942">
-      <c r="G942" s="28"/>
+      <c r="G942" s="30"/>
     </row>
     <row r="943">
-      <c r="G943" s="28"/>
+      <c r="G943" s="30"/>
     </row>
     <row r="944">
-      <c r="G944" s="28"/>
+      <c r="G944" s="30"/>
     </row>
     <row r="945">
-      <c r="G945" s="28"/>
+      <c r="G945" s="30"/>
     </row>
     <row r="946">
-      <c r="G946" s="28"/>
+      <c r="G946" s="30"/>
     </row>
     <row r="947">
-      <c r="G947" s="28"/>
+      <c r="G947" s="30"/>
     </row>
     <row r="948">
-      <c r="G948" s="28"/>
+      <c r="G948" s="30"/>
     </row>
     <row r="949">
-      <c r="G949" s="28"/>
+      <c r="G949" s="30"/>
     </row>
     <row r="950">
-      <c r="G950" s="28"/>
+      <c r="G950" s="30"/>
     </row>
     <row r="951">
-      <c r="G951" s="28"/>
+      <c r="G951" s="30"/>
     </row>
     <row r="952">
-      <c r="G952" s="28"/>
+      <c r="G952" s="30"/>
     </row>
     <row r="953">
-      <c r="G953" s="28"/>
+      <c r="G953" s="30"/>
     </row>
     <row r="954">
-      <c r="G954" s="28"/>
+      <c r="G954" s="30"/>
     </row>
     <row r="955">
-      <c r="G955" s="28"/>
+      <c r="G955" s="30"/>
     </row>
     <row r="956">
-      <c r="G956" s="28"/>
+      <c r="G956" s="30"/>
     </row>
     <row r="957">
-      <c r="G957" s="28"/>
+      <c r="G957" s="30"/>
     </row>
     <row r="958">
-      <c r="G958" s="28"/>
+      <c r="G958" s="30"/>
     </row>
     <row r="959">
-      <c r="G959" s="28"/>
+      <c r="G959" s="30"/>
     </row>
     <row r="960">
-      <c r="G960" s="28"/>
+      <c r="G960" s="30"/>
     </row>
     <row r="961">
-      <c r="G961" s="28"/>
+      <c r="G961" s="30"/>
     </row>
     <row r="962">
-      <c r="G962" s="28"/>
+      <c r="G962" s="30"/>
     </row>
     <row r="963">
-      <c r="G963" s="28"/>
+      <c r="G963" s="30"/>
     </row>
     <row r="964">
-      <c r="G964" s="28"/>
+      <c r="G964" s="30"/>
     </row>
     <row r="965">
-      <c r="G965" s="28"/>
+      <c r="G965" s="30"/>
     </row>
     <row r="966">
-      <c r="G966" s="28"/>
+      <c r="G966" s="30"/>
     </row>
     <row r="967">
-      <c r="G967" s="28"/>
+      <c r="G967" s="30"/>
     </row>
     <row r="968">
-      <c r="G968" s="28"/>
+      <c r="G968" s="30"/>
     </row>
     <row r="969">
-      <c r="G969" s="28"/>
+      <c r="G969" s="30"/>
     </row>
     <row r="970">
-      <c r="G970" s="28"/>
+      <c r="G970" s="30"/>
     </row>
     <row r="971">
-      <c r="G971" s="28"/>
+      <c r="G971" s="30"/>
     </row>
     <row r="972">
-      <c r="G972" s="28"/>
+      <c r="G972" s="30"/>
     </row>
     <row r="973">
-      <c r="G973" s="28"/>
+      <c r="G973" s="30"/>
     </row>
     <row r="974">
-      <c r="G974" s="28"/>
+      <c r="G974" s="30"/>
     </row>
     <row r="975">
-      <c r="G975" s="28"/>
+      <c r="G975" s="30"/>
     </row>
     <row r="976">
-      <c r="G976" s="28"/>
+      <c r="G976" s="30"/>
     </row>
     <row r="977">
-      <c r="G977" s="28"/>
+      <c r="G977" s="30"/>
     </row>
     <row r="978">
-      <c r="G978" s="28"/>
+      <c r="G978" s="30"/>
     </row>
     <row r="979">
-      <c r="G979" s="28"/>
+      <c r="G979" s="30"/>
     </row>
     <row r="980">
-      <c r="G980" s="28"/>
+      <c r="G980" s="30"/>
     </row>
     <row r="981">
-      <c r="G981" s="28"/>
+      <c r="G981" s="30"/>
     </row>
     <row r="982">
-      <c r="G982" s="28"/>
+      <c r="G982" s="30"/>
     </row>
     <row r="983">
-      <c r="G983" s="28"/>
+      <c r="G983" s="30"/>
     </row>
     <row r="984">
-      <c r="G984" s="28"/>
+      <c r="G984" s="30"/>
     </row>
     <row r="985">
-      <c r="G985" s="28"/>
+      <c r="G985" s="30"/>
     </row>
     <row r="986">
-      <c r="G986" s="28"/>
+      <c r="G986" s="30"/>
     </row>
     <row r="987">
-      <c r="G987" s="28"/>
+      <c r="G987" s="30"/>
     </row>
     <row r="988">
-      <c r="G988" s="28"/>
+      <c r="G988" s="30"/>
     </row>
     <row r="989">
-      <c r="G989" s="28"/>
+      <c r="G989" s="30"/>
     </row>
     <row r="990">
-      <c r="G990" s="28"/>
+      <c r="G990" s="30"/>
     </row>
     <row r="991">
-      <c r="G991" s="28"/>
+      <c r="G991" s="30"/>
     </row>
     <row r="992">
-      <c r="G992" s="28"/>
+      <c r="G992" s="30"/>
     </row>
     <row r="993">
-      <c r="G993" s="28"/>
+      <c r="G993" s="30"/>
     </row>
     <row r="994">
-      <c r="G994" s="28"/>
+      <c r="G994" s="30"/>
     </row>
     <row r="995">
-      <c r="G995" s="28"/>
+      <c r="G995" s="30"/>
     </row>
     <row r="996">
-      <c r="G996" s="28"/>
+      <c r="G996" s="30"/>
     </row>
     <row r="997">
-      <c r="G997" s="28"/>
+      <c r="G997" s="30"/>
     </row>
     <row r="998">
-      <c r="G998" s="28"/>
+      <c r="G998" s="30"/>
     </row>
     <row r="999">
-      <c r="G999" s="28"/>
+      <c r="G999" s="30"/>
     </row>
     <row r="1000">
-      <c r="G1000" s="28"/>
+      <c r="G1000" s="30"/>
     </row>
     <row r="1001">
-      <c r="G1001" s="28"/>
+      <c r="G1001" s="30"/>
     </row>
     <row r="1002">
-      <c r="G1002" s="28"/>
+      <c r="G1002" s="30"/>
     </row>
     <row r="1003">
-      <c r="G1003" s="28"/>
+      <c r="G1003" s="30"/>
     </row>
     <row r="1004">
-      <c r="G1004" s="28"/>
+      <c r="G1004" s="30"/>
     </row>
     <row r="1005">
-      <c r="G1005" s="28"/>
+      <c r="G1005" s="30"/>
     </row>
     <row r="1006">
-      <c r="G1006" s="28"/>
+      <c r="G1006" s="30"/>
     </row>
     <row r="1007">
-      <c r="G1007" s="28"/>
+      <c r="G1007" s="30"/>
     </row>
     <row r="1008">
-      <c r="G1008" s="28"/>
+      <c r="G1008" s="30"/>
     </row>
     <row r="1009">
-      <c r="G1009" s="28"/>
+      <c r="G1009" s="30"/>
     </row>
     <row r="1010">
-      <c r="G1010" s="28"/>
+      <c r="G1010" s="30"/>
     </row>
     <row r="1011">
-      <c r="G1011" s="28"/>
+      <c r="G1011" s="30"/>
     </row>
     <row r="1012">
-      <c r="G1012" s="28"/>
+      <c r="G1012" s="30"/>
     </row>
     <row r="1013">
-      <c r="G1013" s="28"/>
+      <c r="G1013" s="30"/>
     </row>
     <row r="1014">
-      <c r="G1014" s="28"/>
+      <c r="G1014" s="30"/>
     </row>
     <row r="1015">
-      <c r="G1015" s="28"/>
+      <c r="G1015" s="30"/>
     </row>
     <row r="1016">
-      <c r="G1016" s="28"/>
+      <c r="G1016" s="30"/>
     </row>
     <row r="1017">
-      <c r="G1017" s="28"/>
+      <c r="G1017" s="30"/>
     </row>
     <row r="1018">
-      <c r="G1018" s="28"/>
+      <c r="G1018" s="30"/>
     </row>
     <row r="1019">
-      <c r="G1019" s="28"/>
+      <c r="G1019" s="30"/>
     </row>
     <row r="1020">
-      <c r="G1020" s="28"/>
+      <c r="G1020" s="30"/>
     </row>
     <row r="1021">
-      <c r="G1021" s="28"/>
+      <c r="G1021" s="30"/>
     </row>
     <row r="1022">
-      <c r="G1022" s="28"/>
+      <c r="G1022" s="30"/>
     </row>
     <row r="1023">
-      <c r="G1023" s="28"/>
+      <c r="G1023" s="30"/>
     </row>
     <row r="1024">
-      <c r="G1024" s="28"/>
+      <c r="G1024" s="30"/>
     </row>
     <row r="1025">
-      <c r="G1025" s="28"/>
+      <c r="G1025" s="30"/>
     </row>
     <row r="1026">
-      <c r="G1026" s="28"/>
+      <c r="G1026" s="30"/>
     </row>
     <row r="1027">
-      <c r="G1027" s="28"/>
+      <c r="G1027" s="30"/>
     </row>
     <row r="1028">
-      <c r="G1028" s="28"/>
+      <c r="G1028" s="30"/>
     </row>
     <row r="1029">
-      <c r="G1029" s="28"/>
+      <c r="G1029" s="30"/>
     </row>
     <row r="1030">
-      <c r="G1030" s="28"/>
+      <c r="G1030" s="30"/>
+    </row>
+    <row r="1031">
+      <c r="G1031" s="30"/>
+    </row>
+    <row r="1032">
+      <c r="G1032" s="30"/>
+    </row>
+    <row r="1033">
+      <c r="G1033" s="30"/>
+    </row>
+    <row r="1034">
+      <c r="G1034" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10959,164 +11103,164 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="149.25" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="C2" s="32">
+      <c r="A2" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" s="34">
         <v>1.0</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32">
+      <c r="A3" s="36"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34">
         <v>2.0</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="34" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32">
+      <c r="A4" s="36"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34">
         <v>3.0</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="34" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="34"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33">
+      <c r="A5" s="36"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35">
         <v>4.0</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="34" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="34"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7">
-      <c r="A7" s="34"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="32"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" ht="75.0" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" ht="90.0" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10">
-      <c r="A10" s="34"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11">
-      <c r="A11" s="34"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12">
-      <c r="A12" s="34"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13">
-      <c r="A13" s="34"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14">
-      <c r="A14" s="34"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16">
-      <c r="A16" s="34"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
     </row>
     <row r="17">
-      <c r="A17" s="34"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18">
-      <c r="A18" s="34"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19">
-      <c r="A19" s="34"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
     </row>
     <row r="20">
-      <c r="A20" s="34"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>

--- a/cuestionario_formr_lisa.xlsx
+++ b/cuestionario_formr_lisa.xlsx
@@ -10,14 +10,73 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="e06OmoyeL3atPE6yjM6yBgQ4BKkDaUZn/lYJkISYxWk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="O22U2Qvc2C628FYa9q9hx4pFQLqa4+EuVY9zmE/ermA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="G124">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAA4PHvPb8
+Moira Martinez    (2023-09-14 20:17:21)
+Quitar batería</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G108">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAA4PHvPb4
+Moira Martinez    (2023-09-14 20:10:47)
+Que la investigación no sea reproducible</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G2">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAA4PHvPJs
+Moira Martinez    (2023-09-14 19:38:26)
+Agregar alternativa No sé a todo</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G53">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAA4PHvPJg
+Moira Martinez    (2023-09-14 19:23:17)
+Sacar la negrita</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G45">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAA4PHvPJY
+Moira Martinez    (2023-09-14 19:19:32)
+Prácticas de Investigación, Apertura y Ética en la investigación
+------
+ID#AAAA4PHvPJc
+Moira Martinez    (2023-09-14 19:22:47)
+Ciencias sociales en minúscula</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgP0u3v99Z2f6e48P6PD8b98qzD3w=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="455">
   <si>
     <t>explanations</t>
   </si>
@@ -1308,6 +1367,9 @@
   </si>
   <si>
     <t>Regular</t>
+  </si>
+  <si>
+    <t>Neutra</t>
   </si>
   <si>
     <t>Buena</t>
@@ -1805,7 +1867,7 @@
     <col customWidth="1" min="2" max="2" width="27.22"/>
     <col customWidth="1" min="3" max="3" width="10.67"/>
     <col customWidth="1" min="4" max="4" width="4.89"/>
-    <col customWidth="1" min="5" max="5" width="10.33"/>
+    <col customWidth="1" min="5" max="5" width="11.67"/>
     <col customWidth="1" min="6" max="6" width="18.89"/>
     <col customWidth="1" min="7" max="7" width="34.33"/>
     <col customWidth="1" min="8" max="8" width="11.0"/>
@@ -7548,13 +7610,15 @@
       <c r="I156" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="J156" s="13" t="s">
+      <c r="J156" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="K156" s="13" t="s">
+      <c r="K156" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="L156" s="13"/>
+      <c r="L156" s="15" t="s">
+        <v>424</v>
+      </c>
       <c r="M156" s="13"/>
       <c r="N156" s="13"/>
       <c r="O156" s="13"/>
@@ -7573,7 +7637,7 @@
         <v>22</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F157" s="13"/>
       <c r="G157" s="14" t="s">
@@ -7602,11 +7666,11 @@
         <v>22</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
@@ -7627,11 +7691,11 @@
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F159" s="13"/>
       <c r="G159" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
@@ -7658,11 +7722,11 @@
         <v>22</v>
       </c>
       <c r="E160" s="15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F160" s="13"/>
       <c r="G160" s="23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
@@ -7689,17 +7753,17 @@
         <v>22</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F161" s="13"/>
       <c r="G161" s="23" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I161" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J161" s="13" t="s">
         <v>66</v>
@@ -7726,13 +7790,13 @@
         <v>22</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F162" s="15" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G162" s="23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
@@ -7759,11 +7823,11 @@
         <v>22</v>
       </c>
       <c r="E163" s="15" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F163" s="13"/>
       <c r="G163" s="23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
@@ -7788,11 +7852,11 @@
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="23" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
@@ -7819,7 +7883,7 @@
         <v>22</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F165" s="13"/>
       <c r="G165" s="14" t="s">
@@ -7841,7 +7905,7 @@
         <v>20</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>21</v>
@@ -7850,11 +7914,11 @@
         <v>22</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F166" s="13"/>
       <c r="G166" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
@@ -7872,20 +7936,20 @@
         <v>20</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E167" s="15" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F167" s="13"/>
       <c r="G167" s="14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
@@ -7916,7 +7980,7 @@
       </c>
       <c r="F168" s="13"/>
       <c r="G168" s="14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
@@ -11282,7 +11346,8 @@
   <mergeCells count="1">
     <mergeCell ref="K120:M120"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11311,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>4</v>
@@ -11322,10 +11387,10 @@
     </row>
     <row r="2" ht="149.25" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C2" s="28">
         <v>1.0</v>

--- a/cuestionario_formr_lisa.xlsx
+++ b/cuestionario_formr_lisa.xlsx
@@ -97,9 +97,9 @@
     <t>start_text</t>
   </si>
   <si>
-    <t>### Usted ha sido invitado(a) a participar en la **Encuesta de Ciencia Abierta en Investigación Social (CAIS)**, cuyo objetivo es analizar el conocimiento, creencias y prácticas de ciencia abierta en académicos/as de ciencias sociales en Chile. Ello permitirá generar recomendaciones y propuestas tanto para el quehacer académico como para las políticas científicas. Usted ha sido invitado/a porque es profesor/a de planta ordinaria de alguna Facultad, Escuela, Instituto o carrera de ciencias sociales en Chile, o porque se ha adjudicado un proyecto FONDECYT en el área de Ciencias Sociales.
+    <t>### Usted ha sido invitado(a) a participar en la **Encuesta de Ciencia Abierta en Investigación Social (CAIS)**, cuyo objetivo es analizar el conocimiento, creencias y prácticas de Ciencia Abierta en académicos/as de ciencias sociales en Chile. Ello permitirá generar recomendaciones y propuestas tanto para el quehacer académico como para las políticas científicas. Usted ha sido invitado/a porque es profesor/a de planta ordinaria de alguna Facultad, Escuela, Instituto o carrera de ciencias sociales en Chile, o porque se ha adjudicado un proyecto FONDECYT en el área de Ciencias Sociales.
 ### El investigador responsable de este estudio es el Dr. Juan Carlos Castillo, académico del Departamento de Sociología de la Facultad de Ciencias Sociales de la Universidad de Chile. La investigación es patrocinada por el Centro de Estudios de Conflicto y Cohesión Social (COES). Para decidir participar en esta investigación, es importante que considere la siguiente información. Siéntase libre de preguntar cualquier asunto que no le quede claro: 
-### - **Participación**: Su participación consistirá en responder un cuestionario online con preguntas cerradas sobre su conocimiento, prácticas y creencias de ciencia abierta. También se le pedirá información personal, como por ejemplo su edad, género, educación e historial laboral. La duración esperada de la encuesta es de 15 minutos. 
+### - **Participación**: Su participación consistirá en responder un cuestionario online con preguntas cerradas sobre su conocimiento, prácticas y creencias de Ciencia Abierta. También se le pedirá información personal, como por ejemplo su edad, género, educación e historial laboral. La duración esperada de la encuesta es de 15 minutos. 
 ### - **Riesgos**: Dadas las características del estudio, no anticipamos riesgos asociados a su participación. Sin embargo, si alguna de las preguntas le produce malestar o incomodidad, o tiene alguna consulta que hacer durante la encuesta, podrá preguntar al responsable de la misma y/o podrá detener su participación cuando usted lo desee. 
 ### - **Beneficios**: Usted no recibirá ningún beneficio directo, ni recompensa alguna, por participar en este estudio. No obstante, su participación permitirá generar información para conocer los desafíos que las ciencias sociales enfrentan en Chile en lo que respecta a la apertura del proceso investigativo. Con lo cuál se espera elaborar propuestas, tanto para la comunidad académica como a las políticas científicas, que permitan superar tales desafíos. 
 ### - **Voluntariedad**: Su participación es absolutamente voluntaria. Usted tendrá la libertad de contestar las preguntas que desee, como también de detener su participación en cualquier momento. Esto no implicará ningún perjuicio para usted. 
@@ -282,7 +282,7 @@
     <t>mod01_7</t>
   </si>
   <si>
-    <t>### 1.7. Si usted realizó un PhD, ¿Lo hizo en Chile o el extranjero?</t>
+    <t>### 1.7. Si usted realizó un PhD, ¿Lo hizo en Chile o en el extranjero?</t>
   </si>
   <si>
     <t>Chile</t>
@@ -375,7 +375,7 @@
     <t>mod02_text</t>
   </si>
   <si>
-    <t>&gt; Este módulo está orientado a conocer su **nivel de conocimiento** sobre el concepto de ciencia abierta, así como el grado en que **ha utilizado las herramientas** que entrega.</t>
+    <t>&gt; Este módulo está orientado a conocer su **nivel de conocimiento** sobre el concepto de Ciencia Abierta, así como el grado en que **ha utilizado las herramientas** que entrega.</t>
   </si>
   <si>
     <t>Lopez-cardenas &amp; Cubero-Castillo, 2021; Pardo Martinez &amp; Poveda, 2018</t>
@@ -392,7 +392,7 @@
     <t>mod02_1</t>
   </si>
   <si>
-    <t xml:space="preserve"> ### 2.1. Considerando una escala entre 1 y 7, dónde 1 es nada familiarizado/a y 7 es muy familiarizado/a, ¿Qué tan familiarizado/a está con el concepto de ciencia abierta?</t>
+    <t xml:space="preserve"> ### 2.1. Considerando una escala entre 1 y 7, donde 1 es nada familiarizado/a y 7 es muy familiarizado/a, ¿Qué tan familiarizado/a está con el concepto de Ciencia Abierta?</t>
   </si>
   <si>
     <t>Muy poco familiarizado/a</t>
@@ -408,7 +408,7 @@
     <t>mod02_2</t>
   </si>
   <si>
-    <t>### 2.2. Considerando una escala entre 1 y 7, dónde 1 es nada familiarizado/a y 7 es muy familiarizado/a, ¿Qué tan familiarizado/a está con los siguentes conceptos y herramientas de ciencia abierta?</t>
+    <t>### 2.2. Considerando una escala entre 1 y 7, donde 1 es nada familiarizado/a y 7 es muy familiarizado/a, ¿Qué tan familiarizado/a está con los siguentes conceptos y herramientas de Ciencia Abierta?</t>
   </si>
   <si>
     <t>Pardo Martinez &amp; Poveda, 2018</t>
@@ -462,7 +462,7 @@
     <t>mod02_3</t>
   </si>
   <si>
-    <t>### 2.3. En los últimos 12 meses, ¿Con qué frecuencia ha utilizado herramientas de ciencia abierta?</t>
+    <t>### 2.3. En los últimos 12 meses, ¿Con qué frecuencia ha utilizado herramientas de Ciencia Abierta?</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -483,7 +483,7 @@
     <t>mod02_4</t>
   </si>
   <si>
-    <t>### 2.4. Considerando las siguientes medidas impulsadas por la ciencia abierta, ¿Qué tan necesarias cree que son para la investigación en Ciencias Sociales?:</t>
+    <t>### 2.4. Considerando las siguientes medidas impulsadas por la Ciencia Abierta, ¿Qué tan necesarias cree que son para la investigación en Ciencias Sociales?:</t>
   </si>
   <si>
     <t>sturmer, et. Al 2017</t>
@@ -545,7 +545,7 @@
     <t>mod02_5</t>
   </si>
   <si>
-    <t xml:space="preserve">### 2.5. Considerando los siguientes procedimientos y herramientas de ciencia abierta, ¿Planea considerar alguno en sus próximos estudios?: </t>
+    <t xml:space="preserve">### 2.5. Considerando los siguientes procedimientos y herramientas de Ciencia Abierta, ¿Planea considerar alguno en sus próximos estudios?: </t>
   </si>
   <si>
     <t>mod02_5_1</t>
@@ -1035,7 +1035,7 @@
     <t>mod05_6</t>
   </si>
   <si>
-    <t>### 5.6. Según su opinión, ¿Que tanto considera usted que los siguiente factores limitan la investigación reproducible?:</t>
+    <t>### 5.6. Según su opinión, ¿Que tanto considera usted que los siguiente factores limitan la investigación reproducible?</t>
   </si>
   <si>
     <t>mod05_6_1</t>
@@ -1230,7 +1230,7 @@
     <t>mod07_2</t>
   </si>
   <si>
-    <t>### 7.2. Según su opinión, ¿Cuán necesario es la implementación de políticas de acceso abierto obligatorias para investigaciones financiadas por fondos públicos?</t>
+    <t>### 7.2. Según su opinión, ¿Qué tan necesario es la implementación de políticas de acceso abierto obligatorias para investigaciones financiadas por fondos públicos?</t>
   </si>
   <si>
     <t>Ligeramente necesario</t>
@@ -1371,7 +1371,7 @@
     <t>mod09_text</t>
   </si>
   <si>
-    <t>&gt; Este último módulo es de caracter opcional, y busca evaluar su percepción sobre el fenómeno de aceleración en la práctica de investigación científica</t>
+    <t>&gt; Este último módulo es de caracter opcional, su objetivo es evaluar su percepción sobre el fenómeno de aceleración en la práctica de investigación científica</t>
   </si>
   <si>
     <t>mod09_1</t>
@@ -1770,7 +1770,7 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1780,6 +1780,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -1798,9 +1801,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2316,7 +2316,7 @@
       <c r="F5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="5"/>
@@ -2382,7 +2382,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="5"/>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="8">
       <c r="A8" s="10"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="5"/>
@@ -2431,10 +2431,10 @@
     </row>
     <row r="9">
       <c r="A9" s="10"/>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2465,7 +2465,7 @@
       <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2478,7 +2478,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="15" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="5"/>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="11">
       <c r="A11" s="10"/>
-      <c r="B11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
         <v>48</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="F11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="5"/>
@@ -2542,7 +2542,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="16" t="s">
         <v>56</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -2571,7 +2571,7 @@
     </row>
     <row r="13">
       <c r="A13" s="10"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -2586,7 +2586,7 @@
       <c r="F13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="16" t="s">
         <v>64</v>
       </c>
       <c r="H13" s="5"/>
@@ -2607,7 +2607,7 @@
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -2620,7 +2620,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="16" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -2647,10 +2647,10 @@
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -2683,7 +2683,7 @@
       <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2722,7 +2722,7 @@
       <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2754,7 +2754,7 @@
     </row>
     <row r="18">
       <c r="A18" s="10"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -2793,7 +2793,7 @@
       <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2841,7 +2841,7 @@
       <c r="A20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2877,7 +2877,7 @@
       <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -2889,8 +2889,8 @@
       <c r="E21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="16" t="s">
         <v>97</v>
       </c>
       <c r="H21" s="5"/>
@@ -2924,10 +2924,10 @@
         <v>98</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I22" s="6" t="s">
@@ -2955,7 +2955,7 @@
       <c r="A23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2970,14 +2970,14 @@
       <c r="F23" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="16" t="s">
         <v>106</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
-      <c r="L23" s="17"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="6"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -2991,7 +2991,7 @@
       <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -3036,7 +3036,7 @@
         <v>108</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="9" t="s">
         <v>109</v>
       </c>
       <c r="H25" s="5"/>
@@ -3108,7 +3108,7 @@
       <c r="H27" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="7" t="s">
         <v>118</v>
       </c>
       <c r="J27" s="5"/>
@@ -3174,13 +3174,13 @@
         <v>123</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="12" t="s">
         <v>124</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="7" t="s">
         <v>118</v>
       </c>
       <c r="J29" s="5"/>
@@ -3212,13 +3212,13 @@
         <v>125</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="12" t="s">
         <v>126</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="7" t="s">
         <v>118</v>
       </c>
       <c r="J30" s="5"/>
@@ -3250,13 +3250,13 @@
         <v>127</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="12" t="s">
         <v>128</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="7" t="s">
         <v>118</v>
       </c>
       <c r="J31" s="5"/>
@@ -3294,7 +3294,7 @@
       <c r="H32" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="7" t="s">
         <v>118</v>
       </c>
       <c r="J32" s="5"/>
@@ -3332,7 +3332,7 @@
       <c r="H33" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="7" t="s">
         <v>118</v>
       </c>
       <c r="J33" s="5"/>
@@ -3368,7 +3368,7 @@
       <c r="H34" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="7" t="s">
         <v>118</v>
       </c>
       <c r="J34" s="21"/>
@@ -3404,7 +3404,7 @@
       <c r="H35" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="7" t="s">
         <v>118</v>
       </c>
       <c r="J35" s="21"/>
@@ -3448,10 +3448,10 @@
       <c r="J36" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="K36" s="13" t="s">
+      <c r="K36" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="14" t="s">
         <v>144</v>
       </c>
       <c r="M36" s="5"/>
@@ -3512,7 +3512,7 @@
         <v>149</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="12" t="s">
         <v>150</v>
       </c>
       <c r="H38" s="5" t="s">
@@ -3557,7 +3557,7 @@
         <v>157</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="12" t="s">
         <v>158</v>
       </c>
       <c r="H39" s="5" t="s">
@@ -3602,7 +3602,7 @@
         <v>159</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="16" t="s">
         <v>160</v>
       </c>
       <c r="H40" s="5" t="s">
@@ -3692,7 +3692,7 @@
         <v>163</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="16" t="s">
         <v>164</v>
       </c>
       <c r="H42" s="5" t="s">
@@ -3778,7 +3778,7 @@
       <c r="I44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="14" t="s">
         <v>169</v>
       </c>
       <c r="L44" s="5"/>
@@ -3817,7 +3817,7 @@
       <c r="I45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="J45" s="14" t="s">
         <v>169</v>
       </c>
       <c r="L45" s="5"/>
@@ -3844,7 +3844,7 @@
         <v>171</v>
       </c>
       <c r="F46" s="21"/>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="16" t="s">
         <v>160</v>
       </c>
       <c r="H46" s="5" t="s">
@@ -3853,7 +3853,7 @@
       <c r="I46" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="14" t="s">
         <v>169</v>
       </c>
       <c r="L46" s="21"/>
@@ -3889,7 +3889,7 @@
       <c r="I47" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="14" t="s">
         <v>169</v>
       </c>
       <c r="L47" s="21"/>
@@ -3925,7 +3925,7 @@
       <c r="I48" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="14" t="s">
         <v>169</v>
       </c>
       <c r="L48" s="21"/>
@@ -3952,7 +3952,7 @@
         <v>175</v>
       </c>
       <c r="F49" s="21"/>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="16" t="s">
         <v>164</v>
       </c>
       <c r="H49" s="5" t="s">
@@ -3961,7 +3961,7 @@
       <c r="I49" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="14" t="s">
         <v>169</v>
       </c>
       <c r="L49" s="21"/>
@@ -4268,7 +4268,7 @@
         <v>195</v>
       </c>
       <c r="F58" s="21"/>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="16" t="s">
         <v>196</v>
       </c>
       <c r="H58" s="21" t="s">
@@ -4502,7 +4502,7 @@
         <v>207</v>
       </c>
       <c r="F64" s="21"/>
-      <c r="G64" s="15" t="s">
+      <c r="G64" s="16" t="s">
         <v>196</v>
       </c>
       <c r="H64" s="21" t="s">
@@ -4590,7 +4590,7 @@
       <c r="L66" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="M66" s="13"/>
+      <c r="M66" s="14"/>
       <c r="N66" s="21"/>
       <c r="O66" s="21"/>
       <c r="P66" s="21"/>
@@ -4631,7 +4631,7 @@
       <c r="L67" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="M67" s="13"/>
+      <c r="M67" s="14"/>
       <c r="N67" s="21"/>
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
@@ -4798,7 +4798,7 @@
         <v>227</v>
       </c>
       <c r="F72" s="5"/>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="12" t="s">
         <v>228</v>
       </c>
       <c r="H72" s="21"/>
@@ -4845,7 +4845,7 @@
       <c r="A74" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -4854,17 +4854,17 @@
       <c r="D74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="14" t="s">
         <v>232</v>
       </c>
       <c r="F74" s="21"/>
       <c r="G74" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J74" s="6" t="s">
@@ -4889,7 +4889,7 @@
       <c r="D75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="14" t="s">
         <v>235</v>
       </c>
       <c r="F75" s="21"/>
@@ -5330,7 +5330,7 @@
       <c r="A87" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -5339,17 +5339,17 @@
       <c r="D87" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E87" s="14" t="s">
         <v>261</v>
       </c>
       <c r="F87" s="21"/>
       <c r="G87" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="H87" s="13" t="s">
+      <c r="H87" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I87" s="13" t="s">
+      <c r="I87" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J87" s="21"/>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="88">
       <c r="A88" s="10"/>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -5372,10 +5372,10 @@
       <c r="D88" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="14" t="s">
         <v>264</v>
       </c>
       <c r="G88" s="24" t="s">
@@ -5404,7 +5404,7 @@
       <c r="A89" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -5413,17 +5413,17 @@
       <c r="D89" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="E89" s="14" t="s">
         <v>270</v>
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="H89" s="13" t="s">
+      <c r="H89" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I89" s="13" t="s">
+      <c r="I89" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J89" s="6" t="s">
@@ -5448,7 +5448,7 @@
       <c r="D90" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="E90" s="14" t="s">
         <v>272</v>
       </c>
       <c r="F90" s="21"/>
@@ -5645,7 +5645,7 @@
         <v>288</v>
       </c>
       <c r="F95" s="5"/>
-      <c r="G95" s="11" t="s">
+      <c r="G95" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H95" s="21"/>
@@ -5674,7 +5674,7 @@
         <v>289</v>
       </c>
       <c r="F96" s="5"/>
-      <c r="G96" s="11" t="s">
+      <c r="G96" s="12" t="s">
         <v>290</v>
       </c>
       <c r="H96" s="21"/>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="97">
       <c r="A97" s="10"/>
-      <c r="B97" s="12"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="5" t="s">
         <v>21</v>
       </c>
@@ -5719,7 +5719,7 @@
       <c r="A98" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C98" s="5" t="s">
@@ -5732,7 +5732,7 @@
         <v>295</v>
       </c>
       <c r="F98" s="21"/>
-      <c r="G98" s="15" t="s">
+      <c r="G98" s="16" t="s">
         <v>296</v>
       </c>
       <c r="H98" s="21" t="s">
@@ -5762,7 +5762,7 @@
       <c r="A99" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -5805,7 +5805,7 @@
       <c r="A100" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C100" s="5" t="s">
@@ -5844,10 +5844,10 @@
       <c r="A101" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="12" t="s">
         <v>305</v>
       </c>
       <c r="D101" s="6" t="s">
@@ -5922,10 +5922,10 @@
       <c r="G103" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="H103" s="13" t="s">
+      <c r="H103" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="I103" s="13" t="s">
+      <c r="I103" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J103" s="21" t="s">
@@ -5951,7 +5951,7 @@
       <c r="E104" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="F104" s="13" t="s">
+      <c r="F104" s="14" t="s">
         <v>317</v>
       </c>
       <c r="G104" s="24" t="s">
@@ -5994,10 +5994,10 @@
       <c r="G105" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="H105" s="13" t="s">
+      <c r="H105" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="I105" s="13" t="s">
+      <c r="I105" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J105" s="21" t="s">
@@ -6066,10 +6066,10 @@
       <c r="G107" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="H107" s="13" t="s">
+      <c r="H107" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="I107" s="13" t="s">
+      <c r="I107" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J107" s="21" t="s">
@@ -6098,7 +6098,7 @@
         <v>328</v>
       </c>
       <c r="F108" s="5"/>
-      <c r="G108" s="22" t="s">
+      <c r="G108" s="30" t="s">
         <v>329</v>
       </c>
       <c r="H108" s="21"/>
@@ -6373,7 +6373,7 @@
         <v>338</v>
       </c>
       <c r="F115" s="5"/>
-      <c r="G115" s="11" t="s">
+      <c r="G115" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H115" s="21"/>
@@ -6402,7 +6402,7 @@
         <v>339</v>
       </c>
       <c r="F116" s="5"/>
-      <c r="G116" s="11" t="s">
+      <c r="G116" s="12" t="s">
         <v>340</v>
       </c>
       <c r="H116" s="21"/>
@@ -6449,7 +6449,7 @@
       <c r="A118" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -6462,13 +6462,13 @@
         <v>344</v>
       </c>
       <c r="F118" s="21"/>
-      <c r="G118" s="15" t="s">
+      <c r="G118" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="H118" s="13" t="s">
+      <c r="H118" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="I118" s="13" t="s">
+      <c r="I118" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J118" s="6" t="s">
@@ -6484,7 +6484,7 @@
       <c r="A119" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -6500,10 +6500,10 @@
       <c r="G119" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="H119" s="13" t="s">
+      <c r="H119" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="I119" s="13" t="s">
+      <c r="I119" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J119" s="6" t="s">
@@ -6531,7 +6531,7 @@
       <c r="E120" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="F120" s="13" t="s">
+      <c r="F120" s="14" t="s">
         <v>350</v>
       </c>
       <c r="G120" s="24" t="s">
@@ -6552,7 +6552,7 @@
       <c r="A121" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C121" s="5" t="s">
@@ -6568,10 +6568,10 @@
       <c r="G121" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="H121" s="13" t="s">
+      <c r="H121" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="I121" s="13" t="s">
+      <c r="I121" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J121" s="6" t="s">
@@ -6589,7 +6589,7 @@
       <c r="A122" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C122" s="6" t="s">
@@ -6605,19 +6605,19 @@
       <c r="G122" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="H122" s="13" t="s">
+      <c r="H122" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="I122" s="13" t="s">
+      <c r="I122" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="J122" s="13" t="s">
+      <c r="J122" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="K122" s="13" t="s">
+      <c r="K122" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="L122" s="13" t="s">
+      <c r="L122" s="14" t="s">
         <v>361</v>
       </c>
       <c r="M122" s="21"/>
@@ -6752,7 +6752,7 @@
         <v>370</v>
       </c>
       <c r="F126" s="21"/>
-      <c r="G126" s="14" t="s">
+      <c r="G126" s="15" t="s">
         <v>371</v>
       </c>
       <c r="H126" s="21"/>
@@ -7150,7 +7150,7 @@
         <v>385</v>
       </c>
       <c r="F136" s="5"/>
-      <c r="G136" s="11" t="s">
+      <c r="G136" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H136" s="21"/>
@@ -7226,7 +7226,7 @@
       <c r="A139" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C139" s="21" t="s">
@@ -7242,10 +7242,10 @@
       <c r="G139" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="H139" s="13" t="s">
+      <c r="H139" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="I139" s="13" t="s">
+      <c r="I139" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J139" s="21" t="s">
@@ -7263,7 +7263,7 @@
       <c r="A140" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C140" s="21" t="s">
@@ -7304,7 +7304,7 @@
       <c r="A141" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C141" s="5" t="s">
@@ -7323,7 +7323,7 @@
       <c r="H141" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I141" s="17" t="s">
+      <c r="I141" s="7" t="s">
         <v>118</v>
       </c>
       <c r="J141" s="21"/>
@@ -7339,7 +7339,7 @@
       <c r="A142" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C142" s="21" t="s">
@@ -7348,17 +7348,17 @@
       <c r="D142" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E142" s="13" t="s">
+      <c r="E142" s="14" t="s">
         <v>398</v>
       </c>
       <c r="F142" s="21"/>
       <c r="G142" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="H142" s="13" t="s">
+      <c r="H142" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="I142" s="13" t="s">
+      <c r="I142" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J142" s="21" t="s">
@@ -7376,7 +7376,7 @@
       <c r="A143" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C143" s="21" t="s">
@@ -7385,17 +7385,17 @@
       <c r="D143" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E143" s="13" t="s">
+      <c r="E143" s="14" t="s">
         <v>400</v>
       </c>
       <c r="F143" s="21"/>
       <c r="G143" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="H143" s="13" t="s">
+      <c r="H143" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="I143" s="13" t="s">
+      <c r="I143" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J143" s="21" t="s">
@@ -7413,7 +7413,7 @@
       <c r="A144" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C144" s="21" t="s">
@@ -7422,19 +7422,19 @@
       <c r="D144" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E144" s="13" t="s">
+      <c r="E144" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="F144" s="13" t="s">
+      <c r="F144" s="14" t="s">
         <v>403</v>
       </c>
       <c r="G144" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="H144" s="13" t="s">
+      <c r="H144" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="I144" s="13" t="s">
+      <c r="I144" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J144" s="21" t="s">
@@ -7452,7 +7452,7 @@
       <c r="A145" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C145" s="21" t="s">
@@ -7493,7 +7493,7 @@
       <c r="A146" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C146" s="21" t="s">
@@ -7506,7 +7506,7 @@
         <v>407</v>
       </c>
       <c r="F146" s="21"/>
-      <c r="G146" s="15" t="s">
+      <c r="G146" s="16" t="s">
         <v>408</v>
       </c>
       <c r="H146" s="21" t="s">
@@ -7534,7 +7534,7 @@
       <c r="A147" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C147" s="21" t="s">
@@ -7543,7 +7543,7 @@
       <c r="D147" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E147" s="13" t="s">
+      <c r="E147" s="14" t="s">
         <v>409</v>
       </c>
       <c r="F147" s="21"/>
@@ -7575,7 +7575,7 @@
       <c r="A148" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C148" s="21" t="s">
@@ -7656,7 +7656,7 @@
         <v>419</v>
       </c>
       <c r="F150" s="5"/>
-      <c r="G150" s="11" t="s">
+      <c r="G150" s="12" t="s">
         <v>420</v>
       </c>
       <c r="H150" s="21"/>
@@ -7704,7 +7704,7 @@
       <c r="B152" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C152" s="14" t="s">
         <v>423</v>
       </c>
       <c r="D152" s="6" t="s">
@@ -7805,7 +7805,7 @@
       <c r="B155" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D155" s="6" t="s">
@@ -7836,7 +7836,7 @@
       <c r="B156" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D156" s="6" t="s">
@@ -7903,7 +7903,7 @@
       <c r="E158" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="F158" s="16"/>
+      <c r="F158" s="17"/>
       <c r="G158" s="9" t="s">
         <v>439</v>
       </c>
@@ -7911,7 +7911,7 @@
       <c r="I158" s="20"/>
       <c r="J158" s="20"/>
       <c r="K158" s="20"/>
-      <c r="L158" s="17"/>
+      <c r="L158" s="7"/>
       <c r="M158" s="6"/>
       <c r="N158" s="21"/>
       <c r="O158" s="21"/>
@@ -7930,7 +7930,7 @@
       <c r="E159" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="F159" s="16"/>
+      <c r="F159" s="17"/>
       <c r="G159" s="39" t="s">
         <v>441</v>
       </c>
@@ -7938,7 +7938,7 @@
       <c r="I159" s="20"/>
       <c r="J159" s="20"/>
       <c r="K159" s="20"/>
-      <c r="L159" s="17"/>
+      <c r="L159" s="7"/>
       <c r="M159" s="6"/>
       <c r="N159" s="21"/>
       <c r="O159" s="21"/>
@@ -7959,7 +7959,7 @@
       <c r="E160" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="F160" s="16"/>
+      <c r="F160" s="17"/>
       <c r="G160" s="39" t="s">
         <v>443</v>
       </c>
@@ -7975,7 +7975,7 @@
       <c r="K160" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="L160" s="17" t="s">
+      <c r="L160" s="7" t="s">
         <v>448</v>
       </c>
       <c r="M160" s="6" t="s">
@@ -8000,7 +8000,7 @@
       <c r="E161" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="F161" s="16"/>
+      <c r="F161" s="17"/>
       <c r="G161" s="41" t="s">
         <v>451</v>
       </c>
@@ -8013,8 +8013,8 @@
       <c r="J161" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="K161" s="16"/>
-      <c r="L161" s="7"/>
+      <c r="K161" s="17"/>
+      <c r="L161" s="11"/>
       <c r="M161" s="5"/>
       <c r="N161" s="21"/>
       <c r="O161" s="21"/>
@@ -8051,7 +8051,7 @@
         <v>457</v>
       </c>
       <c r="K162" s="20"/>
-      <c r="L162" s="7"/>
+      <c r="L162" s="11"/>
       <c r="M162" s="5"/>
       <c r="N162" s="21"/>
       <c r="O162" s="21"/>
@@ -8072,7 +8072,7 @@
       <c r="E163" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="F163" s="7"/>
+      <c r="F163" s="11"/>
       <c r="G163" s="41" t="s">
         <v>459</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>67</v>
       </c>
       <c r="K163" s="42"/>
-      <c r="L163" s="16"/>
+      <c r="L163" s="17"/>
       <c r="M163" s="5"/>
       <c r="N163" s="21"/>
       <c r="O163" s="21"/>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="164">
       <c r="A164" s="10"/>
-      <c r="B164" s="12" t="s">
+      <c r="B164" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C164" s="5" t="s">
@@ -8113,9 +8113,9 @@
       <c r="G164" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="H164" s="16"/>
-      <c r="I164" s="16"/>
-      <c r="J164" s="16"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
       <c r="K164" s="42"/>
       <c r="L164" s="43"/>
       <c r="M164" s="5"/>
@@ -8138,7 +8138,7 @@
       <c r="E165" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="F165" s="7"/>
+      <c r="F165" s="11"/>
       <c r="G165" s="41" t="s">
         <v>464</v>
       </c>
@@ -8148,8 +8148,8 @@
       <c r="I165" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="J165" s="16"/>
-      <c r="K165" s="16"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
       <c r="L165" s="43"/>
       <c r="M165" s="5"/>
       <c r="N165" s="21"/>
@@ -8162,7 +8162,7 @@
       <c r="B166" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C166" s="12" t="s">
         <v>305</v>
       </c>
       <c r="D166" s="6" t="s">
@@ -8171,7 +8171,7 @@
       <c r="E166" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="F166" s="7"/>
+      <c r="F166" s="11"/>
       <c r="G166" s="41" t="s">
         <v>468</v>
       </c>
@@ -8181,9 +8181,9 @@
       <c r="I166" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="J166" s="16"/>
-      <c r="K166" s="16"/>
-      <c r="L166" s="16"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
       <c r="M166" s="5"/>
       <c r="N166" s="21"/>
       <c r="O166" s="21"/>
@@ -8195,7 +8195,7 @@
       <c r="B167" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C167" s="12" t="s">
         <v>305</v>
       </c>
       <c r="D167" s="6" t="s">
@@ -8204,7 +8204,7 @@
       <c r="E167" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="F167" s="16"/>
+      <c r="F167" s="17"/>
       <c r="G167" s="41" t="s">
         <v>471</v>
       </c>
@@ -8214,9 +8214,9 @@
       <c r="I167" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="J167" s="16"/>
-      <c r="K167" s="16"/>
-      <c r="L167" s="16"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="17"/>
       <c r="M167" s="5"/>
       <c r="N167" s="21"/>
       <c r="O167" s="21"/>
@@ -8237,7 +8237,7 @@
       <c r="E168" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="F168" s="16"/>
+      <c r="F168" s="17"/>
       <c r="G168" s="41" t="s">
         <v>473</v>
       </c>
@@ -8276,7 +8276,7 @@
       <c r="E169" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="F169" s="16"/>
+      <c r="F169" s="17"/>
       <c r="G169" s="41" t="s">
         <v>480</v>
       </c>
@@ -8289,8 +8289,8 @@
       <c r="J169" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="K169" s="16"/>
-      <c r="L169" s="16"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17"/>
       <c r="M169" s="5"/>
       <c r="N169" s="21"/>
       <c r="O169" s="21"/>
@@ -8337,7 +8337,7 @@
       <c r="B171" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="12" t="s">
         <v>305</v>
       </c>
       <c r="D171" s="6" t="s">
@@ -8346,7 +8346,7 @@
       <c r="E171" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="F171" s="16"/>
+      <c r="F171" s="17"/>
       <c r="G171" s="41" t="s">
         <v>488</v>
       </c>
@@ -8356,9 +8356,9 @@
       <c r="I171" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="J171" s="16"/>
-      <c r="K171" s="16"/>
-      <c r="L171" s="16"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
+      <c r="L171" s="17"/>
       <c r="M171" s="5"/>
       <c r="N171" s="21"/>
       <c r="O171" s="21"/>
@@ -8376,7 +8376,7 @@
       <c r="D172" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E172" s="13" t="s">
+      <c r="E172" s="14" t="s">
         <v>489</v>
       </c>
       <c r="F172" s="21"/>
